--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -2,17 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\後期チーム制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様書" sheetId="1" r:id="rId1"/>
+    <sheet name="マップ配置図" sheetId="2" r:id="rId2"/>
+    <sheet name="①" sheetId="3" r:id="rId3"/>
+    <sheet name="②" sheetId="4" r:id="rId4"/>
+    <sheet name="③" sheetId="5" r:id="rId5"/>
+    <sheet name="④" sheetId="6" r:id="rId6"/>
+    <sheet name="⑤" sheetId="7" r:id="rId7"/>
+    <sheet name="⑥" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +45,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -64,9 +79,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -83,6 +104,4344 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4267200" y="6024574"/>
+          <a:ext cx="704849" cy="2247899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9696451" y="4057650"/>
+          <a:ext cx="704849" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="990600"/>
+          <a:ext cx="4981575" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="5972175"/>
+          <a:ext cx="2095500" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047876" y="9486900"/>
+          <a:ext cx="704849" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="10287000"/>
+          <a:ext cx="476250" cy="838201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>玄関</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047876" y="8201025"/>
+          <a:ext cx="704849" cy="1285874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257173</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6438899" y="6100772"/>
+          <a:ext cx="704849" cy="2095501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820025" y="6781800"/>
+          <a:ext cx="3038475" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1314450"/>
+          <a:ext cx="2047875" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>ボス部屋</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="9010650"/>
+          <a:ext cx="533400" cy="1009651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>廊下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="6915150"/>
+          <a:ext cx="819150" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>廊下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="5105400"/>
+          <a:ext cx="533400" cy="1009651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>廊下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504949" y="6096000"/>
+          <a:ext cx="1247776" cy="523876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>戦闘部屋</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877174" y="6857999"/>
+          <a:ext cx="1247776" cy="1266826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>戦闘部屋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>和室</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="1447801"/>
+          <a:ext cx="1381125" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200524" y="1266825"/>
+          <a:ext cx="1914525" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>ボス部屋</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="2628901"/>
+          <a:ext cx="1381125" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="3829051"/>
+          <a:ext cx="1381125" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="4914901"/>
+          <a:ext cx="1381125" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4190999" y="2457450"/>
+          <a:ext cx="1914525" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>雑魚戦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4190999" y="3629025"/>
+          <a:ext cx="1914525" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ある程度の雑魚</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181474" y="4733925"/>
+          <a:ext cx="1914525" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>敵がわかない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2905125" y="9467851"/>
+          <a:ext cx="962025" cy="838199"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3510643" y="8327571"/>
+          <a:ext cx="1038226" cy="998765"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6200775" y="7648576"/>
+          <a:ext cx="161926" cy="1485899"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10991850" y="8391525"/>
+          <a:ext cx="714375" cy="1400176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7667625" y="4381501"/>
+          <a:ext cx="962026" cy="1076324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ボタン1" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="10058399"/>
+          <a:ext cx="876300" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="8715374"/>
+          <a:ext cx="876300" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="8982074"/>
+          <a:ext cx="876300" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="9677399"/>
+          <a:ext cx="876300" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7089321" y="5531303"/>
+          <a:ext cx="870858" cy="932089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11306175" y="5876924"/>
+          <a:ext cx="876300" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10534650" y="5448300"/>
+          <a:ext cx="1209675" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="800099"/>
+          <a:ext cx="695325" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457449" y="752475"/>
+          <a:ext cx="990601" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>566487</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>300790</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="566487" y="180474"/>
+          <a:ext cx="1107908" cy="741948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①の詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>506330</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>155409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>626646</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1879935" y="155409"/>
+          <a:ext cx="1493922" cy="516356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>名所：廊下１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>185487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2050381" y="822158"/>
+          <a:ext cx="2877553" cy="325855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>進んだ先にこのゲーム最初の敵が出現する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>471233</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>105276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25064</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1158036" y="1308434"/>
+          <a:ext cx="2301041" cy="1027698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵の総数：３～５</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ゲームが初心者でもやりやすい　　と言うコンセプトである程度倒しやすい数に設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>255670</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>375986</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3689683" y="160420"/>
+          <a:ext cx="2867527" cy="576513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一直線構造：両側に壁があり、その先には雑魚戦部屋がある。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>375987</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>205538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="1539039"/>
+          <a:ext cx="2351171" cy="1072815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ここからお菓子の回収が始まり、最初の先頭なので、お菓子は敵は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>確定でお菓子を落とし回収</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>できるようにしたい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>486275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>70183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>210553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667499" y="3198394"/>
+          <a:ext cx="867277" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>変更可</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60159</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30079</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60159" y="1523999"/>
+          <a:ext cx="656723" cy="431133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>20713</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82254</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20947320">
+          <a:off x="20713" y="1075995"/>
+          <a:ext cx="748344" cy="290764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>クリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>617648</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="左矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18630989">
+          <a:off x="522319" y="1157775"/>
+          <a:ext cx="424487" cy="233830"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>511343</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>245646</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="511343" y="170448"/>
+          <a:ext cx="1107908" cy="741948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②の詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>451183</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1824788" y="125327"/>
+          <a:ext cx="2085475" cy="516356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>名所：雑魚戦部屋１</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>115302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>391026</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>205539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4100763" y="115302"/>
+          <a:ext cx="2471487" cy="812132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>長方形構造：少し大きい部屋であり、言わゆるヤリ部屋である。その先には和室に続く廊下へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335881</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>235618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>521368</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1022684" y="1198144"/>
+          <a:ext cx="2245895" cy="1087856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵の総数：１０～１５</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　多い気もするが、総数なので、ある一定の数を倒したらわかせたい。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35093</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>140369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180474</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>235619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3469106" y="1343527"/>
+          <a:ext cx="3579394" cy="817145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ここから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このゲームがどいう（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>楽しんでもらえるか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分け目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>になる、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ある程度戦闘を楽しんで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>もらえるよう工夫（考え中）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>471237</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>651712</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6652461" y="3188369"/>
+          <a:ext cx="867277" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>変更可</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74538</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44458</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="74538" y="1509303"/>
+          <a:ext cx="656723" cy="431133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>96633</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>148905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20947320">
+          <a:off x="35092" y="1061299"/>
+          <a:ext cx="748344" cy="290764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>クリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>632027</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179054</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="左矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18630989">
+          <a:off x="536698" y="1143079"/>
+          <a:ext cx="424487" cy="233830"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>521369</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255672</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>210554</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="521369" y="190501"/>
+          <a:ext cx="1107908" cy="741948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③の詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446171</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586538</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819776" y="145382"/>
+          <a:ext cx="1513973" cy="586538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>名所：廊下２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>651711</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3554329" y="240632"/>
+          <a:ext cx="2591803" cy="812132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一直線構造：最初は、敵がでないが進めば敵が出現、カメラが手前の壁に埋まらないように注意！その先は和室へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>345907</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>531394</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1032710" y="1218197"/>
+          <a:ext cx="2245895" cy="1087856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵の総数：６～９</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　数は前の部屋より少ないが、廊下で幅が狭いの慣れたスキルで倒してほしいところ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45119</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3479132" y="1363580"/>
+          <a:ext cx="3579394" cy="817145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481263</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661738</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>220581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662487" y="3208422"/>
+          <a:ext cx="867277" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>変更可</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84564</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54484</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84564" y="1529356"/>
+          <a:ext cx="656723" cy="431133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45118</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>118826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106659</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168958</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20947320">
+          <a:off x="45118" y="1081352"/>
+          <a:ext cx="748344" cy="290764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>クリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642053</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>189080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18630989">
+          <a:off x="546724" y="1163132"/>
+          <a:ext cx="424487" cy="233830"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,9 +4707,1514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="C4:R47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="4" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:R47"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4710,7 +4710,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" activeCellId="1" sqref="A1 G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -4724,803 +4726,803 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C4:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="4" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
     </row>
     <row r="20" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
     </row>
     <row r="21" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
     </row>
     <row r="22" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
     </row>
     <row r="23" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
     </row>
     <row r="24" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
     </row>
     <row r="27" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
     </row>
     <row r="28" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
     </row>
     <row r="29" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
     <row r="30" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
     </row>
     <row r="32" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
     </row>
     <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
     </row>
     <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
     </row>
     <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
     </row>
     <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5545,199 +5547,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5761,199 +5763,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5970,206 +5972,206 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -4727,7 +4727,7 @@
   <dimension ref="C4:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -4727,7 +4727,7 @@
   <dimension ref="C4:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,16 +56,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,9 +86,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -86,11 +117,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2718,16 +2750,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676776</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120316</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>386012</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>185487</xdr:rowOff>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>516355</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>115302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2736,7 +2768,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050381" y="822158"/>
+          <a:off x="1072815" y="992605"/>
           <a:ext cx="2877553" cy="325855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2783,15 +2815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>471233</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>501312</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>105276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>25064</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>170448</xdr:rowOff>
+      <xdr:colOff>55143</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2800,7 +2832,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1158036" y="1308434"/>
+          <a:off x="1188115" y="2270960"/>
           <a:ext cx="2301041" cy="1027698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2919,15 +2951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>375987</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>205538</xdr:rowOff>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270711</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>195512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2936,7 +2968,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810000" y="1539039"/>
+          <a:off x="4100764" y="2250908"/>
           <a:ext cx="2351171" cy="1072815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2973,7 +3005,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ここからお菓子の回収が始まり、最初の先頭なので、お菓子は敵は</a:t>
+            <a:t>ここからお菓子の回収が始まり、最初の先頭なので、敵は</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -3239,6 +3271,227 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411079</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55144</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411079" y="2225842"/>
+          <a:ext cx="330868" cy="621632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>413084</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>187492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="413084" y="2834439"/>
+          <a:ext cx="330868" cy="621632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>611604</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>115304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>536407</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1298407" y="2040357"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32083</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127336</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4228096" y="1982204"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POINT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3441,16 +3694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>335881</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>235618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>521368</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220579</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5014</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3459,7 +3712,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1022684" y="1198144"/>
+          <a:off x="1408697" y="1564105"/>
           <a:ext cx="2245895" cy="1087856"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3514,15 +3767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>35093</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>140369</xdr:rowOff>
+      <xdr:colOff>350922</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180474</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>235619</xdr:rowOff>
+      <xdr:colOff>496303</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>225593</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3531,7 +3784,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3469106" y="1343527"/>
+          <a:off x="3784935" y="2296027"/>
           <a:ext cx="3579394" cy="817145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3873,6 +4126,173 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>115303</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581526</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>220579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115303" y="2656974"/>
+          <a:ext cx="1153026" cy="691816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>155408</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80210</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1529013" y="1291390"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>483268</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>408070</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3917281" y="2035342"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POINT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4064,15 +4484,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>345907</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15039</xdr:rowOff>
+      <xdr:colOff>446170</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>531394</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>140369</xdr:rowOff>
+      <xdr:colOff>631657</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4081,7 +4501,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032710" y="1218197"/>
+          <a:off x="1132973" y="1599197"/>
           <a:ext cx="2245895" cy="1087856"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4136,15 +4556,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>45119</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160422</xdr:rowOff>
+      <xdr:colOff>265698</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15041</xdr:rowOff>
+      <xdr:colOff>330869</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4153,8 +4573,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3479132" y="1363580"/>
-          <a:ext cx="3579394" cy="817145"/>
+          <a:off x="3699711" y="2351172"/>
+          <a:ext cx="3499184" cy="817145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4188,7 +4608,26 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戦闘も慣れたところで、少し難しい幅が狭いステージ、ここでは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ひっかきをうまく使って（ひっかきの爽快感）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ほしいので、敵を調整</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4435,6 +4874,2591 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>155406</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90236</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="987591" y="2702092"/>
+          <a:ext cx="330868" cy="621632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>227596</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>202532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>162425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="372978" y="2704097"/>
+          <a:ext cx="330868" cy="621632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>576513</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>113298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>501316</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1263316" y="1316456"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357939</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>282741</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3791952" y="2100514"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POINT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>521371</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255674</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>205542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="521371" y="185489"/>
+          <a:ext cx="1107908" cy="741948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④の詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446173</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819778" y="140370"/>
+          <a:ext cx="1513973" cy="586538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>名所：和室</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120318</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>235620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295776</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3554331" y="235620"/>
+          <a:ext cx="2922669" cy="812132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>正方形構造：入ったら敵が出現ある程度部屋自体は広く、戦いやすい家具も出すなら和室に関係あるもの、その先は最後の廊下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>245647</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155407</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1433765" y="1734553"/>
+          <a:ext cx="2245895" cy="1308433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵の総数：１５～２０</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　逃げる敵も攻撃してくる敵も出て</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>THE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戦闘部屋、一気に敵がでてくるわけではないが、多いので</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に注意</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>446174</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591555</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3880187" y="2316081"/>
+          <a:ext cx="3579394" cy="817145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ的には残り半分を切ったところ、敵の数も多くなってきてるが、ここでは少し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>％テージに気にする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>よう調節</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481265</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662489" y="3203410"/>
+          <a:ext cx="867277" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>変更可</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84566</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54486</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84566" y="1524344"/>
+          <a:ext cx="656723" cy="431133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑤へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106661</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163946</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20947320">
+          <a:off x="45120" y="1076340"/>
+          <a:ext cx="748344" cy="290764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>クリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642055</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>189082</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="左矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18630989">
+          <a:off x="546726" y="1158120"/>
+          <a:ext cx="424487" cy="233830"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120315</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>135355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586538</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>195513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="120315" y="2541671"/>
+          <a:ext cx="1153026" cy="1022684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>315829</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240631</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689434" y="1456824"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>578518</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>503320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4012531" y="2045369"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POINT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>521369</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255672</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>205540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="521369" y="185487"/>
+          <a:ext cx="1107908" cy="741948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑤の詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446171</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586538</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819776" y="140368"/>
+          <a:ext cx="1513973" cy="586538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>名所：廊下３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>235618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3554329" y="235618"/>
+          <a:ext cx="2922669" cy="812132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一直線構造：戦闘部屋が終わって少し進んだらすぐ敵、ここを乗り越えれば最終のボス部屋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>70184</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>255671</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>220576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1443789" y="1799722"/>
+          <a:ext cx="2245895" cy="1308433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵の総数：９～１２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　廊下の中では一番敵が多い、ここも一気にだすんじゃなくて一定数を倒したらとかしたら敵を追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>421106</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566487</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3855119" y="2326106"/>
+          <a:ext cx="3579394" cy="817145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ここは最後の廊下で次がボス部屋言うことだけあって</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を満タンにして行って</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ほしいので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>感ずかれない程度に回復アイテムを出してほしい</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481263</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661738</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662487" y="3203408"/>
+          <a:ext cx="867277" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>変更可</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84564</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54484</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30422</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84564" y="1524342"/>
+          <a:ext cx="656723" cy="431133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑥へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45118</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106659</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20947320">
+          <a:off x="45118" y="1076338"/>
+          <a:ext cx="748344" cy="290764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>クリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642053</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>189080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="左矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18630989">
+          <a:off x="546724" y="1158118"/>
+          <a:ext cx="424487" cy="233830"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320842</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>651710</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="320842" y="2341144"/>
+          <a:ext cx="330868" cy="1127961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335882</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260684</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1709487" y="1521995"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>608597</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>195513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4042610" y="2050381"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POINT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>521369</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255672</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>210555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="521369" y="190502"/>
+          <a:ext cx="1107908" cy="741948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑥の詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446171</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586538</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819776" y="145383"/>
+          <a:ext cx="1513973" cy="586538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>名所：ボス部屋</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3554329" y="240633"/>
+          <a:ext cx="2922669" cy="812132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>正方形構造：お菓子①の周りにボスがいるイメージ、部屋はリビングのような清潔感がある部屋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>375986</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561473</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1062789" y="1709486"/>
+          <a:ext cx="2245895" cy="1789698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵の総数：２０～２５</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス：１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ゲームでは最後の戦い、％も気にしながら、敵も倒しつつ、お菓子を回収する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボスには攻撃できるが雑魚の方が優先して倒してほしい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431132</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>195516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3719764" y="1544055"/>
+          <a:ext cx="3579394" cy="817145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全部のモーション、アイテムを駆使して臨機応変に戦ってほしい、と言っても</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>初心者でもクリア</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>はできるようにしたいので、そこは調整</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481263</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661738</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>220582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662487" y="3208423"/>
+          <a:ext cx="867277" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>変更可</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84564</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84564" y="1529357"/>
+          <a:ext cx="887989" cy="431133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リザルトへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45118</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>118827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106659</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20947320">
+          <a:off x="45118" y="1081353"/>
+          <a:ext cx="748344" cy="290764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>クリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642053</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>189080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="左矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18630989">
+          <a:off x="546724" y="1163133"/>
+          <a:ext cx="424487" cy="233830"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>516355</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>75198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170448</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4637171" y="2481514"/>
+          <a:ext cx="1027698" cy="1092868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>245645</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396041</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5053263" y="2727158"/>
+          <a:ext cx="150396" cy="160421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>486276</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>233613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411079</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1173079" y="1436771"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>418097</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>75197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>145382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3852110" y="1278355"/>
+          <a:ext cx="611605" cy="310816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POINT</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4726,8 +7750,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C4:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5541,7 +8565,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5757,7 +8781,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5973,7 +8997,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6186,41 +9210,648 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="④" sheetId="6" r:id="rId6"/>
     <sheet name="⑤" sheetId="7" r:id="rId7"/>
     <sheet name="⑥" sheetId="8" r:id="rId8"/>
+    <sheet name="敵情報" sheetId="9" r:id="rId9"/>
+    <sheet name="ステータス" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,9 +32,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>仕様書項目</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ配置図</t>
+    <rPh sb="3" eb="5">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵情報</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の情報</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,8 +122,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,8 +160,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -101,18 +189,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -120,9 +355,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
+    <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7108,7 +7381,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リザルトへ</a:t>
+            <a:t>敵情報へ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7460,6 +7733,868 @@
             <a:t>POINT</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348157</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>387571</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714502" y="1116724"/>
+          <a:ext cx="722586" cy="361294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ネズミ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296918</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>72258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7128642" y="1223142"/>
+          <a:ext cx="1141685" cy="361294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ボスネズミ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257505</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>204952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>505810</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3673367" y="1623849"/>
+          <a:ext cx="1614650" cy="361294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃してくるネズミ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>455888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>186559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124810</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1139060" y="1605456"/>
+          <a:ext cx="1035267" cy="361294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>逃げるネズミ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>203638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>564930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1024758" y="2095500"/>
+          <a:ext cx="2272862" cy="906517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ほぼ確定でお菓子を持っていてネコから逃げる、たまに他のアイテムもドロップする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158969</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="842141" y="3410608"/>
+          <a:ext cx="2632841" cy="846082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>足はネコが歩きとダッシュを使えば追いつくぐらいに設定（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>歩きだけでは追いつけない一直線なら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>210207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315311</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3599793" y="2102069"/>
+          <a:ext cx="2180897" cy="991913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>近づいてきて、ひっかき（仮）をしてくる、アイテムもたまにドロップする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197413</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>97564</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3634696" y="3504744"/>
+          <a:ext cx="2649977" cy="860934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>近づいてくるスピードはネコの歩きよりちょっと遅いぐらい、（ネコ側が振り向て攻撃できるぐらい）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419022" y="1714501"/>
+          <a:ext cx="1515717" cy="339586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>参考動物：溝ネズミ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657639</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6844748" y="2546075"/>
+          <a:ext cx="2133600" cy="609599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お菓子の前から動かない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボスゲージを出したい</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323022</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>621197</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="5077240"/>
+          <a:ext cx="1673088" cy="555373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="slope"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ステータスへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>329648</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400879</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6516757" y="3402497"/>
+          <a:ext cx="2133600" cy="1310307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボスの攻撃は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>周囲攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>遠距離攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>正面攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>できたら後ろ攻撃</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7732,11 +8867,84 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
+  <dimension ref="C2:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C6" location="マップ配置図!A1" display="マップ配置図"/>
+    <hyperlink ref="C7" location="敵情報!A1" display="敵情報"/>
+    <hyperlink ref="C8" location="ステータス!A1" display="ステータス"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" activeCellId="1" sqref="A1 G25"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -7750,803 +8958,803 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C4:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="4" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
     <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
     <row r="24" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
     </row>
     <row r="25" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
     </row>
     <row r="26" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
     </row>
     <row r="27" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
     </row>
     <row r="28" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
     </row>
     <row r="29" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
     </row>
     <row r="30" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
     </row>
     <row r="31" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
     </row>
     <row r="32" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
     </row>
     <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
     </row>
     <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
     </row>
     <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
     </row>
     <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8571,199 +9779,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8787,199 +9995,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9003,199 +10211,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9219,199 +10427,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9436,199 +10644,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9645,206 +10853,206 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9854,4 +11062,357 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O24"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:O24"/>
+    <mergeCell ref="C2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>仕様書項目</t>
     <rPh sb="0" eb="3">
@@ -83,6 +83,109 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逃げるネズミ</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ネズミ</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスネズミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足し算、引き算形式</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひっかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴き声</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃アップ</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -166,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -324,6 +427,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -339,21 +470,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -379,16 +498,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8869,8 +9015,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8879,51 +9025,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8942,14 +9088,164 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="H2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21">
+        <v>100</v>
+      </c>
+      <c r="D6" s="21">
+        <v>50</v>
+      </c>
+      <c r="E6" s="21">
+        <v>50</v>
+      </c>
+      <c r="F6" s="21">
+        <v>50</v>
+      </c>
+      <c r="G6" s="21">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
+        <v>100</v>
+      </c>
+      <c r="E7" s="20">
+        <v>100</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8965,796 +9261,796 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="4" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
     </row>
     <row r="26" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
     <row r="27" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
     </row>
     <row r="28" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
     </row>
     <row r="29" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
     </row>
     <row r="30" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
     </row>
     <row r="31" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
     </row>
     <row r="32" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
     </row>
     <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
     </row>
     <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
     </row>
     <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
     </row>
     <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9779,199 +10075,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9995,199 +10291,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10211,199 +10507,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10427,199 +10723,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10644,199 +10940,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10860,199 +11156,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11075,336 +11371,336 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -504,6 +504,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,18 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9025,18 +9025,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
@@ -9090,7 +9090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -9101,22 +9101,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="8"/>
@@ -9126,19 +9126,19 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -9152,22 +9152,22 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="14">
         <v>100</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="14">
         <v>50</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="14">
         <v>50</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="14">
         <v>50</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="14">
         <v>90</v>
       </c>
       <c r="I6" t="s">
@@ -9184,18 +9184,18 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
         <v>100</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="13">
         <v>100</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="I7" t="s">
         <v>9</v>
       </c>
@@ -9254,803 +9254,803 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C4:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="4" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
     </row>
     <row r="14" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
     </row>
     <row r="15" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
     </row>
     <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
     </row>
     <row r="23" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
     </row>
     <row r="24" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
     </row>
     <row r="25" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
     </row>
     <row r="26" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
     </row>
     <row r="27" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
     </row>
     <row r="28" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
     </row>
     <row r="29" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
     </row>
     <row r="30" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
     </row>
     <row r="31" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
     </row>
     <row r="32" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
     </row>
     <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
     </row>
     <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
     </row>
     <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
     </row>
     <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10075,199 +10075,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10291,199 +10291,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10507,199 +10507,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10723,199 +10723,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10940,199 +10940,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11156,199 +11156,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11371,336 +11371,336 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>仕様書項目</t>
     <rPh sb="0" eb="3">
@@ -160,24 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃アップ</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スピードアップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP回復</t>
-    <rPh sb="2" eb="4">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>歩く</t>
     <rPh sb="0" eb="1">
       <t>アル</t>
@@ -186,6 +168,71 @@
   </si>
   <si>
     <t>ダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP回復量</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃アップ時</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードアップ時</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃周囲</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃遠</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃単</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -269,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -455,6 +502,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -470,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,17 +646,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,6 +675,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9025,18 +9200,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
@@ -9088,10 +9263,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L9"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9100,142 +9275,175 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+      <c r="D6" s="12">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100</v>
+      </c>
+      <c r="F6" s="12">
+        <v>50</v>
+      </c>
+      <c r="G6" s="25">
+        <v>90</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>200</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>21</v>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
+        <v>100</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="E7" s="11">
+        <v>200</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="27"/>
+      <c r="I7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="21">
+        <v>100</v>
+      </c>
+      <c r="K7" s="21">
         <v>12</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14">
-        <v>100</v>
-      </c>
-      <c r="D6" s="14">
-        <v>50</v>
-      </c>
-      <c r="E6" s="14">
-        <v>50</v>
-      </c>
-      <c r="F6" s="14">
-        <v>50</v>
-      </c>
-      <c r="G6" s="14">
-        <v>90</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13">
-        <v>100</v>
-      </c>
-      <c r="E7" s="13">
-        <v>100</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
-      </c>
-      <c r="L7">
+      <c r="L7" s="32">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>18</v>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
-      <c r="G8" s="1">
-        <v>105</v>
+      <c r="G8" s="5">
+        <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>50</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="I9" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="I9" s="29" t="s">
         <v>10</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="6">
+        <v>30</v>
+      </c>
+      <c r="L9" s="6">
+        <v>20</v>
+      </c>
+      <c r="M9" s="6">
+        <v>50</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9254,803 +9462,803 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C4:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="4" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
     </row>
     <row r="22" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
     </row>
     <row r="23" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="24" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
     </row>
     <row r="25" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
     </row>
     <row r="26" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
     </row>
     <row r="27" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
     </row>
     <row r="28" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
     </row>
     <row r="30" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
     </row>
     <row r="31" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
     </row>
     <row r="32" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
     </row>
     <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
     </row>
     <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
     </row>
     <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
     </row>
     <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10075,199 +10283,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10291,199 +10499,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10507,199 +10715,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10723,199 +10931,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10940,199 +11148,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11156,199 +11364,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11371,336 +11579,336 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>仕様書項目</t>
     <rPh sb="0" eb="3">
@@ -235,12 +235,27 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>一桁数字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しく</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.24か0.23</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +309,30 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -612,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,24 +694,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,6 +732,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8916,6 +8979,2679 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>できたら後ろ攻撃</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>911087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="下矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5027543" y="4994413"/>
+          <a:ext cx="2012674" cy="1424609"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861391" y="7048500"/>
+          <a:ext cx="480391" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>935935</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1623392" y="6385891"/>
+          <a:ext cx="911087" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ひっかく時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480392</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1913284" y="6742045"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>逃げるネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>４回で倒せる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>77856</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480390</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1916595" y="7366553"/>
+          <a:ext cx="1089991" cy="584751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃ネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>207066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1341782" y="7023653"/>
+          <a:ext cx="571502" cy="173934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>77856</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341782" y="7197587"/>
+          <a:ext cx="574813" cy="461342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657638</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>226943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450573</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3183834" y="7043530"/>
+          <a:ext cx="480391" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44726</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268357</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102704</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3945835" y="6380921"/>
+          <a:ext cx="911087" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なき声時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334618</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53009</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235727" y="6737075"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>逃げるネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337929</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>64605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53007</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>168964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4239038" y="7361583"/>
+          <a:ext cx="1089991" cy="584751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃ネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450573</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>202096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334618</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3664225" y="7018683"/>
+          <a:ext cx="571502" cy="173934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450573</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337929</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3664225" y="7192617"/>
+          <a:ext cx="574813" cy="461342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160681</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>193814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>641072</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="848138" y="9412357"/>
+          <a:ext cx="480391" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>922682</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>682487</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610139" y="8749748"/>
+          <a:ext cx="911087" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ひっかく時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61292</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467139</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>210379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1900031" y="9105902"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>逃げるネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64603</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467137</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>135835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1903342" y="9730410"/>
+          <a:ext cx="1089991" cy="584751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃ネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>641072</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61292</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1328529" y="9387510"/>
+          <a:ext cx="571502" cy="173934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>641072</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64603</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>83656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1328529" y="9561444"/>
+          <a:ext cx="574813" cy="461342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>644385</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>188844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437320</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3170581" y="9407387"/>
+          <a:ext cx="480391" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31473</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>255104</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3932582" y="8744778"/>
+          <a:ext cx="911087" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なき声時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321365</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>122584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39756</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>205409</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4222474" y="9100932"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>逃げるネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324676</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39754</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>130865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4225785" y="9725440"/>
+          <a:ext cx="1089991" cy="584751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃ネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321365</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97735</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3650972" y="9382540"/>
+          <a:ext cx="571502" cy="173934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437320</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324676</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>78686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3650972" y="9556474"/>
+          <a:ext cx="574813" cy="461342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2393674" y="8141804"/>
+          <a:ext cx="1681370" cy="447261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>パワーアップ時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>513523</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6642653" y="7134639"/>
+          <a:ext cx="621195" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ねずみ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>384313</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>135834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>193813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7507356" y="6472030"/>
+          <a:ext cx="1164535" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネズミ攻撃時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674204</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7797247" y="6828183"/>
+          <a:ext cx="1429579" cy="891207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ体力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>８回耐えれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>９回目で死ぬ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>217004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674204</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>226943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7263848" y="7273787"/>
+          <a:ext cx="533399" cy="9939"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198782</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5640456" y="9508435"/>
+          <a:ext cx="621195" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ねずみ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251790</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339588</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6380920" y="8953500"/>
+          <a:ext cx="1081711" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス攻撃周囲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>458855</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>198785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306455</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129209</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6587985" y="9417328"/>
+          <a:ext cx="1528970" cy="891207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ体力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>３回耐えれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>４回目で死ぬ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>886240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7015370" y="8183217"/>
+          <a:ext cx="1681370" cy="447261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ボス戦時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>354493</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>202096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>538369</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8164993" y="8940248"/>
+          <a:ext cx="970724" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス攻撃遠</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495297</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>210380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>549963</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305797" y="9428923"/>
+          <a:ext cx="1528970" cy="891207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ体力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>４回耐えれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>５回目で死ぬ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>498610</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>197126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9783414" y="8935278"/>
+          <a:ext cx="967412" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス攻撃単</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67914</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>221975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>221971</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10040175" y="9440518"/>
+          <a:ext cx="1528970" cy="891207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ体力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回耐えれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２回目で死ぬ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9200,18 +11936,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
@@ -9263,35 +11999,36 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N9"/>
+  <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q5" sqref="P5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="H2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
@@ -9301,35 +12038,35 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="24" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="12">
@@ -9344,10 +12081,10 @@
       <c r="F6" s="12">
         <v>50</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="19">
         <v>90</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1">
@@ -9357,11 +12094,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="11"/>
@@ -9372,22 +12109,22 @@
         <v>200</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="27"/>
-      <c r="I7" s="31" t="s">
+      <c r="G7" s="21"/>
+      <c r="I7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="15">
         <v>100</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="15">
         <v>12</v>
       </c>
-      <c r="L7" s="32">
-        <v>35</v>
+      <c r="L7" s="26">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1"/>
@@ -9400,24 +12137,24 @@
         <v>100</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="6">
@@ -9427,7 +12164,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="23" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="6">
@@ -9446,14 +12183,557 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="H11" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="21"/>
+      <c r="I17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="I19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
+        <v>30</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="B27:P46"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J22:M25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9469,796 +12749,796 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="4" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
     </row>
     <row r="9" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
     </row>
     <row r="10" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
     </row>
     <row r="17" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
     </row>
     <row r="19" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
     </row>
     <row r="20" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
     </row>
     <row r="21" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
     </row>
     <row r="23" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
     </row>
     <row r="24" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
     </row>
     <row r="25" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
     </row>
     <row r="28" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
     </row>
     <row r="29" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
     </row>
     <row r="30" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
     </row>
     <row r="31" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
     </row>
     <row r="32" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
     </row>
     <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
     </row>
     <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
     </row>
     <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
     </row>
     <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10283,199 +13563,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10499,199 +13779,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10715,199 +13995,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10931,199 +14211,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11148,199 +14428,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11364,199 +14644,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11579,336 +14859,336 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>仕様書項目</t>
     <rPh sb="0" eb="3">
@@ -160,24 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃アップ</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スピードアップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP回復</t>
-    <rPh sb="2" eb="4">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>歩く</t>
     <rPh sb="0" eb="1">
       <t>アル</t>
@@ -188,12 +170,92 @@
     <t>ダッシュ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>HP回復量</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃アップ時</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードアップ時</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃周囲</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃遠</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃単</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一桁数字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しく</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.24か0.23</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +312,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -269,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -455,6 +541,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -470,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,16 +685,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -535,6 +752,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8741,6 +8979,2679 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>できたら後ろ攻撃</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>911087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="下矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5027543" y="4994413"/>
+          <a:ext cx="2012674" cy="1424609"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861391" y="7048500"/>
+          <a:ext cx="480391" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>935935</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1623392" y="6385891"/>
+          <a:ext cx="911087" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ひっかく時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480392</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1913284" y="6742045"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>逃げるネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>４回で倒せる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>77856</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480390</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1916595" y="7366553"/>
+          <a:ext cx="1089991" cy="584751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃ネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>207066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1341782" y="7023653"/>
+          <a:ext cx="571502" cy="173934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>77856</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341782" y="7197587"/>
+          <a:ext cx="574813" cy="461342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657638</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>226943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450573</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3183834" y="7043530"/>
+          <a:ext cx="480391" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44726</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268357</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102704</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3945835" y="6380921"/>
+          <a:ext cx="911087" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なき声時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334618</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53009</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235727" y="6737075"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>逃げるネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337929</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>64605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53007</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>168964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4239038" y="7361583"/>
+          <a:ext cx="1089991" cy="584751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃ネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450573</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>202096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334618</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3664225" y="7018683"/>
+          <a:ext cx="571502" cy="173934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450573</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337929</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3664225" y="7192617"/>
+          <a:ext cx="574813" cy="461342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160681</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>193814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>641072</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="848138" y="9412357"/>
+          <a:ext cx="480391" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>922682</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>682487</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610139" y="8749748"/>
+          <a:ext cx="911087" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ひっかく時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61292</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467139</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>210379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1900031" y="9105902"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>逃げるネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64603</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467137</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>135835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1903342" y="9730410"/>
+          <a:ext cx="1089991" cy="584751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃ネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>641072</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61292</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1328529" y="9387510"/>
+          <a:ext cx="571502" cy="173934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>641072</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64603</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>83656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1328529" y="9561444"/>
+          <a:ext cx="574813" cy="461342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>644385</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>188844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437320</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3170581" y="9407387"/>
+          <a:ext cx="480391" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31473</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>255104</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3932582" y="8744778"/>
+          <a:ext cx="911087" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なき声時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321365</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>122584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39756</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>205409</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4222474" y="9100932"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>逃げるネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324676</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39754</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>130865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4225785" y="9725440"/>
+          <a:ext cx="1089991" cy="584751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃ネズミ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で倒せる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321365</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97735</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3650972" y="9382540"/>
+          <a:ext cx="571502" cy="173934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437320</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324676</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>78686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3650972" y="9556474"/>
+          <a:ext cx="574813" cy="461342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2393674" y="8141804"/>
+          <a:ext cx="1681370" cy="447261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>パワーアップ時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>513523</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6642653" y="7134639"/>
+          <a:ext cx="621195" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ねずみ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>384313</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>135834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>193813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7507356" y="6472030"/>
+          <a:ext cx="1164535" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネズミ攻撃時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674204</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7797247" y="6828183"/>
+          <a:ext cx="1429579" cy="891207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ体力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>８回耐えれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>９回目で死ぬ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>217004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674204</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>226943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7263848" y="7273787"/>
+          <a:ext cx="533399" cy="9939"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198782</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5640456" y="9508435"/>
+          <a:ext cx="621195" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ねずみ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251790</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339588</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6380920" y="8953500"/>
+          <a:ext cx="1081711" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス攻撃周囲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>458855</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>198785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306455</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129209</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6587985" y="9417328"/>
+          <a:ext cx="1528970" cy="891207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ体力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>３回耐えれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>４回目で死ぬ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>886240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7015370" y="8183217"/>
+          <a:ext cx="1681370" cy="447261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ボス戦時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>354493</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>202096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>538369</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8164993" y="8940248"/>
+          <a:ext cx="970724" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス攻撃遠</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495297</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>210380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>549963</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305797" y="9428923"/>
+          <a:ext cx="1528970" cy="891207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ体力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>４回耐えれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>５回目で死ぬ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>498610</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>197126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9783414" y="8935278"/>
+          <a:ext cx="967412" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス攻撃単</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67914</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>221975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>221971</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10040175" y="9440518"/>
+          <a:ext cx="1528970" cy="891207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ体力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１回耐えれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２回目で死ぬ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9025,18 +11936,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
@@ -9088,164 +11999,741 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L9"/>
+  <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q5" sqref="P5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="H2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+      <c r="D6" s="12">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100</v>
+      </c>
+      <c r="F6" s="12">
+        <v>50</v>
+      </c>
+      <c r="G6" s="19">
+        <v>90</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>200</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>21</v>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
+        <v>100</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="E7" s="11">
+        <v>200</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="21"/>
+      <c r="I7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="15">
+        <v>100</v>
+      </c>
+      <c r="K7" s="15">
         <v>12</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>13</v>
+      <c r="L7" s="26">
+        <v>30</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14">
-        <v>100</v>
-      </c>
-      <c r="D6" s="14">
-        <v>50</v>
-      </c>
-      <c r="E6" s="14">
-        <v>50</v>
-      </c>
-      <c r="F6" s="14">
-        <v>50</v>
-      </c>
-      <c r="G6" s="14">
-        <v>90</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13">
-        <v>100</v>
-      </c>
-      <c r="E7" s="13">
-        <v>100</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
-      <c r="G8" s="1">
-        <v>105</v>
+      <c r="G8" s="5">
+        <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>50</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="I9" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="I9" s="23" t="s">
         <v>10</v>
       </c>
+      <c r="J9" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="6">
+        <v>30</v>
+      </c>
+      <c r="L9" s="6">
+        <v>20</v>
+      </c>
+      <c r="M9" s="6">
+        <v>50</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="H11" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="21"/>
+      <c r="I17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="I19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
+        <v>30</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="B27:P46"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J22:M25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9254,803 +12742,803 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C4:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="4" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
     </row>
     <row r="9" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
     </row>
     <row r="10" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
     </row>
     <row r="17" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
     </row>
     <row r="19" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
     </row>
     <row r="20" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
     </row>
     <row r="21" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
     </row>
     <row r="23" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
     </row>
     <row r="24" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
     </row>
     <row r="25" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
     </row>
     <row r="28" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
     </row>
     <row r="29" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
     </row>
     <row r="30" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
     </row>
     <row r="31" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
     </row>
     <row r="32" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
     </row>
     <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
     </row>
     <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
     </row>
     <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
     </row>
     <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10075,199 +13563,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10291,199 +13779,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10507,199 +13995,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10723,199 +14211,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10940,199 +14428,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11156,199 +14644,199 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11371,336 +14859,336 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>仕様書項目</t>
     <rPh sb="0" eb="3">
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リザルト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -593,6 +589,23 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトと回収率</t>
+    <rPh sb="5" eb="7">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトと回収率</t>
+    <rPh sb="5" eb="8">
+      <t>カイシュウリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1337,36 +1350,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1374,9 +1357,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1406,6 +1386,51 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,23 +1458,11 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3967,664 +3980,6 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>549648</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>66216</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14500972" y="12339714"/>
-          <a:ext cx="2934362" cy="723289"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
-            <a:t>ハイスコア</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160040</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>105948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>322932</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>140585</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="角丸四角形 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14794922" y="13317683"/>
-          <a:ext cx="2213569" cy="505284"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-            <a:t>50000000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>328995</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>110022</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>221673</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="角丸四角形 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14963877" y="14104742"/>
-          <a:ext cx="1831704" cy="505284"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-            <a:t>40000000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>336736</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>133656</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>6569</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>168292</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="角丸四角形 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14971618" y="14992656"/>
-          <a:ext cx="1720510" cy="505283"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-            <a:t>30000000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>328839</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>185612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>156881</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>220249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="角丸四角形 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14963721" y="15985906"/>
-          <a:ext cx="1878719" cy="505284"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-            <a:t>20000000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>552956</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>113892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>22408</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>148529</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17922074" y="13796274"/>
-          <a:ext cx="2887246" cy="505284"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-            <a:t>45000000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>33616</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>60511</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="16719175" y="13984942"/>
-          <a:ext cx="710454" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>105894</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>96609</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>516030</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>18169</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14057218" y="12131727"/>
-          <a:ext cx="1093694" cy="1098177"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>26486</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>89302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>524434</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14661368" y="13301037"/>
-          <a:ext cx="497948" cy="470993"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>130701</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>191907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>565896</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>155288</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14765583" y="14109613"/>
-          <a:ext cx="435195" cy="434028"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123416</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>171772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>563093</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>139601</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14758298" y="15030772"/>
-          <a:ext cx="439677" cy="438476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>102126</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>152333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>635933</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>213559</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14737008" y="15952627"/>
-          <a:ext cx="533807" cy="531873"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>358182</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>144316</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>512823</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>50592</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17727300" y="13591375"/>
-          <a:ext cx="838200" cy="847570"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -4646,7 +4001,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4690,7 +4045,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4848,7 +4203,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5068,16 +4423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>526675</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5086,8 +4441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18355235" y="14915029"/>
-          <a:ext cx="2330823" cy="683559"/>
+          <a:off x="15508940" y="12281646"/>
+          <a:ext cx="2745441" cy="683559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5133,15 +4488,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>212911</xdr:rowOff>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5150,8 +4505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18736235" y="16080441"/>
-          <a:ext cx="1467971" cy="1109382"/>
+          <a:off x="19330148" y="14713324"/>
+          <a:ext cx="1467970" cy="1109382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5182,12 +4537,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
-            <a:t>89</a:t>
+            <a:t>85</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800"/>
@@ -5269,6 +4625,730 @@
             </a:rPr>
             <a:t>ＮＥＸＴ</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>652967</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>46012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6584577" y="22501412"/>
+          <a:ext cx="3234802" cy="908865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>ハイスコア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311879</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>171050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>183811</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>100006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6878526" y="23535315"/>
+          <a:ext cx="2471697" cy="634926"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>50000000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480835</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>16815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661204</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>181094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7047482" y="24322374"/>
+          <a:ext cx="2096575" cy="634926"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>40000000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454958</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>198759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526097</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>127713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7021605" y="25210288"/>
+          <a:ext cx="1987345" cy="634925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>30000000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402238</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>15391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628792</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>179670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6968885" y="26203538"/>
+          <a:ext cx="2142760" cy="634926"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>20000000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>435855</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>178994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10285826" y="24013906"/>
+          <a:ext cx="2836262" cy="634926"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>45000000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>626970</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>26657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1444</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>26657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9793382" y="24332216"/>
+          <a:ext cx="58033" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>820159</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>212913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6140823" y="22197239"/>
+          <a:ext cx="1245983" cy="1379939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>178326</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>163202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>745610</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>49069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6744973" y="23527467"/>
+          <a:ext cx="567284" cy="591837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>282541</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>39968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>778333</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6849188" y="24345527"/>
+          <a:ext cx="495792" cy="545388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241638</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>18692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742537</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>99022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6808285" y="25265545"/>
+          <a:ext cx="500899" cy="550977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175525</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>210613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>783660</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>172980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6742172" y="26163437"/>
+          <a:ext cx="608135" cy="668337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241080</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>121598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512435</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>10013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10091051" y="23721186"/>
+          <a:ext cx="954913" cy="1065033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>593913</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14209060" y="14197853"/>
+          <a:ext cx="2543735" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>18/20</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13044,7 +13124,7 @@
     </row>
     <row r="9" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -13788,8 +13868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V84" sqref="V84:W84"/>
+    <sheetView tabSelected="1" topLeftCell="D55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50:AD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14006,7 +14086,7 @@
     <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
@@ -14043,11 +14123,11 @@
     <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -14086,38 +14166,38 @@
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="64"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
       <c r="R8" s="27"/>
       <c r="S8" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="64"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
       <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
@@ -14125,38 +14205,38 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="64"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="62" t="s">
+      <c r="S9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="64"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="54"/>
       <c r="AE9" s="27"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
@@ -14167,35 +14247,35 @@
         <v>39</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
+      <c r="F10" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57"/>
       <c r="R10" s="27"/>
-      <c r="S10" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
+      <c r="S10" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
       <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
@@ -14203,34 +14283,34 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="71"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
       <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
@@ -14239,31 +14319,31 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="71"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
       <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
@@ -14272,31 +14352,31 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="27"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
       <c r="AE13" s="27"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
@@ -14304,31 +14384,31 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
       <c r="AE14" s="27"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
@@ -14337,31 +14417,31 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="27"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
       <c r="AE15" s="27"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.4">
@@ -14370,31 +14450,31 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
       <c r="AE16" s="27"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.4">
@@ -14403,31 +14483,31 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="71"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
       <c r="AE17" s="27"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.4">
@@ -14436,31 +14516,31 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="71"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
       <c r="AE18" s="27"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.4">
@@ -14469,31 +14549,31 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="71"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.4">
@@ -14502,31 +14582,31 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="71"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.4">
@@ -14535,31 +14615,31 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="71"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.4">
@@ -14568,31 +14648,31 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="27"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
       <c r="AE22" s="27"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.4">
@@ -14601,31 +14681,31 @@
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="71"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="27"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
       <c r="AE23" s="27"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.4">
@@ -14634,31 +14714,31 @@
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="71"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="27"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="86"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
       <c r="AE24" s="27"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.4">
@@ -14667,31 +14747,31 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="27"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
       <c r="AE25" s="27"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.4">
@@ -14700,31 +14780,31 @@
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="71"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="60"/>
       <c r="R26" s="27"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
       <c r="AE26" s="27"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.4">
@@ -14733,31 +14813,31 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="71"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="60"/>
       <c r="R27" s="27"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="86"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
       <c r="AE27" s="27"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.4">
@@ -14766,31 +14846,31 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="60"/>
       <c r="R28" s="27"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
       <c r="AE28" s="27"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.4">
@@ -14799,31 +14879,31 @@
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="71"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="60"/>
       <c r="R29" s="27"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
       <c r="AE29" s="27"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.4">
@@ -14832,31 +14912,31 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="60"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="86"/>
-      <c r="AA30" s="86"/>
-      <c r="AB30" s="86"/>
-      <c r="AC30" s="86"/>
-      <c r="AD30" s="86"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
       <c r="AE30" s="27"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.4">
@@ -14865,31 +14945,31 @@
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="71"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="27"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86"/>
-      <c r="AC31" s="86"/>
-      <c r="AD31" s="86"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
       <c r="AE31" s="27"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.4">
@@ -14898,31 +14978,31 @@
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="71"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="27"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="86"/>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="86"/>
-      <c r="AC32" s="86"/>
-      <c r="AD32" s="86"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
       <c r="AE32" s="27"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.4">
@@ -14931,31 +15011,31 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="74"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="63"/>
       <c r="R33" s="27"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="86"/>
-      <c r="AC33" s="86"/>
-      <c r="AD33" s="86"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
       <c r="AE33" s="27"/>
     </row>
     <row r="34" spans="1:31" ht="58.5" x14ac:dyDescent="0.4">
@@ -14964,35 +15044,35 @@
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
-      <c r="F34" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="58"/>
+      <c r="F34" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="68"/>
       <c r="R34" s="27"/>
-      <c r="S34" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="88"/>
-      <c r="AC34" s="88"/>
-      <c r="AD34" s="88"/>
+      <c r="S34" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
       <c r="AE34" s="27"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.4">
@@ -15002,46 +15082,46 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="59" t="s">
+      <c r="H35" s="72"/>
+      <c r="I35" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="59" t="s">
+      <c r="J35" s="72"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="60"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="60"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="72"/>
       <c r="R35" s="27"/>
       <c r="S35" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T35" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="T35" s="89" t="s">
+      <c r="U35" s="74"/>
+      <c r="V35" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89" t="s">
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB35" s="89"/>
-      <c r="AC35" s="89"/>
-      <c r="AD35" s="89"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
       <c r="AE35" s="27"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.4">
@@ -15053,44 +15133,44 @@
       <c r="F36" s="35">
         <v>1</v>
       </c>
-      <c r="G36" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="54"/>
+      <c r="G36" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="77"/>
+      <c r="I36" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="77"/>
       <c r="R36" s="27"/>
       <c r="S36" s="35">
         <v>1</v>
       </c>
-      <c r="T36" s="84" t="s">
+      <c r="T36" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="U36" s="75"/>
+      <c r="V36" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB36" s="84"/>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="84"/>
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
       <c r="AE36" s="27"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.4">
@@ -15102,40 +15182,40 @@
       <c r="F37" s="35">
         <v>2</v>
       </c>
-      <c r="G37" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="54"/>
+      <c r="G37" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="77"/>
+      <c r="I37" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="77"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="77"/>
       <c r="R37" s="27"/>
       <c r="S37" s="35">
         <v>2</v>
       </c>
-      <c r="T37" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="84"/>
-      <c r="AD37" s="84"/>
+      <c r="T37" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="75"/>
+      <c r="AD37" s="75"/>
       <c r="AE37" s="27"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.4">
@@ -15147,40 +15227,40 @@
       <c r="F38" s="35">
         <v>3</v>
       </c>
-      <c r="G38" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="54"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="54"/>
+      <c r="G38" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="77"/>
+      <c r="I38" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="77"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="77"/>
       <c r="R38" s="27"/>
       <c r="S38" s="35">
         <v>3</v>
       </c>
-      <c r="T38" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="U38" s="84"/>
-      <c r="V38" s="84"/>
-      <c r="W38" s="84"/>
-      <c r="X38" s="84"/>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="84"/>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
-      <c r="AC38" s="84"/>
-      <c r="AD38" s="84"/>
+      <c r="T38" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="75"/>
+      <c r="AD38" s="75"/>
       <c r="AE38" s="27"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.4">
@@ -15192,36 +15272,36 @@
       <c r="F39" s="35">
         <v>4</v>
       </c>
-      <c r="G39" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="54"/>
+      <c r="G39" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="77"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="77"/>
       <c r="R39" s="27"/>
       <c r="S39" s="35">
         <v>4</v>
       </c>
-      <c r="T39" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="U39" s="84"/>
-      <c r="V39" s="84"/>
-      <c r="W39" s="84"/>
-      <c r="X39" s="84"/>
-      <c r="Y39" s="84"/>
-      <c r="Z39" s="84"/>
-      <c r="AA39" s="84"/>
-      <c r="AB39" s="84"/>
-      <c r="AC39" s="84"/>
-      <c r="AD39" s="84"/>
+      <c r="T39" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="75"/>
+      <c r="Y39" s="75"/>
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75"/>
+      <c r="AD39" s="75"/>
       <c r="AE39" s="27"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.4">
@@ -15233,36 +15313,36 @@
       <c r="F40" s="35">
         <v>5</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="54"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="77"/>
       <c r="R40" s="27"/>
       <c r="S40" s="35">
         <v>5</v>
       </c>
-      <c r="T40" s="84" t="s">
+      <c r="T40" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="U40" s="84"/>
-      <c r="V40" s="84"/>
-      <c r="W40" s="84"/>
-      <c r="X40" s="84"/>
-      <c r="Y40" s="84"/>
-      <c r="Z40" s="84"/>
-      <c r="AA40" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB40" s="84"/>
-      <c r="AC40" s="84"/>
-      <c r="AD40" s="84"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="75"/>
+      <c r="AD40" s="75"/>
       <c r="AE40" s="27"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.4">
@@ -15274,32 +15354,32 @@
       <c r="F41" s="35">
         <v>6</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="54"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="77"/>
       <c r="R41" s="27"/>
       <c r="S41" s="35">
         <v>6</v>
       </c>
-      <c r="T41" s="84"/>
-      <c r="U41" s="84"/>
-      <c r="V41" s="84"/>
-      <c r="W41" s="84"/>
-      <c r="X41" s="84"/>
-      <c r="Y41" s="84"/>
-      <c r="Z41" s="84"/>
-      <c r="AA41" s="84"/>
-      <c r="AB41" s="84"/>
-      <c r="AC41" s="84"/>
-      <c r="AD41" s="84"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="75"/>
+      <c r="Z41" s="75"/>
+      <c r="AA41" s="75"/>
+      <c r="AB41" s="75"/>
+      <c r="AC41" s="75"/>
+      <c r="AD41" s="75"/>
       <c r="AE41" s="27"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.4">
@@ -15311,32 +15391,32 @@
       <c r="F42" s="35">
         <v>7</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="54"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="77"/>
       <c r="R42" s="27"/>
       <c r="S42" s="35">
         <v>7</v>
       </c>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="84"/>
-      <c r="W42" s="84"/>
-      <c r="X42" s="84"/>
-      <c r="Y42" s="84"/>
-      <c r="Z42" s="84"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="84"/>
-      <c r="AC42" s="84"/>
-      <c r="AD42" s="84"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="75"/>
+      <c r="X42" s="75"/>
+      <c r="Y42" s="75"/>
+      <c r="Z42" s="75"/>
+      <c r="AA42" s="75"/>
+      <c r="AB42" s="75"/>
+      <c r="AC42" s="75"/>
+      <c r="AD42" s="75"/>
       <c r="AE42" s="27"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.4">
@@ -15348,32 +15428,32 @@
       <c r="F43" s="35">
         <v>8</v>
       </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="54"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="77"/>
       <c r="R43" s="27"/>
       <c r="S43" s="35">
         <v>8</v>
       </c>
-      <c r="T43" s="84"/>
-      <c r="U43" s="84"/>
-      <c r="V43" s="84"/>
-      <c r="W43" s="84"/>
-      <c r="X43" s="84"/>
-      <c r="Y43" s="84"/>
-      <c r="Z43" s="84"/>
-      <c r="AA43" s="84"/>
-      <c r="AB43" s="84"/>
-      <c r="AC43" s="84"/>
-      <c r="AD43" s="84"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="75"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="75"/>
+      <c r="Y43" s="75"/>
+      <c r="Z43" s="75"/>
+      <c r="AA43" s="75"/>
+      <c r="AB43" s="75"/>
+      <c r="AC43" s="75"/>
+      <c r="AD43" s="75"/>
       <c r="AE43" s="27"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.4">
@@ -15385,32 +15465,32 @@
       <c r="F44" s="35">
         <v>9</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="54"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="77"/>
       <c r="R44" s="27"/>
       <c r="S44" s="35">
         <v>9</v>
       </c>
-      <c r="T44" s="84"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="84"/>
-      <c r="W44" s="84"/>
-      <c r="X44" s="84"/>
-      <c r="Y44" s="84"/>
-      <c r="Z44" s="84"/>
-      <c r="AA44" s="84"/>
-      <c r="AB44" s="84"/>
-      <c r="AC44" s="84"/>
-      <c r="AD44" s="84"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="75"/>
+      <c r="AA44" s="75"/>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="75"/>
+      <c r="AD44" s="75"/>
       <c r="AE44" s="27"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.4">
@@ -15422,32 +15502,32 @@
       <c r="F45" s="35">
         <v>10</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="54"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="77"/>
       <c r="R45" s="27"/>
       <c r="S45" s="35">
         <v>10</v>
       </c>
-      <c r="T45" s="84"/>
-      <c r="U45" s="84"/>
-      <c r="V45" s="84"/>
-      <c r="W45" s="84"/>
-      <c r="X45" s="84"/>
-      <c r="Y45" s="84"/>
-      <c r="Z45" s="84"/>
-      <c r="AA45" s="84"/>
-      <c r="AB45" s="84"/>
-      <c r="AC45" s="84"/>
-      <c r="AD45" s="84"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
+      <c r="AA45" s="75"/>
+      <c r="AB45" s="75"/>
+      <c r="AC45" s="75"/>
+      <c r="AD45" s="75"/>
       <c r="AE45" s="27"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.4">
@@ -15523,38 +15603,38 @@
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="64"/>
+        <v>42</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="54"/>
       <c r="R48" s="27"/>
       <c r="S48" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="T48" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="U48" s="63"/>
-      <c r="V48" s="63"/>
-      <c r="W48" s="63"/>
-      <c r="X48" s="63"/>
-      <c r="Y48" s="63"/>
-      <c r="Z48" s="63"/>
-      <c r="AA48" s="63"/>
-      <c r="AB48" s="63"/>
-      <c r="AC48" s="63"/>
-      <c r="AD48" s="64"/>
+        <v>42</v>
+      </c>
+      <c r="T48" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="54"/>
       <c r="AE48" s="27"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.4">
@@ -15563,35 +15643,35 @@
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
-      <c r="F49" s="62" t="s">
+      <c r="F49" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="64"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="54"/>
       <c r="R49" s="27"/>
-      <c r="S49" s="62" t="s">
+      <c r="S49" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="T49" s="63"/>
-      <c r="U49" s="63"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="63"/>
-      <c r="Y49" s="63"/>
-      <c r="Z49" s="63"/>
-      <c r="AA49" s="63"/>
-      <c r="AB49" s="63"/>
-      <c r="AC49" s="63"/>
-      <c r="AD49" s="64"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="54"/>
       <c r="AE49" s="27"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.4">
@@ -15600,31 +15680,31 @@
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="77"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="81"/>
       <c r="R50" s="27"/>
-      <c r="S50" s="66"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="67"/>
-      <c r="Z50" s="67"/>
-      <c r="AA50" s="67"/>
-      <c r="AB50" s="67"/>
-      <c r="AC50" s="67"/>
-      <c r="AD50" s="68"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="57"/>
       <c r="AE50" s="27"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.4">
@@ -15633,31 +15713,31 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="80"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="84"/>
       <c r="R51" s="27"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="70"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="70"/>
-      <c r="Y51" s="70"/>
-      <c r="Z51" s="70"/>
-      <c r="AA51" s="70"/>
-      <c r="AB51" s="70"/>
-      <c r="AC51" s="70"/>
-      <c r="AD51" s="71"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="59"/>
+      <c r="AC51" s="59"/>
+      <c r="AD51" s="60"/>
       <c r="AE51" s="27"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.4">
@@ -15666,31 +15746,31 @@
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="80"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="84"/>
       <c r="R52" s="27"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
-      <c r="Y52" s="70"/>
-      <c r="Z52" s="70"/>
-      <c r="AA52" s="70"/>
-      <c r="AB52" s="70"/>
-      <c r="AC52" s="70"/>
-      <c r="AD52" s="71"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="59"/>
+      <c r="AD52" s="60"/>
       <c r="AE52" s="27"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.4">
@@ -15699,31 +15779,31 @@
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="80"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="84"/>
       <c r="R53" s="27"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="70"/>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="71"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="59"/>
+      <c r="AC53" s="59"/>
+      <c r="AD53" s="60"/>
       <c r="AE53" s="27"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.4">
@@ -15732,31 +15812,31 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="80"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="84"/>
       <c r="R54" s="27"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="71"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59"/>
+      <c r="AC54" s="59"/>
+      <c r="AD54" s="60"/>
       <c r="AE54" s="27"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.4">
@@ -15765,31 +15845,31 @@
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="80"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="84"/>
       <c r="R55" s="27"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="70"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="70"/>
-      <c r="AB55" s="70"/>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="71"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="59"/>
+      <c r="AD55" s="60"/>
       <c r="AE55" s="27"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.4">
@@ -15798,31 +15878,31 @@
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="80"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="84"/>
       <c r="R56" s="27"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="70"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
-      <c r="Y56" s="70"/>
-      <c r="Z56" s="70"/>
-      <c r="AA56" s="70"/>
-      <c r="AB56" s="70"/>
-      <c r="AC56" s="70"/>
-      <c r="AD56" s="71"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="60"/>
       <c r="AE56" s="27"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.4">
@@ -15831,31 +15911,31 @@
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="80"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="84"/>
       <c r="R57" s="27"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="70"/>
-      <c r="U57" s="70"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="70"/>
-      <c r="AB57" s="70"/>
-      <c r="AC57" s="70"/>
-      <c r="AD57" s="71"/>
+      <c r="S57" s="58"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="59"/>
+      <c r="AC57" s="59"/>
+      <c r="AD57" s="60"/>
       <c r="AE57" s="27"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.4">
@@ -15864,31 +15944,31 @@
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="80"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="84"/>
       <c r="R58" s="27"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="71"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="59"/>
+      <c r="AA58" s="59"/>
+      <c r="AB58" s="59"/>
+      <c r="AC58" s="59"/>
+      <c r="AD58" s="60"/>
       <c r="AE58" s="27"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.4">
@@ -15897,31 +15977,31 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="80"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="84"/>
       <c r="R59" s="27"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="70"/>
-      <c r="U59" s="70"/>
-      <c r="V59" s="70"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="70"/>
-      <c r="Y59" s="70"/>
-      <c r="Z59" s="70"/>
-      <c r="AA59" s="70"/>
-      <c r="AB59" s="70"/>
-      <c r="AC59" s="70"/>
-      <c r="AD59" s="71"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="60"/>
       <c r="AE59" s="27"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.4">
@@ -15930,31 +16010,31 @@
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
-      <c r="Q60" s="80"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="83"/>
+      <c r="Q60" s="84"/>
       <c r="R60" s="27"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="70"/>
-      <c r="U60" s="70"/>
-      <c r="V60" s="70"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
-      <c r="Y60" s="70"/>
-      <c r="Z60" s="70"/>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="71"/>
+      <c r="S60" s="58"/>
+      <c r="T60" s="59"/>
+      <c r="U60" s="59"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
+      <c r="X60" s="59"/>
+      <c r="Y60" s="59"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="59"/>
+      <c r="AB60" s="59"/>
+      <c r="AC60" s="59"/>
+      <c r="AD60" s="60"/>
       <c r="AE60" s="27"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.4">
@@ -15963,31 +16043,31 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="80"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="84"/>
       <c r="R61" s="27"/>
-      <c r="S61" s="69"/>
-      <c r="T61" s="70"/>
-      <c r="U61" s="70"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="70"/>
-      <c r="Z61" s="70"/>
-      <c r="AA61" s="70"/>
-      <c r="AB61" s="70"/>
-      <c r="AC61" s="70"/>
-      <c r="AD61" s="71"/>
+      <c r="S61" s="58"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="59"/>
+      <c r="AD61" s="60"/>
       <c r="AE61" s="27"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.4">
@@ -15996,31 +16076,31 @@
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="79"/>
-      <c r="Q62" s="80"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="84"/>
       <c r="R62" s="27"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="70"/>
-      <c r="U62" s="70"/>
-      <c r="V62" s="70"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="70"/>
-      <c r="Y62" s="70"/>
-      <c r="Z62" s="70"/>
-      <c r="AA62" s="70"/>
-      <c r="AB62" s="70"/>
-      <c r="AC62" s="70"/>
-      <c r="AD62" s="71"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="59"/>
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
+      <c r="Z62" s="59"/>
+      <c r="AA62" s="59"/>
+      <c r="AB62" s="59"/>
+      <c r="AC62" s="59"/>
+      <c r="AD62" s="60"/>
       <c r="AE62" s="27"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.4">
@@ -16029,31 +16109,31 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="80"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="84"/>
       <c r="R63" s="27"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="70"/>
-      <c r="U63" s="70"/>
-      <c r="V63" s="70"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="70"/>
-      <c r="Y63" s="70"/>
-      <c r="Z63" s="70"/>
-      <c r="AA63" s="70"/>
-      <c r="AB63" s="70"/>
-      <c r="AC63" s="70"/>
-      <c r="AD63" s="71"/>
+      <c r="S63" s="58"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="59"/>
+      <c r="AC63" s="59"/>
+      <c r="AD63" s="60"/>
       <c r="AE63" s="27"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.4">
@@ -16062,31 +16142,31 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
-      <c r="O64" s="79"/>
-      <c r="P64" s="79"/>
-      <c r="Q64" s="80"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="83"/>
+      <c r="Q64" s="84"/>
       <c r="R64" s="27"/>
-      <c r="S64" s="69"/>
-      <c r="T64" s="70"/>
-      <c r="U64" s="70"/>
-      <c r="V64" s="70"/>
-      <c r="W64" s="70"/>
-      <c r="X64" s="70"/>
-      <c r="Y64" s="70"/>
-      <c r="Z64" s="70"/>
-      <c r="AA64" s="70"/>
-      <c r="AB64" s="70"/>
-      <c r="AC64" s="70"/>
-      <c r="AD64" s="71"/>
+      <c r="S64" s="58"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59"/>
+      <c r="AA64" s="59"/>
+      <c r="AB64" s="59"/>
+      <c r="AC64" s="59"/>
+      <c r="AD64" s="60"/>
       <c r="AE64" s="27"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
@@ -16095,31 +16175,31 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79"/>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="80"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="83"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="83"/>
+      <c r="P65" s="83"/>
+      <c r="Q65" s="84"/>
       <c r="R65" s="27"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="70"/>
-      <c r="U65" s="70"/>
-      <c r="V65" s="70"/>
-      <c r="W65" s="70"/>
-      <c r="X65" s="70"/>
-      <c r="Y65" s="70"/>
-      <c r="Z65" s="70"/>
-      <c r="AA65" s="70"/>
-      <c r="AB65" s="70"/>
-      <c r="AC65" s="70"/>
-      <c r="AD65" s="71"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="59"/>
+      <c r="AB65" s="59"/>
+      <c r="AC65" s="59"/>
+      <c r="AD65" s="60"/>
       <c r="AE65" s="27"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
@@ -16128,31 +16208,31 @@
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="79"/>
-      <c r="P66" s="79"/>
-      <c r="Q66" s="80"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="84"/>
       <c r="R66" s="27"/>
-      <c r="S66" s="69"/>
-      <c r="T66" s="70"/>
-      <c r="U66" s="70"/>
-      <c r="V66" s="70"/>
-      <c r="W66" s="70"/>
-      <c r="X66" s="70"/>
-      <c r="Y66" s="70"/>
-      <c r="Z66" s="70"/>
-      <c r="AA66" s="70"/>
-      <c r="AB66" s="70"/>
-      <c r="AC66" s="70"/>
-      <c r="AD66" s="71"/>
+      <c r="S66" s="58"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="59"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="59"/>
+      <c r="AB66" s="59"/>
+      <c r="AC66" s="59"/>
+      <c r="AD66" s="60"/>
       <c r="AE66" s="27"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.4">
@@ -16161,31 +16241,31 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="80"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="84"/>
       <c r="R67" s="27"/>
-      <c r="S67" s="69"/>
-      <c r="T67" s="70"/>
-      <c r="U67" s="70"/>
-      <c r="V67" s="70"/>
-      <c r="W67" s="70"/>
-      <c r="X67" s="70"/>
-      <c r="Y67" s="70"/>
-      <c r="Z67" s="70"/>
-      <c r="AA67" s="70"/>
-      <c r="AB67" s="70"/>
-      <c r="AC67" s="70"/>
-      <c r="AD67" s="71"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="59"/>
+      <c r="W67" s="59"/>
+      <c r="X67" s="59"/>
+      <c r="Y67" s="59"/>
+      <c r="Z67" s="59"/>
+      <c r="AA67" s="59"/>
+      <c r="AB67" s="59"/>
+      <c r="AC67" s="59"/>
+      <c r="AD67" s="60"/>
       <c r="AE67" s="27"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.4">
@@ -16194,31 +16274,31 @@
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="79"/>
-      <c r="P68" s="79"/>
-      <c r="Q68" s="80"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="84"/>
       <c r="R68" s="27"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="70"/>
-      <c r="U68" s="70"/>
-      <c r="V68" s="70"/>
-      <c r="W68" s="70"/>
-      <c r="X68" s="70"/>
-      <c r="Y68" s="70"/>
-      <c r="Z68" s="70"/>
-      <c r="AA68" s="70"/>
-      <c r="AB68" s="70"/>
-      <c r="AC68" s="70"/>
-      <c r="AD68" s="71"/>
+      <c r="S68" s="58"/>
+      <c r="T68" s="59"/>
+      <c r="U68" s="59"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="59"/>
+      <c r="X68" s="59"/>
+      <c r="Y68" s="59"/>
+      <c r="Z68" s="59"/>
+      <c r="AA68" s="59"/>
+      <c r="AB68" s="59"/>
+      <c r="AC68" s="59"/>
+      <c r="AD68" s="60"/>
       <c r="AE68" s="27"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.4">
@@ -16227,31 +16307,31 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="80"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="84"/>
       <c r="R69" s="27"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="70"/>
-      <c r="V69" s="70"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="70"/>
-      <c r="Y69" s="70"/>
-      <c r="Z69" s="70"/>
-      <c r="AA69" s="70"/>
-      <c r="AB69" s="70"/>
-      <c r="AC69" s="70"/>
-      <c r="AD69" s="71"/>
+      <c r="S69" s="58"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="59"/>
+      <c r="AB69" s="59"/>
+      <c r="AC69" s="59"/>
+      <c r="AD69" s="60"/>
       <c r="AE69" s="27"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
@@ -16260,31 +16340,31 @@
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="80"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
+      <c r="K70" s="83"/>
+      <c r="L70" s="83"/>
+      <c r="M70" s="83"/>
+      <c r="N70" s="83"/>
+      <c r="O70" s="83"/>
+      <c r="P70" s="83"/>
+      <c r="Q70" s="84"/>
       <c r="R70" s="27"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="70"/>
-      <c r="U70" s="70"/>
-      <c r="V70" s="70"/>
-      <c r="W70" s="70"/>
-      <c r="X70" s="70"/>
-      <c r="Y70" s="70"/>
-      <c r="Z70" s="70"/>
-      <c r="AA70" s="70"/>
-      <c r="AB70" s="70"/>
-      <c r="AC70" s="70"/>
-      <c r="AD70" s="71"/>
+      <c r="S70" s="58"/>
+      <c r="T70" s="59"/>
+      <c r="U70" s="59"/>
+      <c r="V70" s="59"/>
+      <c r="W70" s="59"/>
+      <c r="X70" s="59"/>
+      <c r="Y70" s="59"/>
+      <c r="Z70" s="59"/>
+      <c r="AA70" s="59"/>
+      <c r="AB70" s="59"/>
+      <c r="AC70" s="59"/>
+      <c r="AD70" s="60"/>
       <c r="AE70" s="27"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
@@ -16293,31 +16373,31 @@
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="80"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="84"/>
       <c r="R71" s="27"/>
-      <c r="S71" s="69"/>
-      <c r="T71" s="70"/>
-      <c r="U71" s="70"/>
-      <c r="V71" s="70"/>
-      <c r="W71" s="70"/>
-      <c r="X71" s="70"/>
-      <c r="Y71" s="70"/>
-      <c r="Z71" s="70"/>
-      <c r="AA71" s="70"/>
-      <c r="AB71" s="70"/>
-      <c r="AC71" s="70"/>
-      <c r="AD71" s="71"/>
+      <c r="S71" s="58"/>
+      <c r="T71" s="59"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="59"/>
+      <c r="X71" s="59"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="59"/>
+      <c r="AA71" s="59"/>
+      <c r="AB71" s="59"/>
+      <c r="AC71" s="59"/>
+      <c r="AD71" s="60"/>
       <c r="AE71" s="27"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
@@ -16326,31 +16406,31 @@
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="80"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
+      <c r="K72" s="83"/>
+      <c r="L72" s="83"/>
+      <c r="M72" s="83"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="83"/>
+      <c r="P72" s="83"/>
+      <c r="Q72" s="84"/>
       <c r="R72" s="27"/>
-      <c r="S72" s="69"/>
-      <c r="T72" s="70"/>
-      <c r="U72" s="70"/>
-      <c r="V72" s="70"/>
-      <c r="W72" s="70"/>
-      <c r="X72" s="70"/>
-      <c r="Y72" s="70"/>
-      <c r="Z72" s="70"/>
-      <c r="AA72" s="70"/>
-      <c r="AB72" s="70"/>
-      <c r="AC72" s="70"/>
-      <c r="AD72" s="71"/>
+      <c r="S72" s="58"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="60"/>
       <c r="AE72" s="27"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
@@ -16359,31 +16439,31 @@
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="82"/>
-      <c r="N73" s="82"/>
-      <c r="O73" s="82"/>
-      <c r="P73" s="82"/>
-      <c r="Q73" s="83"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="86"/>
+      <c r="K73" s="86"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="86"/>
+      <c r="N73" s="86"/>
+      <c r="O73" s="86"/>
+      <c r="P73" s="86"/>
+      <c r="Q73" s="87"/>
       <c r="R73" s="27"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="73"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="73"/>
-      <c r="W73" s="73"/>
-      <c r="X73" s="73"/>
-      <c r="Y73" s="73"/>
-      <c r="Z73" s="73"/>
-      <c r="AA73" s="73"/>
-      <c r="AB73" s="73"/>
-      <c r="AC73" s="73"/>
-      <c r="AD73" s="74"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="62"/>
+      <c r="U73" s="62"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
+      <c r="AD73" s="63"/>
       <c r="AE73" s="27"/>
     </row>
     <row r="74" spans="1:31" ht="58.5" x14ac:dyDescent="0.4">
@@ -16392,35 +16472,35 @@
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
-      <c r="F74" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="57"/>
-      <c r="P74" s="57"/>
-      <c r="Q74" s="58"/>
+      <c r="F74" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="67"/>
+      <c r="P74" s="67"/>
+      <c r="Q74" s="68"/>
       <c r="R74" s="27"/>
-      <c r="S74" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="T74" s="57"/>
-      <c r="U74" s="57"/>
-      <c r="V74" s="57"/>
-      <c r="W74" s="57"/>
-      <c r="X74" s="57"/>
-      <c r="Y74" s="57"/>
-      <c r="Z74" s="57"/>
-      <c r="AA74" s="57"/>
-      <c r="AB74" s="57"/>
-      <c r="AC74" s="57"/>
-      <c r="AD74" s="58"/>
+      <c r="S74" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="T74" s="67"/>
+      <c r="U74" s="67"/>
+      <c r="V74" s="67"/>
+      <c r="W74" s="67"/>
+      <c r="X74" s="67"/>
+      <c r="Y74" s="67"/>
+      <c r="Z74" s="67"/>
+      <c r="AA74" s="67"/>
+      <c r="AB74" s="67"/>
+      <c r="AC74" s="67"/>
+      <c r="AD74" s="68"/>
       <c r="AE74" s="27"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.4">
@@ -16430,46 +16510,46 @@
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
       <c r="F75" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="59" t="s">
+      <c r="H75" s="72"/>
+      <c r="I75" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="H75" s="60"/>
-      <c r="I75" s="59" t="s">
+      <c r="J75" s="72"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="J75" s="60"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="60"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="72"/>
       <c r="R75" s="27"/>
       <c r="S75" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T75" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="T75" s="59" t="s">
+      <c r="U75" s="72"/>
+      <c r="V75" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="U75" s="60"/>
-      <c r="V75" s="59" t="s">
+      <c r="W75" s="72"/>
+      <c r="X75" s="71"/>
+      <c r="Y75" s="73"/>
+      <c r="Z75" s="72"/>
+      <c r="AA75" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="W75" s="60"/>
-      <c r="X75" s="59"/>
-      <c r="Y75" s="61"/>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB75" s="61"/>
-      <c r="AC75" s="61"/>
-      <c r="AD75" s="60"/>
+      <c r="AB75" s="73"/>
+      <c r="AC75" s="73"/>
+      <c r="AD75" s="72"/>
       <c r="AE75" s="27"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.4">
@@ -16481,38 +16561,38 @@
       <c r="F76" s="35">
         <v>1</v>
       </c>
-      <c r="G76" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H76" s="54"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="54"/>
+      <c r="G76" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="77"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="77"/>
+      <c r="N76" s="76"/>
+      <c r="O76" s="78"/>
+      <c r="P76" s="78"/>
+      <c r="Q76" s="77"/>
       <c r="R76" s="27"/>
       <c r="S76" s="35">
         <v>1</v>
       </c>
-      <c r="T76" s="53" t="s">
+      <c r="T76" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="U76" s="77"/>
+      <c r="V76" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="U76" s="54"/>
-      <c r="V76" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="W76" s="54"/>
-      <c r="X76" s="53"/>
-      <c r="Y76" s="55"/>
-      <c r="Z76" s="54"/>
-      <c r="AA76" s="53"/>
-      <c r="AB76" s="55"/>
-      <c r="AC76" s="55"/>
-      <c r="AD76" s="54"/>
+      <c r="W76" s="77"/>
+      <c r="X76" s="76"/>
+      <c r="Y76" s="78"/>
+      <c r="Z76" s="77"/>
+      <c r="AA76" s="76"/>
+      <c r="AB76" s="78"/>
+      <c r="AC76" s="78"/>
+      <c r="AD76" s="77"/>
       <c r="AE76" s="27"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.4">
@@ -16524,38 +16604,38 @@
       <c r="F77" s="35">
         <v>2</v>
       </c>
-      <c r="G77" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H77" s="54"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="54"/>
+      <c r="G77" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="H77" s="77"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="76"/>
+      <c r="O77" s="78"/>
+      <c r="P77" s="78"/>
+      <c r="Q77" s="77"/>
       <c r="R77" s="27"/>
       <c r="S77" s="35">
         <v>2</v>
       </c>
-      <c r="T77" s="53" t="s">
+      <c r="T77" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="U77" s="77"/>
+      <c r="V77" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="U77" s="54"/>
-      <c r="V77" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="W77" s="54"/>
-      <c r="X77" s="53"/>
-      <c r="Y77" s="55"/>
-      <c r="Z77" s="54"/>
-      <c r="AA77" s="53"/>
-      <c r="AB77" s="55"/>
-      <c r="AC77" s="55"/>
-      <c r="AD77" s="54"/>
+      <c r="W77" s="77"/>
+      <c r="X77" s="76"/>
+      <c r="Y77" s="78"/>
+      <c r="Z77" s="77"/>
+      <c r="AA77" s="76"/>
+      <c r="AB77" s="78"/>
+      <c r="AC77" s="78"/>
+      <c r="AD77" s="77"/>
       <c r="AE77" s="27"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.4">
@@ -16567,38 +16647,38 @@
       <c r="F78" s="35">
         <v>3</v>
       </c>
-      <c r="G78" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="H78" s="54"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="54"/>
+      <c r="G78" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" s="77"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="78"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="76"/>
+      <c r="O78" s="78"/>
+      <c r="P78" s="78"/>
+      <c r="Q78" s="77"/>
       <c r="R78" s="27"/>
       <c r="S78" s="35">
         <v>3</v>
       </c>
-      <c r="T78" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="U78" s="54"/>
-      <c r="V78" s="53" t="s">
+      <c r="T78" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="W78" s="54"/>
-      <c r="X78" s="53"/>
-      <c r="Y78" s="55"/>
-      <c r="Z78" s="54"/>
-      <c r="AA78" s="53"/>
-      <c r="AB78" s="55"/>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="54"/>
+      <c r="U78" s="77"/>
+      <c r="V78" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="W78" s="77"/>
+      <c r="X78" s="76"/>
+      <c r="Y78" s="78"/>
+      <c r="Z78" s="77"/>
+      <c r="AA78" s="76"/>
+      <c r="AB78" s="78"/>
+      <c r="AC78" s="78"/>
+      <c r="AD78" s="77"/>
       <c r="AE78" s="27"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.4">
@@ -16610,38 +16690,38 @@
       <c r="F79" s="35">
         <v>4</v>
       </c>
-      <c r="G79" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H79" s="54"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="54"/>
+      <c r="G79" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" s="77"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="77"/>
+      <c r="N79" s="76"/>
+      <c r="O79" s="78"/>
+      <c r="P79" s="78"/>
+      <c r="Q79" s="77"/>
       <c r="R79" s="27"/>
       <c r="S79" s="35">
         <v>4</v>
       </c>
-      <c r="T79" s="53" t="s">
+      <c r="T79" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="U79" s="77"/>
+      <c r="V79" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="U79" s="54"/>
-      <c r="V79" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="W79" s="54"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="55"/>
-      <c r="Z79" s="54"/>
-      <c r="AA79" s="53"/>
-      <c r="AB79" s="55"/>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="54"/>
+      <c r="W79" s="77"/>
+      <c r="X79" s="76"/>
+      <c r="Y79" s="78"/>
+      <c r="Z79" s="77"/>
+      <c r="AA79" s="76"/>
+      <c r="AB79" s="78"/>
+      <c r="AC79" s="78"/>
+      <c r="AD79" s="77"/>
       <c r="AE79" s="27"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.4">
@@ -16653,34 +16733,34 @@
       <c r="F80" s="35">
         <v>5</v>
       </c>
-      <c r="G80" s="53"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="54"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="76"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="76"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="77"/>
       <c r="R80" s="27"/>
       <c r="S80" s="35">
         <v>5</v>
       </c>
-      <c r="T80" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="U80" s="54"/>
-      <c r="V80" s="53"/>
-      <c r="W80" s="54"/>
-      <c r="X80" s="53"/>
-      <c r="Y80" s="55"/>
-      <c r="Z80" s="54"/>
-      <c r="AA80" s="53"/>
-      <c r="AB80" s="55"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="54"/>
+      <c r="T80" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="U80" s="77"/>
+      <c r="V80" s="76"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="76"/>
+      <c r="Y80" s="78"/>
+      <c r="Z80" s="77"/>
+      <c r="AA80" s="76"/>
+      <c r="AB80" s="78"/>
+      <c r="AC80" s="78"/>
+      <c r="AD80" s="77"/>
       <c r="AE80" s="27"/>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.4">
@@ -16692,32 +16772,32 @@
       <c r="F81" s="35">
         <v>6</v>
       </c>
-      <c r="G81" s="53"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="54"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="76"/>
+      <c r="O81" s="78"/>
+      <c r="P81" s="78"/>
+      <c r="Q81" s="77"/>
       <c r="R81" s="27"/>
       <c r="S81" s="35">
         <v>6</v>
       </c>
-      <c r="T81" s="53"/>
-      <c r="U81" s="54"/>
-      <c r="V81" s="53"/>
-      <c r="W81" s="54"/>
-      <c r="X81" s="53"/>
-      <c r="Y81" s="55"/>
-      <c r="Z81" s="54"/>
-      <c r="AA81" s="53"/>
-      <c r="AB81" s="55"/>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="54"/>
+      <c r="T81" s="76"/>
+      <c r="U81" s="77"/>
+      <c r="V81" s="76"/>
+      <c r="W81" s="77"/>
+      <c r="X81" s="76"/>
+      <c r="Y81" s="78"/>
+      <c r="Z81" s="77"/>
+      <c r="AA81" s="76"/>
+      <c r="AB81" s="78"/>
+      <c r="AC81" s="78"/>
+      <c r="AD81" s="77"/>
       <c r="AE81" s="27"/>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.4">
@@ -16729,32 +16809,32 @@
       <c r="F82" s="35">
         <v>7</v>
       </c>
-      <c r="G82" s="53"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="53"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="54"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="76"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="76"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="77"/>
       <c r="R82" s="27"/>
       <c r="S82" s="35">
         <v>7</v>
       </c>
-      <c r="T82" s="53"/>
-      <c r="U82" s="54"/>
-      <c r="V82" s="53"/>
-      <c r="W82" s="54"/>
-      <c r="X82" s="53"/>
-      <c r="Y82" s="55"/>
-      <c r="Z82" s="54"/>
-      <c r="AA82" s="53"/>
-      <c r="AB82" s="55"/>
-      <c r="AC82" s="55"/>
-      <c r="AD82" s="54"/>
+      <c r="T82" s="76"/>
+      <c r="U82" s="77"/>
+      <c r="V82" s="76"/>
+      <c r="W82" s="77"/>
+      <c r="X82" s="76"/>
+      <c r="Y82" s="78"/>
+      <c r="Z82" s="77"/>
+      <c r="AA82" s="76"/>
+      <c r="AB82" s="78"/>
+      <c r="AC82" s="78"/>
+      <c r="AD82" s="77"/>
       <c r="AE82" s="27"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.4">
@@ -16766,32 +16846,32 @@
       <c r="F83" s="35">
         <v>8</v>
       </c>
-      <c r="G83" s="53"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="53"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="54"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="76"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="76"/>
+      <c r="O83" s="78"/>
+      <c r="P83" s="78"/>
+      <c r="Q83" s="77"/>
       <c r="R83" s="27"/>
       <c r="S83" s="35">
         <v>8</v>
       </c>
-      <c r="T83" s="53"/>
-      <c r="U83" s="54"/>
-      <c r="V83" s="53"/>
-      <c r="W83" s="54"/>
-      <c r="X83" s="53"/>
-      <c r="Y83" s="55"/>
-      <c r="Z83" s="54"/>
-      <c r="AA83" s="53"/>
-      <c r="AB83" s="55"/>
-      <c r="AC83" s="55"/>
-      <c r="AD83" s="54"/>
+      <c r="T83" s="76"/>
+      <c r="U83" s="77"/>
+      <c r="V83" s="76"/>
+      <c r="W83" s="77"/>
+      <c r="X83" s="76"/>
+      <c r="Y83" s="78"/>
+      <c r="Z83" s="77"/>
+      <c r="AA83" s="76"/>
+      <c r="AB83" s="78"/>
+      <c r="AC83" s="78"/>
+      <c r="AD83" s="77"/>
       <c r="AE83" s="27"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.4">
@@ -16803,32 +16883,32 @@
       <c r="F84" s="35">
         <v>9</v>
       </c>
-      <c r="G84" s="53"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="54"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="76"/>
+      <c r="O84" s="78"/>
+      <c r="P84" s="78"/>
+      <c r="Q84" s="77"/>
       <c r="R84" s="27"/>
       <c r="S84" s="35">
         <v>9</v>
       </c>
-      <c r="T84" s="53"/>
-      <c r="U84" s="54"/>
-      <c r="V84" s="53"/>
-      <c r="W84" s="54"/>
-      <c r="X84" s="53"/>
-      <c r="Y84" s="55"/>
-      <c r="Z84" s="54"/>
-      <c r="AA84" s="53"/>
-      <c r="AB84" s="55"/>
-      <c r="AC84" s="55"/>
-      <c r="AD84" s="54"/>
+      <c r="T84" s="76"/>
+      <c r="U84" s="77"/>
+      <c r="V84" s="76"/>
+      <c r="W84" s="77"/>
+      <c r="X84" s="76"/>
+      <c r="Y84" s="78"/>
+      <c r="Z84" s="77"/>
+      <c r="AA84" s="76"/>
+      <c r="AB84" s="78"/>
+      <c r="AC84" s="78"/>
+      <c r="AD84" s="77"/>
       <c r="AE84" s="27"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.4">
@@ -16840,32 +16920,32 @@
       <c r="F85" s="35">
         <v>10</v>
       </c>
-      <c r="G85" s="53"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="54"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="77"/>
       <c r="R85" s="27"/>
       <c r="S85" s="35">
         <v>10</v>
       </c>
-      <c r="T85" s="53"/>
-      <c r="U85" s="54"/>
-      <c r="V85" s="53"/>
-      <c r="W85" s="54"/>
-      <c r="X85" s="53"/>
-      <c r="Y85" s="55"/>
-      <c r="Z85" s="54"/>
-      <c r="AA85" s="53"/>
-      <c r="AB85" s="55"/>
-      <c r="AC85" s="55"/>
-      <c r="AD85" s="54"/>
+      <c r="T85" s="76"/>
+      <c r="U85" s="77"/>
+      <c r="V85" s="76"/>
+      <c r="W85" s="77"/>
+      <c r="X85" s="76"/>
+      <c r="Y85" s="78"/>
+      <c r="Z85" s="77"/>
+      <c r="AA85" s="76"/>
+      <c r="AB85" s="78"/>
+      <c r="AC85" s="78"/>
+      <c r="AD85" s="77"/>
       <c r="AE85" s="27"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.4">
@@ -16941,34 +17021,34 @@
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G88" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
-      <c r="Q88" s="64"/>
+      <c r="G88" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="53"/>
+      <c r="P88" s="53"/>
+      <c r="Q88" s="54"/>
       <c r="R88" s="27"/>
       <c r="S88" s="29"/>
-      <c r="T88" s="65"/>
-      <c r="U88" s="65"/>
-      <c r="V88" s="65"/>
-      <c r="W88" s="65"/>
-      <c r="X88" s="65"/>
-      <c r="Y88" s="65"/>
-      <c r="Z88" s="65"/>
-      <c r="AA88" s="65"/>
-      <c r="AB88" s="65"/>
-      <c r="AC88" s="65"/>
-      <c r="AD88" s="65"/>
+      <c r="T88" s="88"/>
+      <c r="U88" s="88"/>
+      <c r="V88" s="88"/>
+      <c r="W88" s="88"/>
+      <c r="X88" s="88"/>
+      <c r="Y88" s="88"/>
+      <c r="Z88" s="88"/>
+      <c r="AA88" s="88"/>
+      <c r="AB88" s="88"/>
+      <c r="AC88" s="88"/>
+      <c r="AD88" s="88"/>
       <c r="AE88" s="27"/>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.4">
@@ -16977,20 +17057,20 @@
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
-      <c r="F89" s="62" t="s">
+      <c r="F89" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="63"/>
-      <c r="L89" s="63"/>
-      <c r="M89" s="63"/>
-      <c r="N89" s="63"/>
-      <c r="O89" s="63"/>
-      <c r="P89" s="63"/>
-      <c r="Q89" s="64"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="53"/>
+      <c r="N89" s="53"/>
+      <c r="O89" s="53"/>
+      <c r="P89" s="53"/>
+      <c r="Q89" s="54"/>
       <c r="R89" s="27"/>
       <c r="S89" s="37"/>
       <c r="T89" s="37"/>
@@ -17012,18 +17092,18 @@
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="67"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="67"/>
-      <c r="O90" s="67"/>
-      <c r="P90" s="67"/>
-      <c r="Q90" s="68"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="57"/>
       <c r="R90" s="27"/>
       <c r="S90" s="38"/>
       <c r="T90" s="38"/>
@@ -17045,18 +17125,18 @@
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="70"/>
-      <c r="O91" s="70"/>
-      <c r="P91" s="70"/>
-      <c r="Q91" s="71"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="59"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="60"/>
       <c r="R91" s="27"/>
       <c r="S91" s="38"/>
       <c r="T91" s="38"/>
@@ -17078,18 +17158,18 @@
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="70"/>
-      <c r="N92" s="70"/>
-      <c r="O92" s="70"/>
-      <c r="P92" s="70"/>
-      <c r="Q92" s="71"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="60"/>
       <c r="R92" s="27"/>
       <c r="S92" s="38"/>
       <c r="T92" s="38"/>
@@ -17111,18 +17191,18 @@
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="70"/>
-      <c r="J93" s="70"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="70"/>
-      <c r="M93" s="70"/>
-      <c r="N93" s="70"/>
-      <c r="O93" s="70"/>
-      <c r="P93" s="70"/>
-      <c r="Q93" s="71"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="59"/>
+      <c r="O93" s="59"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="60"/>
       <c r="R93" s="27"/>
       <c r="S93" s="38"/>
       <c r="T93" s="38"/>
@@ -17144,18 +17224,18 @@
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="70"/>
-      <c r="K94" s="70"/>
-      <c r="L94" s="70"/>
-      <c r="M94" s="70"/>
-      <c r="N94" s="70"/>
-      <c r="O94" s="70"/>
-      <c r="P94" s="70"/>
-      <c r="Q94" s="71"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="60"/>
       <c r="R94" s="27"/>
       <c r="S94" s="38"/>
       <c r="T94" s="38"/>
@@ -17177,18 +17257,18 @@
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
-      <c r="K95" s="70"/>
-      <c r="L95" s="70"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="70"/>
-      <c r="O95" s="70"/>
-      <c r="P95" s="70"/>
-      <c r="Q95" s="71"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="59"/>
+      <c r="N95" s="59"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="59"/>
+      <c r="Q95" s="60"/>
       <c r="R95" s="27"/>
       <c r="S95" s="38"/>
       <c r="T95" s="38"/>
@@ -17210,18 +17290,18 @@
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
-      <c r="K96" s="70"/>
-      <c r="L96" s="70"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="70"/>
-      <c r="O96" s="70"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="71"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59"/>
+      <c r="M96" s="59"/>
+      <c r="N96" s="59"/>
+      <c r="O96" s="59"/>
+      <c r="P96" s="59"/>
+      <c r="Q96" s="60"/>
       <c r="R96" s="27"/>
       <c r="S96" s="38"/>
       <c r="T96" s="38"/>
@@ -17243,18 +17323,18 @@
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
-      <c r="K97" s="70"/>
-      <c r="L97" s="70"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="70"/>
-      <c r="O97" s="70"/>
-      <c r="P97" s="70"/>
-      <c r="Q97" s="71"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="59"/>
+      <c r="N97" s="59"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="60"/>
       <c r="R97" s="27"/>
       <c r="S97" s="38"/>
       <c r="T97" s="38"/>
@@ -17276,18 +17356,18 @@
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="70"/>
-      <c r="O98" s="70"/>
-      <c r="P98" s="70"/>
-      <c r="Q98" s="71"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
+      <c r="N98" s="59"/>
+      <c r="O98" s="59"/>
+      <c r="P98" s="59"/>
+      <c r="Q98" s="60"/>
       <c r="R98" s="27"/>
       <c r="S98" s="38"/>
       <c r="T98" s="38"/>
@@ -17309,18 +17389,18 @@
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="70"/>
-      <c r="L99" s="70"/>
-      <c r="M99" s="70"/>
-      <c r="N99" s="70"/>
-      <c r="O99" s="70"/>
-      <c r="P99" s="70"/>
-      <c r="Q99" s="71"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
+      <c r="M99" s="59"/>
+      <c r="N99" s="59"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="60"/>
       <c r="R99" s="27"/>
       <c r="S99" s="38"/>
       <c r="T99" s="38"/>
@@ -17342,18 +17422,18 @@
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
       <c r="E100" s="27"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="70"/>
-      <c r="M100" s="70"/>
-      <c r="N100" s="70"/>
-      <c r="O100" s="70"/>
-      <c r="P100" s="70"/>
-      <c r="Q100" s="71"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
+      <c r="N100" s="59"/>
+      <c r="O100" s="59"/>
+      <c r="P100" s="59"/>
+      <c r="Q100" s="60"/>
       <c r="R100" s="27"/>
       <c r="S100" s="38"/>
       <c r="T100" s="38"/>
@@ -17375,18 +17455,18 @@
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="70"/>
-      <c r="L101" s="70"/>
-      <c r="M101" s="70"/>
-      <c r="N101" s="70"/>
-      <c r="O101" s="70"/>
-      <c r="P101" s="70"/>
-      <c r="Q101" s="71"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="59"/>
+      <c r="L101" s="59"/>
+      <c r="M101" s="59"/>
+      <c r="N101" s="59"/>
+      <c r="O101" s="59"/>
+      <c r="P101" s="59"/>
+      <c r="Q101" s="60"/>
       <c r="R101" s="27"/>
       <c r="S101" s="38"/>
       <c r="T101" s="38"/>
@@ -17408,18 +17488,18 @@
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="70"/>
-      <c r="K102" s="70"/>
-      <c r="L102" s="70"/>
-      <c r="M102" s="70"/>
-      <c r="N102" s="70"/>
-      <c r="O102" s="70"/>
-      <c r="P102" s="70"/>
-      <c r="Q102" s="71"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
+      <c r="L102" s="59"/>
+      <c r="M102" s="59"/>
+      <c r="N102" s="59"/>
+      <c r="O102" s="59"/>
+      <c r="P102" s="59"/>
+      <c r="Q102" s="60"/>
       <c r="R102" s="27"/>
       <c r="S102" s="38"/>
       <c r="T102" s="38"/>
@@ -17441,18 +17521,18 @@
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="70"/>
-      <c r="K103" s="70"/>
-      <c r="L103" s="70"/>
-      <c r="M103" s="70"/>
-      <c r="N103" s="70"/>
-      <c r="O103" s="70"/>
-      <c r="P103" s="70"/>
-      <c r="Q103" s="71"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="59"/>
+      <c r="M103" s="59"/>
+      <c r="N103" s="59"/>
+      <c r="O103" s="59"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="60"/>
       <c r="R103" s="27"/>
       <c r="S103" s="38"/>
       <c r="T103" s="38"/>
@@ -17474,18 +17554,18 @@
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="70"/>
-      <c r="K104" s="70"/>
-      <c r="L104" s="70"/>
-      <c r="M104" s="70"/>
-      <c r="N104" s="70"/>
-      <c r="O104" s="70"/>
-      <c r="P104" s="70"/>
-      <c r="Q104" s="71"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="59"/>
+      <c r="N104" s="59"/>
+      <c r="O104" s="59"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="60"/>
       <c r="R104" s="27"/>
       <c r="S104" s="38"/>
       <c r="T104" s="38"/>
@@ -17507,18 +17587,18 @@
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="70"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="70"/>
-      <c r="O105" s="70"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="71"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="59"/>
+      <c r="M105" s="59"/>
+      <c r="N105" s="59"/>
+      <c r="O105" s="59"/>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="60"/>
       <c r="R105" s="27"/>
       <c r="S105" s="38"/>
       <c r="T105" s="38"/>
@@ -17540,18 +17620,18 @@
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
-      <c r="J106" s="70"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="70"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="70"/>
-      <c r="O106" s="70"/>
-      <c r="P106" s="70"/>
-      <c r="Q106" s="71"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="59"/>
+      <c r="N106" s="59"/>
+      <c r="O106" s="59"/>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="60"/>
       <c r="R106" s="27"/>
       <c r="S106" s="38"/>
       <c r="T106" s="38"/>
@@ -17573,18 +17653,18 @@
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="70"/>
-      <c r="J107" s="70"/>
-      <c r="K107" s="70"/>
-      <c r="L107" s="70"/>
-      <c r="M107" s="70"/>
-      <c r="N107" s="70"/>
-      <c r="O107" s="70"/>
-      <c r="P107" s="70"/>
-      <c r="Q107" s="71"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="59"/>
+      <c r="N107" s="59"/>
+      <c r="O107" s="59"/>
+      <c r="P107" s="59"/>
+      <c r="Q107" s="60"/>
       <c r="R107" s="27"/>
       <c r="S107" s="38"/>
       <c r="T107" s="38"/>
@@ -17606,18 +17686,18 @@
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
-      <c r="I108" s="70"/>
-      <c r="J108" s="70"/>
-      <c r="K108" s="70"/>
-      <c r="L108" s="70"/>
-      <c r="M108" s="70"/>
-      <c r="N108" s="70"/>
-      <c r="O108" s="70"/>
-      <c r="P108" s="70"/>
-      <c r="Q108" s="71"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="59"/>
+      <c r="L108" s="59"/>
+      <c r="M108" s="59"/>
+      <c r="N108" s="59"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="60"/>
       <c r="R108" s="27"/>
       <c r="S108" s="38"/>
       <c r="T108" s="38"/>
@@ -17639,18 +17719,18 @@
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
-      <c r="L109" s="70"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="70"/>
-      <c r="O109" s="70"/>
-      <c r="P109" s="70"/>
-      <c r="Q109" s="71"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="59"/>
+      <c r="K109" s="59"/>
+      <c r="L109" s="59"/>
+      <c r="M109" s="59"/>
+      <c r="N109" s="59"/>
+      <c r="O109" s="59"/>
+      <c r="P109" s="59"/>
+      <c r="Q109" s="60"/>
       <c r="R109" s="27"/>
       <c r="S109" s="38"/>
       <c r="T109" s="38"/>
@@ -17672,18 +17752,18 @@
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
-      <c r="I110" s="70"/>
-      <c r="J110" s="70"/>
-      <c r="K110" s="70"/>
-      <c r="L110" s="70"/>
-      <c r="M110" s="70"/>
-      <c r="N110" s="70"/>
-      <c r="O110" s="70"/>
-      <c r="P110" s="70"/>
-      <c r="Q110" s="71"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="59"/>
+      <c r="K110" s="59"/>
+      <c r="L110" s="59"/>
+      <c r="M110" s="59"/>
+      <c r="N110" s="59"/>
+      <c r="O110" s="59"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="60"/>
       <c r="R110" s="27"/>
       <c r="S110" s="38"/>
       <c r="T110" s="38"/>
@@ -17705,18 +17785,18 @@
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
       <c r="E111" s="27"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="70"/>
-      <c r="J111" s="70"/>
-      <c r="K111" s="70"/>
-      <c r="L111" s="70"/>
-      <c r="M111" s="70"/>
-      <c r="N111" s="70"/>
-      <c r="O111" s="70"/>
-      <c r="P111" s="70"/>
-      <c r="Q111" s="71"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="59"/>
+      <c r="L111" s="59"/>
+      <c r="M111" s="59"/>
+      <c r="N111" s="59"/>
+      <c r="O111" s="59"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="60"/>
       <c r="R111" s="27"/>
       <c r="S111" s="38"/>
       <c r="T111" s="38"/>
@@ -17738,18 +17818,18 @@
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
       <c r="E112" s="27"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="70"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="70"/>
-      <c r="J112" s="70"/>
-      <c r="K112" s="70"/>
-      <c r="L112" s="70"/>
-      <c r="M112" s="70"/>
-      <c r="N112" s="70"/>
-      <c r="O112" s="70"/>
-      <c r="P112" s="70"/>
-      <c r="Q112" s="71"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="59"/>
+      <c r="L112" s="59"/>
+      <c r="M112" s="59"/>
+      <c r="N112" s="59"/>
+      <c r="O112" s="59"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="60"/>
       <c r="R112" s="27"/>
       <c r="S112" s="38"/>
       <c r="T112" s="38"/>
@@ -17771,22 +17851,22 @@
       <c r="C113" s="27"/>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="73"/>
-      <c r="H113" s="73"/>
-      <c r="I113" s="73"/>
-      <c r="J113" s="73"/>
-      <c r="K113" s="73"/>
-      <c r="L113" s="73"/>
-      <c r="M113" s="73"/>
-      <c r="N113" s="73"/>
-      <c r="O113" s="73"/>
-      <c r="P113" s="73"/>
-      <c r="Q113" s="74"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="62"/>
+      <c r="J113" s="62"/>
+      <c r="K113" s="62"/>
+      <c r="L113" s="62"/>
+      <c r="M113" s="62"/>
+      <c r="N113" s="62"/>
+      <c r="O113" s="62"/>
+      <c r="P113" s="62"/>
+      <c r="Q113" s="63"/>
       <c r="R113" s="27"/>
       <c r="S113" s="38"/>
-      <c r="T113" s="52"/>
-      <c r="U113" s="52"/>
+      <c r="T113" s="89"/>
+      <c r="U113" s="89"/>
       <c r="V113" s="38"/>
       <c r="W113" s="38"/>
       <c r="X113" s="38"/>
@@ -17804,20 +17884,20 @@
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
-      <c r="F114" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="57"/>
-      <c r="K114" s="57"/>
-      <c r="L114" s="57"/>
-      <c r="M114" s="57"/>
-      <c r="N114" s="57"/>
-      <c r="O114" s="57"/>
-      <c r="P114" s="57"/>
-      <c r="Q114" s="58"/>
+      <c r="F114" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
+      <c r="N114" s="67"/>
+      <c r="O114" s="67"/>
+      <c r="P114" s="67"/>
+      <c r="Q114" s="68"/>
       <c r="R114" s="27"/>
       <c r="S114" s="39"/>
       <c r="T114" s="39"/>
@@ -17840,25 +17920,25 @@
       <c r="D115" s="27"/>
       <c r="E115" s="27"/>
       <c r="F115" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G115" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G115" s="59" t="s">
+      <c r="H115" s="72"/>
+      <c r="I115" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="H115" s="60"/>
-      <c r="I115" s="59" t="s">
+      <c r="J115" s="72"/>
+      <c r="K115" s="71"/>
+      <c r="L115" s="73"/>
+      <c r="M115" s="72"/>
+      <c r="N115" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="J115" s="60"/>
-      <c r="K115" s="59"/>
-      <c r="L115" s="61"/>
-      <c r="M115" s="60"/>
-      <c r="N115" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="O115" s="61"/>
-      <c r="P115" s="61"/>
-      <c r="Q115" s="60"/>
+      <c r="O115" s="73"/>
+      <c r="P115" s="73"/>
+      <c r="Q115" s="72"/>
       <c r="R115" s="27"/>
       <c r="S115" s="40"/>
       <c r="T115" s="41"/>
@@ -17883,30 +17963,30 @@
       <c r="F116" s="35">
         <v>1</v>
       </c>
-      <c r="G116" s="53"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="55"/>
-      <c r="M116" s="54"/>
-      <c r="N116" s="53"/>
-      <c r="O116" s="55"/>
-      <c r="P116" s="55"/>
-      <c r="Q116" s="54"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="77"/>
+      <c r="I116" s="76"/>
+      <c r="J116" s="77"/>
+      <c r="K116" s="76"/>
+      <c r="L116" s="78"/>
+      <c r="M116" s="77"/>
+      <c r="N116" s="76"/>
+      <c r="O116" s="78"/>
+      <c r="P116" s="78"/>
+      <c r="Q116" s="77"/>
       <c r="R116" s="27"/>
       <c r="S116" s="36"/>
-      <c r="T116" s="52"/>
-      <c r="U116" s="52"/>
-      <c r="V116" s="52"/>
-      <c r="W116" s="52"/>
-      <c r="X116" s="52"/>
-      <c r="Y116" s="52"/>
-      <c r="Z116" s="52"/>
-      <c r="AA116" s="52"/>
-      <c r="AB116" s="52"/>
-      <c r="AC116" s="52"/>
-      <c r="AD116" s="52"/>
+      <c r="T116" s="89"/>
+      <c r="U116" s="89"/>
+      <c r="V116" s="89"/>
+      <c r="W116" s="89"/>
+      <c r="X116" s="89"/>
+      <c r="Y116" s="89"/>
+      <c r="Z116" s="89"/>
+      <c r="AA116" s="89"/>
+      <c r="AB116" s="89"/>
+      <c r="AC116" s="89"/>
+      <c r="AD116" s="89"/>
       <c r="AE116" s="27"/>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.4">
@@ -17918,30 +17998,30 @@
       <c r="F117" s="35">
         <v>2</v>
       </c>
-      <c r="G117" s="53"/>
-      <c r="H117" s="54"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="55"/>
-      <c r="M117" s="54"/>
-      <c r="N117" s="53"/>
-      <c r="O117" s="55"/>
-      <c r="P117" s="55"/>
-      <c r="Q117" s="54"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="76"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="78"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="76"/>
+      <c r="O117" s="78"/>
+      <c r="P117" s="78"/>
+      <c r="Q117" s="77"/>
       <c r="R117" s="27"/>
       <c r="S117" s="36"/>
-      <c r="T117" s="52"/>
-      <c r="U117" s="52"/>
-      <c r="V117" s="52"/>
-      <c r="W117" s="52"/>
-      <c r="X117" s="52"/>
-      <c r="Y117" s="52"/>
-      <c r="Z117" s="52"/>
-      <c r="AA117" s="52"/>
-      <c r="AB117" s="52"/>
-      <c r="AC117" s="52"/>
-      <c r="AD117" s="52"/>
+      <c r="T117" s="89"/>
+      <c r="U117" s="89"/>
+      <c r="V117" s="89"/>
+      <c r="W117" s="89"/>
+      <c r="X117" s="89"/>
+      <c r="Y117" s="89"/>
+      <c r="Z117" s="89"/>
+      <c r="AA117" s="89"/>
+      <c r="AB117" s="89"/>
+      <c r="AC117" s="89"/>
+      <c r="AD117" s="89"/>
       <c r="AE117" s="27"/>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.4">
@@ -17953,28 +18033,28 @@
       <c r="F118" s="35">
         <v>3</v>
       </c>
-      <c r="G118" s="53"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="55"/>
-      <c r="M118" s="54"/>
-      <c r="N118" s="53"/>
-      <c r="O118" s="55"/>
-      <c r="P118" s="55"/>
-      <c r="Q118" s="54"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="76"/>
+      <c r="J118" s="77"/>
+      <c r="K118" s="76"/>
+      <c r="L118" s="78"/>
+      <c r="M118" s="77"/>
+      <c r="N118" s="76"/>
+      <c r="O118" s="78"/>
+      <c r="P118" s="78"/>
+      <c r="Q118" s="77"/>
       <c r="R118" s="27"/>
       <c r="S118" s="36"/>
-      <c r="V118" s="52"/>
-      <c r="W118" s="52"/>
-      <c r="X118" s="52"/>
-      <c r="Y118" s="52"/>
-      <c r="Z118" s="52"/>
-      <c r="AA118" s="52"/>
-      <c r="AB118" s="52"/>
-      <c r="AC118" s="52"/>
-      <c r="AD118" s="52"/>
+      <c r="V118" s="89"/>
+      <c r="W118" s="89"/>
+      <c r="X118" s="89"/>
+      <c r="Y118" s="89"/>
+      <c r="Z118" s="89"/>
+      <c r="AA118" s="89"/>
+      <c r="AB118" s="89"/>
+      <c r="AC118" s="89"/>
+      <c r="AD118" s="89"/>
       <c r="AE118" s="27"/>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.4">
@@ -17986,30 +18066,30 @@
       <c r="F119" s="35">
         <v>4</v>
       </c>
-      <c r="G119" s="53"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="55"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="53"/>
-      <c r="O119" s="55"/>
-      <c r="P119" s="55"/>
-      <c r="Q119" s="54"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="77"/>
+      <c r="I119" s="76"/>
+      <c r="J119" s="77"/>
+      <c r="K119" s="76"/>
+      <c r="L119" s="78"/>
+      <c r="M119" s="77"/>
+      <c r="N119" s="76"/>
+      <c r="O119" s="78"/>
+      <c r="P119" s="78"/>
+      <c r="Q119" s="77"/>
       <c r="R119" s="27"/>
       <c r="S119" s="36"/>
-      <c r="T119" s="52"/>
-      <c r="U119" s="52"/>
-      <c r="V119" s="52"/>
-      <c r="W119" s="52"/>
-      <c r="X119" s="52"/>
-      <c r="Y119" s="52"/>
-      <c r="Z119" s="52"/>
-      <c r="AA119" s="52"/>
-      <c r="AB119" s="52"/>
-      <c r="AC119" s="52"/>
-      <c r="AD119" s="52"/>
+      <c r="T119" s="89"/>
+      <c r="U119" s="89"/>
+      <c r="V119" s="89"/>
+      <c r="W119" s="89"/>
+      <c r="X119" s="89"/>
+      <c r="Y119" s="89"/>
+      <c r="Z119" s="89"/>
+      <c r="AA119" s="89"/>
+      <c r="AB119" s="89"/>
+      <c r="AC119" s="89"/>
+      <c r="AD119" s="89"/>
       <c r="AE119" s="27"/>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.4">
@@ -18021,30 +18101,30 @@
       <c r="F120" s="35">
         <v>5</v>
       </c>
-      <c r="G120" s="53"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="55"/>
-      <c r="M120" s="54"/>
-      <c r="N120" s="53"/>
-      <c r="O120" s="55"/>
-      <c r="P120" s="55"/>
-      <c r="Q120" s="54"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="76"/>
+      <c r="J120" s="77"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="78"/>
+      <c r="M120" s="77"/>
+      <c r="N120" s="76"/>
+      <c r="O120" s="78"/>
+      <c r="P120" s="78"/>
+      <c r="Q120" s="77"/>
       <c r="R120" s="27"/>
       <c r="S120" s="36"/>
-      <c r="T120" s="52"/>
-      <c r="U120" s="52"/>
-      <c r="V120" s="52"/>
-      <c r="W120" s="52"/>
-      <c r="X120" s="52"/>
-      <c r="Y120" s="52"/>
-      <c r="Z120" s="52"/>
-      <c r="AA120" s="52"/>
-      <c r="AB120" s="52"/>
-      <c r="AC120" s="52"/>
-      <c r="AD120" s="52"/>
+      <c r="T120" s="89"/>
+      <c r="U120" s="89"/>
+      <c r="V120" s="89"/>
+      <c r="W120" s="89"/>
+      <c r="X120" s="89"/>
+      <c r="Y120" s="89"/>
+      <c r="Z120" s="89"/>
+      <c r="AA120" s="89"/>
+      <c r="AB120" s="89"/>
+      <c r="AC120" s="89"/>
+      <c r="AD120" s="89"/>
       <c r="AE120" s="27"/>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.4">
@@ -18056,30 +18136,30 @@
       <c r="F121" s="35">
         <v>6</v>
       </c>
-      <c r="G121" s="53"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="55"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="53"/>
-      <c r="O121" s="55"/>
-      <c r="P121" s="55"/>
-      <c r="Q121" s="54"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="76"/>
+      <c r="L121" s="78"/>
+      <c r="M121" s="77"/>
+      <c r="N121" s="76"/>
+      <c r="O121" s="78"/>
+      <c r="P121" s="78"/>
+      <c r="Q121" s="77"/>
       <c r="R121" s="27"/>
       <c r="S121" s="28"/>
-      <c r="T121" s="52"/>
-      <c r="U121" s="52"/>
-      <c r="V121" s="52"/>
-      <c r="W121" s="52"/>
-      <c r="X121" s="52"/>
-      <c r="Y121" s="52"/>
-      <c r="Z121" s="52"/>
-      <c r="AA121" s="52"/>
-      <c r="AB121" s="52"/>
-      <c r="AC121" s="52"/>
-      <c r="AD121" s="52"/>
+      <c r="T121" s="89"/>
+      <c r="U121" s="89"/>
+      <c r="V121" s="89"/>
+      <c r="W121" s="89"/>
+      <c r="X121" s="89"/>
+      <c r="Y121" s="89"/>
+      <c r="Z121" s="89"/>
+      <c r="AA121" s="89"/>
+      <c r="AB121" s="89"/>
+      <c r="AC121" s="89"/>
+      <c r="AD121" s="89"/>
       <c r="AE121" s="27"/>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.4">
@@ -18091,30 +18171,30 @@
       <c r="F122" s="35">
         <v>7</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="55"/>
-      <c r="M122" s="54"/>
-      <c r="N122" s="53"/>
-      <c r="O122" s="55"/>
-      <c r="P122" s="55"/>
-      <c r="Q122" s="54"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="77"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="78"/>
+      <c r="M122" s="77"/>
+      <c r="N122" s="76"/>
+      <c r="O122" s="78"/>
+      <c r="P122" s="78"/>
+      <c r="Q122" s="77"/>
       <c r="R122" s="27"/>
       <c r="S122" s="36"/>
-      <c r="T122" s="52"/>
-      <c r="U122" s="52"/>
-      <c r="V122" s="52"/>
-      <c r="W122" s="52"/>
-      <c r="X122" s="52"/>
-      <c r="Y122" s="52"/>
-      <c r="Z122" s="52"/>
-      <c r="AA122" s="52"/>
-      <c r="AB122" s="52"/>
-      <c r="AC122" s="52"/>
-      <c r="AD122" s="52"/>
+      <c r="T122" s="89"/>
+      <c r="U122" s="89"/>
+      <c r="V122" s="89"/>
+      <c r="W122" s="89"/>
+      <c r="X122" s="89"/>
+      <c r="Y122" s="89"/>
+      <c r="Z122" s="89"/>
+      <c r="AA122" s="89"/>
+      <c r="AB122" s="89"/>
+      <c r="AC122" s="89"/>
+      <c r="AD122" s="89"/>
       <c r="AE122" s="27"/>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.4">
@@ -18126,30 +18206,30 @@
       <c r="F123" s="35">
         <v>8</v>
       </c>
-      <c r="G123" s="53"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="55"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="53"/>
-      <c r="O123" s="55"/>
-      <c r="P123" s="55"/>
-      <c r="Q123" s="54"/>
+      <c r="G123" s="76"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="76"/>
+      <c r="J123" s="77"/>
+      <c r="K123" s="76"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="77"/>
+      <c r="N123" s="76"/>
+      <c r="O123" s="78"/>
+      <c r="P123" s="78"/>
+      <c r="Q123" s="77"/>
       <c r="R123" s="27"/>
       <c r="S123" s="36"/>
-      <c r="T123" s="52"/>
-      <c r="U123" s="52"/>
-      <c r="V123" s="52"/>
-      <c r="W123" s="52"/>
-      <c r="X123" s="52"/>
-      <c r="Y123" s="52"/>
-      <c r="Z123" s="52"/>
-      <c r="AA123" s="52"/>
-      <c r="AB123" s="52"/>
-      <c r="AC123" s="52"/>
-      <c r="AD123" s="52"/>
+      <c r="T123" s="89"/>
+      <c r="U123" s="89"/>
+      <c r="V123" s="89"/>
+      <c r="W123" s="89"/>
+      <c r="X123" s="89"/>
+      <c r="Y123" s="89"/>
+      <c r="Z123" s="89"/>
+      <c r="AA123" s="89"/>
+      <c r="AB123" s="89"/>
+      <c r="AC123" s="89"/>
+      <c r="AD123" s="89"/>
       <c r="AE123" s="27"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.4">
@@ -18161,30 +18241,30 @@
       <c r="F124" s="35">
         <v>9</v>
       </c>
-      <c r="G124" s="53"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="55"/>
-      <c r="M124" s="54"/>
-      <c r="N124" s="53"/>
-      <c r="O124" s="55"/>
-      <c r="P124" s="55"/>
-      <c r="Q124" s="54"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="76"/>
+      <c r="J124" s="77"/>
+      <c r="K124" s="76"/>
+      <c r="L124" s="78"/>
+      <c r="M124" s="77"/>
+      <c r="N124" s="76"/>
+      <c r="O124" s="78"/>
+      <c r="P124" s="78"/>
+      <c r="Q124" s="77"/>
       <c r="R124" s="27"/>
       <c r="S124" s="36"/>
-      <c r="T124" s="52"/>
-      <c r="U124" s="52"/>
-      <c r="V124" s="52"/>
-      <c r="W124" s="52"/>
-      <c r="X124" s="52"/>
-      <c r="Y124" s="52"/>
-      <c r="Z124" s="52"/>
-      <c r="AA124" s="52"/>
-      <c r="AB124" s="52"/>
-      <c r="AC124" s="52"/>
-      <c r="AD124" s="52"/>
+      <c r="T124" s="89"/>
+      <c r="U124" s="89"/>
+      <c r="V124" s="89"/>
+      <c r="W124" s="89"/>
+      <c r="X124" s="89"/>
+      <c r="Y124" s="89"/>
+      <c r="Z124" s="89"/>
+      <c r="AA124" s="89"/>
+      <c r="AB124" s="89"/>
+      <c r="AC124" s="89"/>
+      <c r="AD124" s="89"/>
       <c r="AE124" s="27"/>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.4">
@@ -18196,114 +18276,213 @@
       <c r="F125" s="35">
         <v>10</v>
       </c>
-      <c r="G125" s="53"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="55"/>
-      <c r="M125" s="54"/>
-      <c r="N125" s="53"/>
-      <c r="O125" s="55"/>
-      <c r="P125" s="55"/>
-      <c r="Q125" s="54"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="77"/>
+      <c r="I125" s="76"/>
+      <c r="J125" s="77"/>
+      <c r="K125" s="76"/>
+      <c r="L125" s="78"/>
+      <c r="M125" s="77"/>
+      <c r="N125" s="76"/>
+      <c r="O125" s="78"/>
+      <c r="P125" s="78"/>
+      <c r="Q125" s="77"/>
       <c r="R125" s="27"/>
       <c r="S125" s="36"/>
-      <c r="T125" s="52"/>
-      <c r="U125" s="52"/>
-      <c r="V125" s="52"/>
-      <c r="W125" s="52"/>
-      <c r="X125" s="52"/>
-      <c r="Y125" s="52"/>
-      <c r="Z125" s="52"/>
-      <c r="AA125" s="52"/>
-      <c r="AB125" s="52"/>
-      <c r="AC125" s="52"/>
-      <c r="AD125" s="52"/>
+      <c r="T125" s="89"/>
+      <c r="U125" s="89"/>
+      <c r="V125" s="89"/>
+      <c r="W125" s="89"/>
+      <c r="X125" s="89"/>
+      <c r="Y125" s="89"/>
+      <c r="Z125" s="89"/>
+      <c r="AA125" s="89"/>
+      <c r="AB125" s="89"/>
+      <c r="AC125" s="89"/>
+      <c r="AD125" s="89"/>
       <c r="AE125" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="G8:Q8"/>
-    <mergeCell ref="T8:AD8"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="S9:AD9"/>
-    <mergeCell ref="F10:Q33"/>
-    <mergeCell ref="S10:AD33"/>
-    <mergeCell ref="F34:Q34"/>
-    <mergeCell ref="S34:AD34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X124:Z124"/>
+    <mergeCell ref="AA124:AD124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="N125:Q125"/>
+    <mergeCell ref="T125:U125"/>
+    <mergeCell ref="V125:W125"/>
+    <mergeCell ref="X125:Z125"/>
+    <mergeCell ref="AA125:AD125"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="T124:U124"/>
+    <mergeCell ref="V124:W124"/>
+    <mergeCell ref="X122:Z122"/>
+    <mergeCell ref="AA122:AD122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="T123:U123"/>
+    <mergeCell ref="V123:W123"/>
+    <mergeCell ref="X123:Z123"/>
+    <mergeCell ref="AA123:AD123"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="T122:U122"/>
+    <mergeCell ref="V122:W122"/>
+    <mergeCell ref="X120:Z120"/>
+    <mergeCell ref="AA120:AD120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="N121:Q121"/>
+    <mergeCell ref="T121:U121"/>
+    <mergeCell ref="V121:W121"/>
+    <mergeCell ref="X121:Z121"/>
+    <mergeCell ref="AA121:AD121"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:Q120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X118:Z118"/>
+    <mergeCell ref="AA118:AD118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="T119:U119"/>
+    <mergeCell ref="V119:W119"/>
+    <mergeCell ref="X119:Z119"/>
+    <mergeCell ref="AA119:AD119"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="V118:W118"/>
+    <mergeCell ref="F114:Q114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="N115:Q115"/>
+    <mergeCell ref="X116:Z116"/>
+    <mergeCell ref="AA116:AD116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="T117:U117"/>
+    <mergeCell ref="V117:W117"/>
+    <mergeCell ref="X117:Z117"/>
+    <mergeCell ref="AA117:AD117"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="N116:Q116"/>
+    <mergeCell ref="T116:U116"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="G88:Q88"/>
+    <mergeCell ref="T88:AD88"/>
+    <mergeCell ref="F89:Q89"/>
+    <mergeCell ref="F90:Q113"/>
+    <mergeCell ref="X84:Z84"/>
+    <mergeCell ref="AA84:AD84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="AA85:AD85"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="T113:U113"/>
+    <mergeCell ref="X82:Z82"/>
+    <mergeCell ref="AA82:AD82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="X83:Z83"/>
+    <mergeCell ref="AA83:AD83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="X80:Z80"/>
+    <mergeCell ref="AA80:AD80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Z81"/>
+    <mergeCell ref="AA81:AD81"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X78:Z78"/>
+    <mergeCell ref="AA78:AD78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Z79"/>
+    <mergeCell ref="AA79:AD79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AD76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Z77"/>
+    <mergeCell ref="AA77:AD77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="F74:Q74"/>
+    <mergeCell ref="S74:AD74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Z75"/>
+    <mergeCell ref="AA75:AD75"/>
     <mergeCell ref="G48:Q48"/>
     <mergeCell ref="T48:AD48"/>
     <mergeCell ref="F49:Q49"/>
@@ -18326,185 +18505,86 @@
     <mergeCell ref="N44:Q44"/>
     <mergeCell ref="T44:U44"/>
     <mergeCell ref="V44:W44"/>
-    <mergeCell ref="F74:Q74"/>
-    <mergeCell ref="S74:AD74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="X75:Z75"/>
-    <mergeCell ref="AA75:AD75"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="AA76:AD76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Z77"/>
-    <mergeCell ref="AA77:AD77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="X78:Z78"/>
-    <mergeCell ref="AA78:AD78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Z79"/>
-    <mergeCell ref="AA79:AD79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X80:Z80"/>
-    <mergeCell ref="AA80:AD80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Z81"/>
-    <mergeCell ref="AA81:AD81"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="X82:Z82"/>
-    <mergeCell ref="AA82:AD82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="X83:Z83"/>
-    <mergeCell ref="AA83:AD83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="G88:Q88"/>
-    <mergeCell ref="T88:AD88"/>
-    <mergeCell ref="F89:Q89"/>
-    <mergeCell ref="F90:Q113"/>
-    <mergeCell ref="X84:Z84"/>
-    <mergeCell ref="AA84:AD84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="AA85:AD85"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="T113:U113"/>
-    <mergeCell ref="F114:Q114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="N115:Q115"/>
-    <mergeCell ref="X116:Z116"/>
-    <mergeCell ref="AA116:AD116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="K117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="T117:U117"/>
-    <mergeCell ref="V117:W117"/>
-    <mergeCell ref="X117:Z117"/>
-    <mergeCell ref="AA117:AD117"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="N116:Q116"/>
-    <mergeCell ref="T116:U116"/>
-    <mergeCell ref="V116:W116"/>
-    <mergeCell ref="X118:Z118"/>
-    <mergeCell ref="AA118:AD118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="N119:Q119"/>
-    <mergeCell ref="T119:U119"/>
-    <mergeCell ref="V119:W119"/>
-    <mergeCell ref="X119:Z119"/>
-    <mergeCell ref="AA119:AD119"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="V118:W118"/>
-    <mergeCell ref="X120:Z120"/>
-    <mergeCell ref="AA120:AD120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="N121:Q121"/>
-    <mergeCell ref="T121:U121"/>
-    <mergeCell ref="V121:W121"/>
-    <mergeCell ref="X121:Z121"/>
-    <mergeCell ref="AA121:AD121"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:Q120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X122:Z122"/>
-    <mergeCell ref="AA122:AD122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="T123:U123"/>
-    <mergeCell ref="V123:W123"/>
-    <mergeCell ref="X123:Z123"/>
-    <mergeCell ref="AA123:AD123"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="T122:U122"/>
-    <mergeCell ref="V122:W122"/>
-    <mergeCell ref="X124:Z124"/>
-    <mergeCell ref="AA124:AD124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="N125:Q125"/>
-    <mergeCell ref="T125:U125"/>
-    <mergeCell ref="V125:W125"/>
-    <mergeCell ref="X125:Z125"/>
-    <mergeCell ref="AA125:AD125"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="T124:U124"/>
-    <mergeCell ref="V124:W124"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AD42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AD41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="G8:Q8"/>
+    <mergeCell ref="T8:AD8"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="S9:AD9"/>
+    <mergeCell ref="F10:Q33"/>
+    <mergeCell ref="S10:AD33"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="S34:AD34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AD35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18518,7 +18598,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C4:R47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -19331,7 +19411,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19753,7 +19833,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -1350,6 +1350,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1357,6 +1387,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1386,51 +1419,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,11 +1446,23 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -13868,7 +13868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S50" sqref="S50:AD73"/>
     </sheetView>
   </sheetViews>
@@ -14168,36 +14168,36 @@
       <c r="F8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="64"/>
       <c r="R8" s="27"/>
       <c r="S8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="52" t="s">
+      <c r="T8" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="54"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="64"/>
       <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
@@ -14208,35 +14208,35 @@
         <v>84</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="64"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="54"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="64"/>
       <c r="AE9" s="27"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
@@ -14247,35 +14247,35 @@
         <v>39</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="68"/>
       <c r="R10" s="27"/>
-      <c r="S10" s="64" t="s">
+      <c r="S10" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
       <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
@@ -14286,31 +14286,31 @@
         <v>51</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
       <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
@@ -14319,31 +14319,31 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="60"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
       <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
@@ -14352,31 +14352,31 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
       <c r="R13" s="27"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
       <c r="AE13" s="27"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
@@ -14384,31 +14384,31 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
       <c r="AE14" s="27"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
@@ -14417,31 +14417,31 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
       <c r="R15" s="27"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
       <c r="AE15" s="27"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.4">
@@ -14450,31 +14450,31 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="60"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="86"/>
       <c r="AE16" s="27"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.4">
@@ -14483,31 +14483,31 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
       <c r="AE17" s="27"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.4">
@@ -14516,31 +14516,31 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
       <c r="AE18" s="27"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.4">
@@ -14549,31 +14549,31 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="60"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="71"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.4">
@@ -14582,31 +14582,31 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="71"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.4">
@@ -14615,31 +14615,31 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="71"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.4">
@@ -14648,31 +14648,31 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="60"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
       <c r="R22" s="27"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
       <c r="AE22" s="27"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.4">
@@ -14681,31 +14681,31 @@
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="60"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="71"/>
       <c r="R23" s="27"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
       <c r="AE23" s="27"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.4">
@@ -14714,31 +14714,31 @@
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="71"/>
       <c r="R24" s="27"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
       <c r="AE24" s="27"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.4">
@@ -14747,31 +14747,31 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="60"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
       <c r="R25" s="27"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
       <c r="AE25" s="27"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.4">
@@ -14780,31 +14780,31 @@
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="60"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
       <c r="R26" s="27"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
       <c r="AE26" s="27"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.4">
@@ -14813,31 +14813,31 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="60"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="71"/>
       <c r="R27" s="27"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
       <c r="AE27" s="27"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.4">
@@ -14846,31 +14846,31 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="60"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="71"/>
       <c r="R28" s="27"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
       <c r="AE28" s="27"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.4">
@@ -14879,31 +14879,31 @@
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="60"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="71"/>
       <c r="R29" s="27"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
       <c r="AE29" s="27"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.4">
@@ -14912,31 +14912,31 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="60"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="71"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
       <c r="AE30" s="27"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.4">
@@ -14945,31 +14945,31 @@
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="60"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="71"/>
       <c r="R31" s="27"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="86"/>
+      <c r="AD31" s="86"/>
       <c r="AE31" s="27"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.4">
@@ -14978,31 +14978,31 @@
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="60"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="71"/>
       <c r="R32" s="27"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="86"/>
+      <c r="AD32" s="86"/>
       <c r="AE32" s="27"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.4">
@@ -15011,31 +15011,31 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="63"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="74"/>
       <c r="R33" s="27"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="86"/>
+      <c r="AD33" s="86"/>
       <c r="AE33" s="27"/>
     </row>
     <row r="34" spans="1:31" ht="58.5" x14ac:dyDescent="0.4">
@@ -15044,35 +15044,35 @@
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="68"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="58"/>
       <c r="R34" s="27"/>
-      <c r="S34" s="69" t="s">
+      <c r="S34" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="70"/>
-      <c r="Y34" s="70"/>
-      <c r="Z34" s="70"/>
-      <c r="AA34" s="70"/>
-      <c r="AB34" s="70"/>
-      <c r="AC34" s="70"/>
-      <c r="AD34" s="70"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="88"/>
+      <c r="AD34" s="88"/>
       <c r="AE34" s="27"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.4">
@@ -15084,44 +15084,44 @@
       <c r="F35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="71" t="s">
+      <c r="G35" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="71" t="s">
+      <c r="H35" s="60"/>
+      <c r="I35" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="72"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="71" t="s">
+      <c r="J35" s="60"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="72"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="60"/>
       <c r="R35" s="27"/>
       <c r="S35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="T35" s="74" t="s">
+      <c r="T35" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74" t="s">
+      <c r="U35" s="89"/>
+      <c r="V35" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74" t="s">
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74"/>
+      <c r="AB35" s="89"/>
+      <c r="AC35" s="89"/>
+      <c r="AD35" s="89"/>
       <c r="AE35" s="27"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.4">
@@ -15133,44 +15133,44 @@
       <c r="F36" s="35">
         <v>1</v>
       </c>
-      <c r="G36" s="76" t="s">
+      <c r="G36" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="77"/>
-      <c r="I36" s="76" t="s">
+      <c r="H36" s="54"/>
+      <c r="I36" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="76" t="s">
+      <c r="J36" s="54"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="77"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="54"/>
       <c r="R36" s="27"/>
       <c r="S36" s="35">
         <v>1</v>
       </c>
-      <c r="T36" s="75" t="s">
+      <c r="T36" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75" t="s">
+      <c r="U36" s="84"/>
+      <c r="V36" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="W36" s="75"/>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75" t="s">
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="84"/>
+      <c r="AA36" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="75"/>
-      <c r="AD36" s="75"/>
+      <c r="AB36" s="84"/>
+      <c r="AC36" s="84"/>
+      <c r="AD36" s="84"/>
       <c r="AE36" s="27"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.4">
@@ -15182,40 +15182,40 @@
       <c r="F37" s="35">
         <v>2</v>
       </c>
-      <c r="G37" s="76" t="s">
+      <c r="G37" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="77"/>
-      <c r="I37" s="76" t="s">
+      <c r="H37" s="54"/>
+      <c r="I37" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="77"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="76" t="s">
+      <c r="J37" s="54"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="77"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="54"/>
       <c r="R37" s="27"/>
       <c r="S37" s="35">
         <v>2</v>
       </c>
-      <c r="T37" s="75" t="s">
+      <c r="T37" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="75"/>
-      <c r="AA37" s="75"/>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="75"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="84"/>
+      <c r="AA37" s="84"/>
+      <c r="AB37" s="84"/>
+      <c r="AC37" s="84"/>
+      <c r="AD37" s="84"/>
       <c r="AE37" s="27"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.4">
@@ -15227,40 +15227,40 @@
       <c r="F38" s="35">
         <v>3</v>
       </c>
-      <c r="G38" s="76" t="s">
+      <c r="G38" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="77"/>
-      <c r="I38" s="76" t="s">
+      <c r="H38" s="54"/>
+      <c r="I38" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="77"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="76" t="s">
+      <c r="J38" s="54"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="77"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="54"/>
       <c r="R38" s="27"/>
       <c r="S38" s="35">
         <v>3</v>
       </c>
-      <c r="T38" s="75" t="s">
+      <c r="T38" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="75"/>
-      <c r="X38" s="75"/>
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="75"/>
-      <c r="AA38" s="75"/>
-      <c r="AB38" s="75"/>
-      <c r="AC38" s="75"/>
-      <c r="AD38" s="75"/>
+      <c r="U38" s="84"/>
+      <c r="V38" s="84"/>
+      <c r="W38" s="84"/>
+      <c r="X38" s="84"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="84"/>
+      <c r="AA38" s="84"/>
+      <c r="AB38" s="84"/>
+      <c r="AC38" s="84"/>
+      <c r="AD38" s="84"/>
       <c r="AE38" s="27"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.4">
@@ -15272,36 +15272,36 @@
       <c r="F39" s="35">
         <v>4</v>
       </c>
-      <c r="G39" s="76" t="s">
+      <c r="G39" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H39" s="77"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="77"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="54"/>
       <c r="R39" s="27"/>
       <c r="S39" s="35">
         <v>4</v>
       </c>
-      <c r="T39" s="75" t="s">
+      <c r="T39" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="75"/>
-      <c r="X39" s="75"/>
-      <c r="Y39" s="75"/>
-      <c r="Z39" s="75"/>
-      <c r="AA39" s="75"/>
-      <c r="AB39" s="75"/>
-      <c r="AC39" s="75"/>
-      <c r="AD39" s="75"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="84"/>
+      <c r="W39" s="84"/>
+      <c r="X39" s="84"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="84"/>
+      <c r="AA39" s="84"/>
+      <c r="AB39" s="84"/>
+      <c r="AC39" s="84"/>
+      <c r="AD39" s="84"/>
       <c r="AE39" s="27"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.4">
@@ -15313,36 +15313,36 @@
       <c r="F40" s="35">
         <v>5</v>
       </c>
-      <c r="G40" s="76"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="77"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="54"/>
       <c r="R40" s="27"/>
       <c r="S40" s="35">
         <v>5</v>
       </c>
-      <c r="T40" s="75" t="s">
+      <c r="T40" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="75"/>
-      <c r="X40" s="75"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="75" t="s">
+      <c r="U40" s="84"/>
+      <c r="V40" s="84"/>
+      <c r="W40" s="84"/>
+      <c r="X40" s="84"/>
+      <c r="Y40" s="84"/>
+      <c r="Z40" s="84"/>
+      <c r="AA40" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="AB40" s="75"/>
-      <c r="AC40" s="75"/>
-      <c r="AD40" s="75"/>
+      <c r="AB40" s="84"/>
+      <c r="AC40" s="84"/>
+      <c r="AD40" s="84"/>
       <c r="AE40" s="27"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.4">
@@ -15354,32 +15354,32 @@
       <c r="F41" s="35">
         <v>6</v>
       </c>
-      <c r="G41" s="76"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="77"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="54"/>
       <c r="R41" s="27"/>
       <c r="S41" s="35">
         <v>6</v>
       </c>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
-      <c r="AA41" s="75"/>
-      <c r="AB41" s="75"/>
-      <c r="AC41" s="75"/>
-      <c r="AD41" s="75"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="84"/>
+      <c r="W41" s="84"/>
+      <c r="X41" s="84"/>
+      <c r="Y41" s="84"/>
+      <c r="Z41" s="84"/>
+      <c r="AA41" s="84"/>
+      <c r="AB41" s="84"/>
+      <c r="AC41" s="84"/>
+      <c r="AD41" s="84"/>
       <c r="AE41" s="27"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.4">
@@ -15391,32 +15391,32 @@
       <c r="F42" s="35">
         <v>7</v>
       </c>
-      <c r="G42" s="76"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="77"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="54"/>
       <c r="R42" s="27"/>
       <c r="S42" s="35">
         <v>7</v>
       </c>
-      <c r="T42" s="75"/>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="75"/>
-      <c r="X42" s="75"/>
-      <c r="Y42" s="75"/>
-      <c r="Z42" s="75"/>
-      <c r="AA42" s="75"/>
-      <c r="AB42" s="75"/>
-      <c r="AC42" s="75"/>
-      <c r="AD42" s="75"/>
+      <c r="T42" s="84"/>
+      <c r="U42" s="84"/>
+      <c r="V42" s="84"/>
+      <c r="W42" s="84"/>
+      <c r="X42" s="84"/>
+      <c r="Y42" s="84"/>
+      <c r="Z42" s="84"/>
+      <c r="AA42" s="84"/>
+      <c r="AB42" s="84"/>
+      <c r="AC42" s="84"/>
+      <c r="AD42" s="84"/>
       <c r="AE42" s="27"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.4">
@@ -15428,32 +15428,32 @@
       <c r="F43" s="35">
         <v>8</v>
       </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="77"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="54"/>
       <c r="R43" s="27"/>
       <c r="S43" s="35">
         <v>8</v>
       </c>
-      <c r="T43" s="75"/>
-      <c r="U43" s="75"/>
-      <c r="V43" s="75"/>
-      <c r="W43" s="75"/>
-      <c r="X43" s="75"/>
-      <c r="Y43" s="75"/>
-      <c r="Z43" s="75"/>
-      <c r="AA43" s="75"/>
-      <c r="AB43" s="75"/>
-      <c r="AC43" s="75"/>
-      <c r="AD43" s="75"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="84"/>
+      <c r="V43" s="84"/>
+      <c r="W43" s="84"/>
+      <c r="X43" s="84"/>
+      <c r="Y43" s="84"/>
+      <c r="Z43" s="84"/>
+      <c r="AA43" s="84"/>
+      <c r="AB43" s="84"/>
+      <c r="AC43" s="84"/>
+      <c r="AD43" s="84"/>
       <c r="AE43" s="27"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.4">
@@ -15465,32 +15465,32 @@
       <c r="F44" s="35">
         <v>9</v>
       </c>
-      <c r="G44" s="76"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="77"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="54"/>
       <c r="R44" s="27"/>
       <c r="S44" s="35">
         <v>9</v>
       </c>
-      <c r="T44" s="75"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="75"/>
-      <c r="X44" s="75"/>
-      <c r="Y44" s="75"/>
-      <c r="Z44" s="75"/>
-      <c r="AA44" s="75"/>
-      <c r="AB44" s="75"/>
-      <c r="AC44" s="75"/>
-      <c r="AD44" s="75"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="84"/>
+      <c r="V44" s="84"/>
+      <c r="W44" s="84"/>
+      <c r="X44" s="84"/>
+      <c r="Y44" s="84"/>
+      <c r="Z44" s="84"/>
+      <c r="AA44" s="84"/>
+      <c r="AB44" s="84"/>
+      <c r="AC44" s="84"/>
+      <c r="AD44" s="84"/>
       <c r="AE44" s="27"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.4">
@@ -15502,32 +15502,32 @@
       <c r="F45" s="35">
         <v>10</v>
       </c>
-      <c r="G45" s="76"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="77"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="54"/>
       <c r="R45" s="27"/>
       <c r="S45" s="35">
         <v>10</v>
       </c>
-      <c r="T45" s="75"/>
-      <c r="U45" s="75"/>
-      <c r="V45" s="75"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="75"/>
-      <c r="Y45" s="75"/>
-      <c r="Z45" s="75"/>
-      <c r="AA45" s="75"/>
-      <c r="AB45" s="75"/>
-      <c r="AC45" s="75"/>
-      <c r="AD45" s="75"/>
+      <c r="T45" s="84"/>
+      <c r="U45" s="84"/>
+      <c r="V45" s="84"/>
+      <c r="W45" s="84"/>
+      <c r="X45" s="84"/>
+      <c r="Y45" s="84"/>
+      <c r="Z45" s="84"/>
+      <c r="AA45" s="84"/>
+      <c r="AB45" s="84"/>
+      <c r="AC45" s="84"/>
+      <c r="AD45" s="84"/>
       <c r="AE45" s="27"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.4">
@@ -15605,36 +15605,36 @@
       <c r="F48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="52" t="s">
+      <c r="G48" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="64"/>
       <c r="R48" s="27"/>
       <c r="S48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="T48" s="52" t="s">
+      <c r="T48" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="54"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="63"/>
+      <c r="AB48" s="63"/>
+      <c r="AC48" s="63"/>
+      <c r="AD48" s="64"/>
       <c r="AE48" s="27"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.4">
@@ -15643,35 +15643,35 @@
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="54"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="64"/>
       <c r="R49" s="27"/>
-      <c r="S49" s="52" t="s">
+      <c r="S49" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="54"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="63"/>
+      <c r="AA49" s="63"/>
+      <c r="AB49" s="63"/>
+      <c r="AC49" s="63"/>
+      <c r="AD49" s="64"/>
       <c r="AE49" s="27"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.4">
@@ -15680,31 +15680,31 @@
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="81"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="77"/>
       <c r="R50" s="27"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="57"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
+      <c r="X50" s="67"/>
+      <c r="Y50" s="67"/>
+      <c r="Z50" s="67"/>
+      <c r="AA50" s="67"/>
+      <c r="AB50" s="67"/>
+      <c r="AC50" s="67"/>
+      <c r="AD50" s="68"/>
       <c r="AE50" s="27"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.4">
@@ -15713,31 +15713,31 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="84"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="80"/>
       <c r="R51" s="27"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="59"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="59"/>
-      <c r="Y51" s="59"/>
-      <c r="Z51" s="59"/>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="59"/>
-      <c r="AC51" s="59"/>
-      <c r="AD51" s="60"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="70"/>
+      <c r="U51" s="70"/>
+      <c r="V51" s="70"/>
+      <c r="W51" s="70"/>
+      <c r="X51" s="70"/>
+      <c r="Y51" s="70"/>
+      <c r="Z51" s="70"/>
+      <c r="AA51" s="70"/>
+      <c r="AB51" s="70"/>
+      <c r="AC51" s="70"/>
+      <c r="AD51" s="71"/>
       <c r="AE51" s="27"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.4">
@@ -15746,31 +15746,31 @@
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="84"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="79"/>
+      <c r="Q52" s="80"/>
       <c r="R52" s="27"/>
-      <c r="S52" s="58"/>
-      <c r="T52" s="59"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="59"/>
-      <c r="Y52" s="59"/>
-      <c r="Z52" s="59"/>
-      <c r="AA52" s="59"/>
-      <c r="AB52" s="59"/>
-      <c r="AC52" s="59"/>
-      <c r="AD52" s="60"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="70"/>
+      <c r="U52" s="70"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="70"/>
+      <c r="Y52" s="70"/>
+      <c r="Z52" s="70"/>
+      <c r="AA52" s="70"/>
+      <c r="AB52" s="70"/>
+      <c r="AC52" s="70"/>
+      <c r="AD52" s="71"/>
       <c r="AE52" s="27"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.4">
@@ -15779,31 +15779,31 @@
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="84"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="80"/>
       <c r="R53" s="27"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="59"/>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="59"/>
-      <c r="Z53" s="59"/>
-      <c r="AA53" s="59"/>
-      <c r="AB53" s="59"/>
-      <c r="AC53" s="59"/>
-      <c r="AD53" s="60"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="70"/>
+      <c r="Y53" s="70"/>
+      <c r="Z53" s="70"/>
+      <c r="AA53" s="70"/>
+      <c r="AB53" s="70"/>
+      <c r="AC53" s="70"/>
+      <c r="AD53" s="71"/>
       <c r="AE53" s="27"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.4">
@@ -15812,31 +15812,31 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-      <c r="Q54" s="84"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="80"/>
       <c r="R54" s="27"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="59"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="59"/>
-      <c r="Z54" s="59"/>
-      <c r="AA54" s="59"/>
-      <c r="AB54" s="59"/>
-      <c r="AC54" s="59"/>
-      <c r="AD54" s="60"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+      <c r="Y54" s="70"/>
+      <c r="Z54" s="70"/>
+      <c r="AA54" s="70"/>
+      <c r="AB54" s="70"/>
+      <c r="AC54" s="70"/>
+      <c r="AD54" s="71"/>
       <c r="AE54" s="27"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.4">
@@ -15845,31 +15845,31 @@
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="84"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="80"/>
       <c r="R55" s="27"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="59"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="59"/>
-      <c r="Y55" s="59"/>
-      <c r="Z55" s="59"/>
-      <c r="AA55" s="59"/>
-      <c r="AB55" s="59"/>
-      <c r="AC55" s="59"/>
-      <c r="AD55" s="60"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="70"/>
+      <c r="V55" s="70"/>
+      <c r="W55" s="70"/>
+      <c r="X55" s="70"/>
+      <c r="Y55" s="70"/>
+      <c r="Z55" s="70"/>
+      <c r="AA55" s="70"/>
+      <c r="AB55" s="70"/>
+      <c r="AC55" s="70"/>
+      <c r="AD55" s="71"/>
       <c r="AE55" s="27"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.4">
@@ -15878,31 +15878,31 @@
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-      <c r="Q56" s="84"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="79"/>
+      <c r="O56" s="79"/>
+      <c r="P56" s="79"/>
+      <c r="Q56" s="80"/>
       <c r="R56" s="27"/>
-      <c r="S56" s="58"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
-      <c r="AC56" s="59"/>
-      <c r="AD56" s="60"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="70"/>
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="70"/>
+      <c r="X56" s="70"/>
+      <c r="Y56" s="70"/>
+      <c r="Z56" s="70"/>
+      <c r="AA56" s="70"/>
+      <c r="AB56" s="70"/>
+      <c r="AC56" s="70"/>
+      <c r="AD56" s="71"/>
       <c r="AE56" s="27"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.4">
@@ -15911,31 +15911,31 @@
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
-      <c r="Q57" s="84"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="80"/>
       <c r="R57" s="27"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="59"/>
-      <c r="Z57" s="59"/>
-      <c r="AA57" s="59"/>
-      <c r="AB57" s="59"/>
-      <c r="AC57" s="59"/>
-      <c r="AD57" s="60"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="70"/>
+      <c r="Y57" s="70"/>
+      <c r="Z57" s="70"/>
+      <c r="AA57" s="70"/>
+      <c r="AB57" s="70"/>
+      <c r="AC57" s="70"/>
+      <c r="AD57" s="71"/>
       <c r="AE57" s="27"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.4">
@@ -15944,31 +15944,31 @@
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-      <c r="Q58" s="84"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="80"/>
       <c r="R58" s="27"/>
-      <c r="S58" s="58"/>
-      <c r="T58" s="59"/>
-      <c r="U58" s="59"/>
-      <c r="V58" s="59"/>
-      <c r="W58" s="59"/>
-      <c r="X58" s="59"/>
-      <c r="Y58" s="59"/>
-      <c r="Z58" s="59"/>
-      <c r="AA58" s="59"/>
-      <c r="AB58" s="59"/>
-      <c r="AC58" s="59"/>
-      <c r="AD58" s="60"/>
+      <c r="S58" s="69"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="70"/>
+      <c r="X58" s="70"/>
+      <c r="Y58" s="70"/>
+      <c r="Z58" s="70"/>
+      <c r="AA58" s="70"/>
+      <c r="AB58" s="70"/>
+      <c r="AC58" s="70"/>
+      <c r="AD58" s="71"/>
       <c r="AE58" s="27"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.4">
@@ -15977,31 +15977,31 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="84"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="80"/>
       <c r="R59" s="27"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="59"/>
-      <c r="AB59" s="59"/>
-      <c r="AC59" s="59"/>
-      <c r="AD59" s="60"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="70"/>
+      <c r="X59" s="70"/>
+      <c r="Y59" s="70"/>
+      <c r="Z59" s="70"/>
+      <c r="AA59" s="70"/>
+      <c r="AB59" s="70"/>
+      <c r="AC59" s="70"/>
+      <c r="AD59" s="71"/>
       <c r="AE59" s="27"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.4">
@@ -16010,31 +16010,31 @@
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83"/>
-      <c r="Q60" s="84"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="79"/>
+      <c r="Q60" s="80"/>
       <c r="R60" s="27"/>
-      <c r="S60" s="58"/>
-      <c r="T60" s="59"/>
-      <c r="U60" s="59"/>
-      <c r="V60" s="59"/>
-      <c r="W60" s="59"/>
-      <c r="X60" s="59"/>
-      <c r="Y60" s="59"/>
-      <c r="Z60" s="59"/>
-      <c r="AA60" s="59"/>
-      <c r="AB60" s="59"/>
-      <c r="AC60" s="59"/>
-      <c r="AD60" s="60"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="70"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="70"/>
+      <c r="Y60" s="70"/>
+      <c r="Z60" s="70"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
+      <c r="AC60" s="70"/>
+      <c r="AD60" s="71"/>
       <c r="AE60" s="27"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.4">
@@ -16043,31 +16043,31 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="84"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="79"/>
+      <c r="Q61" s="80"/>
       <c r="R61" s="27"/>
-      <c r="S61" s="58"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
-      <c r="Z61" s="59"/>
-      <c r="AA61" s="59"/>
-      <c r="AB61" s="59"/>
-      <c r="AC61" s="59"/>
-      <c r="AD61" s="60"/>
+      <c r="S61" s="69"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="70"/>
+      <c r="X61" s="70"/>
+      <c r="Y61" s="70"/>
+      <c r="Z61" s="70"/>
+      <c r="AA61" s="70"/>
+      <c r="AB61" s="70"/>
+      <c r="AC61" s="70"/>
+      <c r="AD61" s="71"/>
       <c r="AE61" s="27"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.4">
@@ -16076,31 +16076,31 @@
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="84"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="79"/>
+      <c r="P62" s="79"/>
+      <c r="Q62" s="80"/>
       <c r="R62" s="27"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="59"/>
-      <c r="Y62" s="59"/>
-      <c r="Z62" s="59"/>
-      <c r="AA62" s="59"/>
-      <c r="AB62" s="59"/>
-      <c r="AC62" s="59"/>
-      <c r="AD62" s="60"/>
+      <c r="S62" s="69"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="70"/>
+      <c r="Y62" s="70"/>
+      <c r="Z62" s="70"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
+      <c r="AC62" s="70"/>
+      <c r="AD62" s="71"/>
       <c r="AE62" s="27"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.4">
@@ -16109,31 +16109,31 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="83"/>
-      <c r="M63" s="83"/>
-      <c r="N63" s="83"/>
-      <c r="O63" s="83"/>
-      <c r="P63" s="83"/>
-      <c r="Q63" s="84"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="79"/>
+      <c r="Q63" s="80"/>
       <c r="R63" s="27"/>
-      <c r="S63" s="58"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="59"/>
-      <c r="Y63" s="59"/>
-      <c r="Z63" s="59"/>
-      <c r="AA63" s="59"/>
-      <c r="AB63" s="59"/>
-      <c r="AC63" s="59"/>
-      <c r="AD63" s="60"/>
+      <c r="S63" s="69"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="70"/>
+      <c r="X63" s="70"/>
+      <c r="Y63" s="70"/>
+      <c r="Z63" s="70"/>
+      <c r="AA63" s="70"/>
+      <c r="AB63" s="70"/>
+      <c r="AC63" s="70"/>
+      <c r="AD63" s="71"/>
       <c r="AE63" s="27"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.4">
@@ -16142,31 +16142,31 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83"/>
-      <c r="Q64" s="84"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="79"/>
+      <c r="O64" s="79"/>
+      <c r="P64" s="79"/>
+      <c r="Q64" s="80"/>
       <c r="R64" s="27"/>
-      <c r="S64" s="58"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="59"/>
-      <c r="Y64" s="59"/>
-      <c r="Z64" s="59"/>
-      <c r="AA64" s="59"/>
-      <c r="AB64" s="59"/>
-      <c r="AC64" s="59"/>
-      <c r="AD64" s="60"/>
+      <c r="S64" s="69"/>
+      <c r="T64" s="70"/>
+      <c r="U64" s="70"/>
+      <c r="V64" s="70"/>
+      <c r="W64" s="70"/>
+      <c r="X64" s="70"/>
+      <c r="Y64" s="70"/>
+      <c r="Z64" s="70"/>
+      <c r="AA64" s="70"/>
+      <c r="AB64" s="70"/>
+      <c r="AC64" s="70"/>
+      <c r="AD64" s="71"/>
       <c r="AE64" s="27"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
@@ -16175,31 +16175,31 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="84"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="79"/>
+      <c r="Q65" s="80"/>
       <c r="R65" s="27"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="59"/>
-      <c r="Y65" s="59"/>
-      <c r="Z65" s="59"/>
-      <c r="AA65" s="59"/>
-      <c r="AB65" s="59"/>
-      <c r="AC65" s="59"/>
-      <c r="AD65" s="60"/>
+      <c r="S65" s="69"/>
+      <c r="T65" s="70"/>
+      <c r="U65" s="70"/>
+      <c r="V65" s="70"/>
+      <c r="W65" s="70"/>
+      <c r="X65" s="70"/>
+      <c r="Y65" s="70"/>
+      <c r="Z65" s="70"/>
+      <c r="AA65" s="70"/>
+      <c r="AB65" s="70"/>
+      <c r="AC65" s="70"/>
+      <c r="AD65" s="71"/>
       <c r="AE65" s="27"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
@@ -16208,31 +16208,31 @@
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="84"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="79"/>
+      <c r="Q66" s="80"/>
       <c r="R66" s="27"/>
-      <c r="S66" s="58"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="59"/>
-      <c r="Y66" s="59"/>
-      <c r="Z66" s="59"/>
-      <c r="AA66" s="59"/>
-      <c r="AB66" s="59"/>
-      <c r="AC66" s="59"/>
-      <c r="AD66" s="60"/>
+      <c r="S66" s="69"/>
+      <c r="T66" s="70"/>
+      <c r="U66" s="70"/>
+      <c r="V66" s="70"/>
+      <c r="W66" s="70"/>
+      <c r="X66" s="70"/>
+      <c r="Y66" s="70"/>
+      <c r="Z66" s="70"/>
+      <c r="AA66" s="70"/>
+      <c r="AB66" s="70"/>
+      <c r="AC66" s="70"/>
+      <c r="AD66" s="71"/>
       <c r="AE66" s="27"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.4">
@@ -16241,31 +16241,31 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="84"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="79"/>
+      <c r="P67" s="79"/>
+      <c r="Q67" s="80"/>
       <c r="R67" s="27"/>
-      <c r="S67" s="58"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="59"/>
-      <c r="Y67" s="59"/>
-      <c r="Z67" s="59"/>
-      <c r="AA67" s="59"/>
-      <c r="AB67" s="59"/>
-      <c r="AC67" s="59"/>
-      <c r="AD67" s="60"/>
+      <c r="S67" s="69"/>
+      <c r="T67" s="70"/>
+      <c r="U67" s="70"/>
+      <c r="V67" s="70"/>
+      <c r="W67" s="70"/>
+      <c r="X67" s="70"/>
+      <c r="Y67" s="70"/>
+      <c r="Z67" s="70"/>
+      <c r="AA67" s="70"/>
+      <c r="AB67" s="70"/>
+      <c r="AC67" s="70"/>
+      <c r="AD67" s="71"/>
       <c r="AE67" s="27"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.4">
@@ -16274,31 +16274,31 @@
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="83"/>
-      <c r="N68" s="83"/>
-      <c r="O68" s="83"/>
-      <c r="P68" s="83"/>
-      <c r="Q68" s="84"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="79"/>
+      <c r="O68" s="79"/>
+      <c r="P68" s="79"/>
+      <c r="Q68" s="80"/>
       <c r="R68" s="27"/>
-      <c r="S68" s="58"/>
-      <c r="T68" s="59"/>
-      <c r="U68" s="59"/>
-      <c r="V68" s="59"/>
-      <c r="W68" s="59"/>
-      <c r="X68" s="59"/>
-      <c r="Y68" s="59"/>
-      <c r="Z68" s="59"/>
-      <c r="AA68" s="59"/>
-      <c r="AB68" s="59"/>
-      <c r="AC68" s="59"/>
-      <c r="AD68" s="60"/>
+      <c r="S68" s="69"/>
+      <c r="T68" s="70"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="70"/>
+      <c r="W68" s="70"/>
+      <c r="X68" s="70"/>
+      <c r="Y68" s="70"/>
+      <c r="Z68" s="70"/>
+      <c r="AA68" s="70"/>
+      <c r="AB68" s="70"/>
+      <c r="AC68" s="70"/>
+      <c r="AD68" s="71"/>
       <c r="AE68" s="27"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.4">
@@ -16307,31 +16307,31 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
-      <c r="P69" s="83"/>
-      <c r="Q69" s="84"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="79"/>
+      <c r="Q69" s="80"/>
       <c r="R69" s="27"/>
-      <c r="S69" s="58"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-      <c r="AA69" s="59"/>
-      <c r="AB69" s="59"/>
-      <c r="AC69" s="59"/>
-      <c r="AD69" s="60"/>
+      <c r="S69" s="69"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
+      <c r="V69" s="70"/>
+      <c r="W69" s="70"/>
+      <c r="X69" s="70"/>
+      <c r="Y69" s="70"/>
+      <c r="Z69" s="70"/>
+      <c r="AA69" s="70"/>
+      <c r="AB69" s="70"/>
+      <c r="AC69" s="70"/>
+      <c r="AD69" s="71"/>
       <c r="AE69" s="27"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
@@ -16340,31 +16340,31 @@
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="83"/>
-      <c r="J70" s="83"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="83"/>
-      <c r="M70" s="83"/>
-      <c r="N70" s="83"/>
-      <c r="O70" s="83"/>
-      <c r="P70" s="83"/>
-      <c r="Q70" s="84"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="79"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="80"/>
       <c r="R70" s="27"/>
-      <c r="S70" s="58"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="59"/>
-      <c r="V70" s="59"/>
-      <c r="W70" s="59"/>
-      <c r="X70" s="59"/>
-      <c r="Y70" s="59"/>
-      <c r="Z70" s="59"/>
-      <c r="AA70" s="59"/>
-      <c r="AB70" s="59"/>
-      <c r="AC70" s="59"/>
-      <c r="AD70" s="60"/>
+      <c r="S70" s="69"/>
+      <c r="T70" s="70"/>
+      <c r="U70" s="70"/>
+      <c r="V70" s="70"/>
+      <c r="W70" s="70"/>
+      <c r="X70" s="70"/>
+      <c r="Y70" s="70"/>
+      <c r="Z70" s="70"/>
+      <c r="AA70" s="70"/>
+      <c r="AB70" s="70"/>
+      <c r="AC70" s="70"/>
+      <c r="AD70" s="71"/>
       <c r="AE70" s="27"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
@@ -16373,31 +16373,31 @@
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="83"/>
-      <c r="Q71" s="84"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="80"/>
       <c r="R71" s="27"/>
-      <c r="S71" s="58"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="59"/>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="59"/>
-      <c r="AA71" s="59"/>
-      <c r="AB71" s="59"/>
-      <c r="AC71" s="59"/>
-      <c r="AD71" s="60"/>
+      <c r="S71" s="69"/>
+      <c r="T71" s="70"/>
+      <c r="U71" s="70"/>
+      <c r="V71" s="70"/>
+      <c r="W71" s="70"/>
+      <c r="X71" s="70"/>
+      <c r="Y71" s="70"/>
+      <c r="Z71" s="70"/>
+      <c r="AA71" s="70"/>
+      <c r="AB71" s="70"/>
+      <c r="AC71" s="70"/>
+      <c r="AD71" s="71"/>
       <c r="AE71" s="27"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
@@ -16406,31 +16406,31 @@
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="83"/>
-      <c r="J72" s="83"/>
-      <c r="K72" s="83"/>
-      <c r="L72" s="83"/>
-      <c r="M72" s="83"/>
-      <c r="N72" s="83"/>
-      <c r="O72" s="83"/>
-      <c r="P72" s="83"/>
-      <c r="Q72" s="84"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="80"/>
       <c r="R72" s="27"/>
-      <c r="S72" s="58"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="60"/>
+      <c r="S72" s="69"/>
+      <c r="T72" s="70"/>
+      <c r="U72" s="70"/>
+      <c r="V72" s="70"/>
+      <c r="W72" s="70"/>
+      <c r="X72" s="70"/>
+      <c r="Y72" s="70"/>
+      <c r="Z72" s="70"/>
+      <c r="AA72" s="70"/>
+      <c r="AB72" s="70"/>
+      <c r="AC72" s="70"/>
+      <c r="AD72" s="71"/>
       <c r="AE72" s="27"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
@@ -16439,31 +16439,31 @@
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="86"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="86"/>
-      <c r="K73" s="86"/>
-      <c r="L73" s="86"/>
-      <c r="M73" s="86"/>
-      <c r="N73" s="86"/>
-      <c r="O73" s="86"/>
-      <c r="P73" s="86"/>
-      <c r="Q73" s="87"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82"/>
+      <c r="K73" s="82"/>
+      <c r="L73" s="82"/>
+      <c r="M73" s="82"/>
+      <c r="N73" s="82"/>
+      <c r="O73" s="82"/>
+      <c r="P73" s="82"/>
+      <c r="Q73" s="83"/>
       <c r="R73" s="27"/>
-      <c r="S73" s="61"/>
-      <c r="T73" s="62"/>
-      <c r="U73" s="62"/>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
-      <c r="AD73" s="63"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="73"/>
+      <c r="V73" s="73"/>
+      <c r="W73" s="73"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="73"/>
+      <c r="Z73" s="73"/>
+      <c r="AA73" s="73"/>
+      <c r="AB73" s="73"/>
+      <c r="AC73" s="73"/>
+      <c r="AD73" s="74"/>
       <c r="AE73" s="27"/>
     </row>
     <row r="74" spans="1:31" ht="58.5" x14ac:dyDescent="0.4">
@@ -16472,35 +16472,35 @@
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
-      <c r="F74" s="66" t="s">
+      <c r="F74" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="68"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="58"/>
       <c r="R74" s="27"/>
-      <c r="S74" s="66" t="s">
+      <c r="S74" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="67"/>
-      <c r="U74" s="67"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="67"/>
-      <c r="X74" s="67"/>
-      <c r="Y74" s="67"/>
-      <c r="Z74" s="67"/>
-      <c r="AA74" s="67"/>
-      <c r="AB74" s="67"/>
-      <c r="AC74" s="67"/>
-      <c r="AD74" s="68"/>
+      <c r="T74" s="57"/>
+      <c r="U74" s="57"/>
+      <c r="V74" s="57"/>
+      <c r="W74" s="57"/>
+      <c r="X74" s="57"/>
+      <c r="Y74" s="57"/>
+      <c r="Z74" s="57"/>
+      <c r="AA74" s="57"/>
+      <c r="AB74" s="57"/>
+      <c r="AC74" s="57"/>
+      <c r="AD74" s="58"/>
       <c r="AE74" s="27"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.4">
@@ -16512,44 +16512,44 @@
       <c r="F75" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G75" s="71" t="s">
+      <c r="G75" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H75" s="72"/>
-      <c r="I75" s="71" t="s">
+      <c r="H75" s="60"/>
+      <c r="I75" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="J75" s="72"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="71" t="s">
+      <c r="J75" s="60"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="O75" s="73"/>
-      <c r="P75" s="73"/>
-      <c r="Q75" s="72"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="60"/>
       <c r="R75" s="27"/>
       <c r="S75" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="T75" s="71" t="s">
+      <c r="T75" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U75" s="72"/>
-      <c r="V75" s="71" t="s">
+      <c r="U75" s="60"/>
+      <c r="V75" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="W75" s="72"/>
-      <c r="X75" s="71"/>
-      <c r="Y75" s="73"/>
-      <c r="Z75" s="72"/>
-      <c r="AA75" s="71" t="s">
+      <c r="W75" s="60"/>
+      <c r="X75" s="59"/>
+      <c r="Y75" s="61"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AB75" s="73"/>
-      <c r="AC75" s="73"/>
-      <c r="AD75" s="72"/>
+      <c r="AB75" s="61"/>
+      <c r="AC75" s="61"/>
+      <c r="AD75" s="60"/>
       <c r="AE75" s="27"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.4">
@@ -16561,38 +16561,38 @@
       <c r="F76" s="35">
         <v>1</v>
       </c>
-      <c r="G76" s="76" t="s">
+      <c r="G76" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="H76" s="77"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="78"/>
-      <c r="M76" s="77"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="78"/>
-      <c r="P76" s="78"/>
-      <c r="Q76" s="77"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="54"/>
       <c r="R76" s="27"/>
       <c r="S76" s="35">
         <v>1</v>
       </c>
-      <c r="T76" s="76" t="s">
+      <c r="T76" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="U76" s="77"/>
-      <c r="V76" s="76" t="s">
+      <c r="U76" s="54"/>
+      <c r="V76" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="W76" s="77"/>
-      <c r="X76" s="76"/>
-      <c r="Y76" s="78"/>
-      <c r="Z76" s="77"/>
-      <c r="AA76" s="76"/>
-      <c r="AB76" s="78"/>
-      <c r="AC76" s="78"/>
-      <c r="AD76" s="77"/>
+      <c r="W76" s="54"/>
+      <c r="X76" s="53"/>
+      <c r="Y76" s="55"/>
+      <c r="Z76" s="54"/>
+      <c r="AA76" s="53"/>
+      <c r="AB76" s="55"/>
+      <c r="AC76" s="55"/>
+      <c r="AD76" s="54"/>
       <c r="AE76" s="27"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.4">
@@ -16604,38 +16604,38 @@
       <c r="F77" s="35">
         <v>2</v>
       </c>
-      <c r="G77" s="76" t="s">
+      <c r="G77" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H77" s="77"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="77"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="78"/>
-      <c r="P77" s="78"/>
-      <c r="Q77" s="77"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="53"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="54"/>
       <c r="R77" s="27"/>
       <c r="S77" s="35">
         <v>2</v>
       </c>
-      <c r="T77" s="76" t="s">
+      <c r="T77" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="U77" s="77"/>
-      <c r="V77" s="76" t="s">
+      <c r="U77" s="54"/>
+      <c r="V77" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="W77" s="77"/>
-      <c r="X77" s="76"/>
-      <c r="Y77" s="78"/>
-      <c r="Z77" s="77"/>
-      <c r="AA77" s="76"/>
-      <c r="AB77" s="78"/>
-      <c r="AC77" s="78"/>
-      <c r="AD77" s="77"/>
+      <c r="W77" s="54"/>
+      <c r="X77" s="53"/>
+      <c r="Y77" s="55"/>
+      <c r="Z77" s="54"/>
+      <c r="AA77" s="53"/>
+      <c r="AB77" s="55"/>
+      <c r="AC77" s="55"/>
+      <c r="AD77" s="54"/>
       <c r="AE77" s="27"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.4">
@@ -16647,38 +16647,38 @@
       <c r="F78" s="35">
         <v>3</v>
       </c>
-      <c r="G78" s="76" t="s">
+      <c r="G78" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="H78" s="77"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="78"/>
-      <c r="M78" s="77"/>
-      <c r="N78" s="76"/>
-      <c r="O78" s="78"/>
-      <c r="P78" s="78"/>
-      <c r="Q78" s="77"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="54"/>
       <c r="R78" s="27"/>
       <c r="S78" s="35">
         <v>3</v>
       </c>
-      <c r="T78" s="76" t="s">
+      <c r="T78" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="U78" s="77"/>
-      <c r="V78" s="76" t="s">
+      <c r="U78" s="54"/>
+      <c r="V78" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="W78" s="77"/>
-      <c r="X78" s="76"/>
-      <c r="Y78" s="78"/>
-      <c r="Z78" s="77"/>
-      <c r="AA78" s="76"/>
-      <c r="AB78" s="78"/>
-      <c r="AC78" s="78"/>
-      <c r="AD78" s="77"/>
+      <c r="W78" s="54"/>
+      <c r="X78" s="53"/>
+      <c r="Y78" s="55"/>
+      <c r="Z78" s="54"/>
+      <c r="AA78" s="53"/>
+      <c r="AB78" s="55"/>
+      <c r="AC78" s="55"/>
+      <c r="AD78" s="54"/>
       <c r="AE78" s="27"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.4">
@@ -16690,38 +16690,38 @@
       <c r="F79" s="35">
         <v>4</v>
       </c>
-      <c r="G79" s="76" t="s">
+      <c r="G79" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H79" s="77"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="76"/>
-      <c r="L79" s="78"/>
-      <c r="M79" s="77"/>
-      <c r="N79" s="76"/>
-      <c r="O79" s="78"/>
-      <c r="P79" s="78"/>
-      <c r="Q79" s="77"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="55"/>
+      <c r="Q79" s="54"/>
       <c r="R79" s="27"/>
       <c r="S79" s="35">
         <v>4</v>
       </c>
-      <c r="T79" s="76" t="s">
+      <c r="T79" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="U79" s="77"/>
-      <c r="V79" s="76" t="s">
+      <c r="U79" s="54"/>
+      <c r="V79" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="W79" s="77"/>
-      <c r="X79" s="76"/>
-      <c r="Y79" s="78"/>
-      <c r="Z79" s="77"/>
-      <c r="AA79" s="76"/>
-      <c r="AB79" s="78"/>
-      <c r="AC79" s="78"/>
-      <c r="AD79" s="77"/>
+      <c r="W79" s="54"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="55"/>
+      <c r="Z79" s="54"/>
+      <c r="AA79" s="53"/>
+      <c r="AB79" s="55"/>
+      <c r="AC79" s="55"/>
+      <c r="AD79" s="54"/>
       <c r="AE79" s="27"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.4">
@@ -16733,34 +16733,34 @@
       <c r="F80" s="35">
         <v>5</v>
       </c>
-      <c r="G80" s="76"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="76"/>
-      <c r="L80" s="78"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="76"/>
-      <c r="O80" s="78"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="77"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="54"/>
       <c r="R80" s="27"/>
       <c r="S80" s="35">
         <v>5</v>
       </c>
-      <c r="T80" s="76" t="s">
+      <c r="T80" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="U80" s="77"/>
-      <c r="V80" s="76"/>
-      <c r="W80" s="77"/>
-      <c r="X80" s="76"/>
-      <c r="Y80" s="78"/>
-      <c r="Z80" s="77"/>
-      <c r="AA80" s="76"/>
-      <c r="AB80" s="78"/>
-      <c r="AC80" s="78"/>
-      <c r="AD80" s="77"/>
+      <c r="U80" s="54"/>
+      <c r="V80" s="53"/>
+      <c r="W80" s="54"/>
+      <c r="X80" s="53"/>
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="54"/>
+      <c r="AA80" s="53"/>
+      <c r="AB80" s="55"/>
+      <c r="AC80" s="55"/>
+      <c r="AD80" s="54"/>
       <c r="AE80" s="27"/>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.4">
@@ -16772,32 +16772,32 @@
       <c r="F81" s="35">
         <v>6</v>
       </c>
-      <c r="G81" s="76"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="78"/>
-      <c r="M81" s="77"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="78"/>
-      <c r="P81" s="78"/>
-      <c r="Q81" s="77"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="54"/>
       <c r="R81" s="27"/>
       <c r="S81" s="35">
         <v>6</v>
       </c>
-      <c r="T81" s="76"/>
-      <c r="U81" s="77"/>
-      <c r="V81" s="76"/>
-      <c r="W81" s="77"/>
-      <c r="X81" s="76"/>
-      <c r="Y81" s="78"/>
-      <c r="Z81" s="77"/>
-      <c r="AA81" s="76"/>
-      <c r="AB81" s="78"/>
-      <c r="AC81" s="78"/>
-      <c r="AD81" s="77"/>
+      <c r="T81" s="53"/>
+      <c r="U81" s="54"/>
+      <c r="V81" s="53"/>
+      <c r="W81" s="54"/>
+      <c r="X81" s="53"/>
+      <c r="Y81" s="55"/>
+      <c r="Z81" s="54"/>
+      <c r="AA81" s="53"/>
+      <c r="AB81" s="55"/>
+      <c r="AC81" s="55"/>
+      <c r="AD81" s="54"/>
       <c r="AE81" s="27"/>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.4">
@@ -16809,32 +16809,32 @@
       <c r="F82" s="35">
         <v>7</v>
       </c>
-      <c r="G82" s="76"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="78"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="78"/>
-      <c r="P82" s="78"/>
-      <c r="Q82" s="77"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="54"/>
       <c r="R82" s="27"/>
       <c r="S82" s="35">
         <v>7</v>
       </c>
-      <c r="T82" s="76"/>
-      <c r="U82" s="77"/>
-      <c r="V82" s="76"/>
-      <c r="W82" s="77"/>
-      <c r="X82" s="76"/>
-      <c r="Y82" s="78"/>
-      <c r="Z82" s="77"/>
-      <c r="AA82" s="76"/>
-      <c r="AB82" s="78"/>
-      <c r="AC82" s="78"/>
-      <c r="AD82" s="77"/>
+      <c r="T82" s="53"/>
+      <c r="U82" s="54"/>
+      <c r="V82" s="53"/>
+      <c r="W82" s="54"/>
+      <c r="X82" s="53"/>
+      <c r="Y82" s="55"/>
+      <c r="Z82" s="54"/>
+      <c r="AA82" s="53"/>
+      <c r="AB82" s="55"/>
+      <c r="AC82" s="55"/>
+      <c r="AD82" s="54"/>
       <c r="AE82" s="27"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.4">
@@ -16846,32 +16846,32 @@
       <c r="F83" s="35">
         <v>8</v>
       </c>
-      <c r="G83" s="76"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="76"/>
-      <c r="L83" s="78"/>
-      <c r="M83" s="77"/>
-      <c r="N83" s="76"/>
-      <c r="O83" s="78"/>
-      <c r="P83" s="78"/>
-      <c r="Q83" s="77"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="53"/>
+      <c r="O83" s="55"/>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="54"/>
       <c r="R83" s="27"/>
       <c r="S83" s="35">
         <v>8</v>
       </c>
-      <c r="T83" s="76"/>
-      <c r="U83" s="77"/>
-      <c r="V83" s="76"/>
-      <c r="W83" s="77"/>
-      <c r="X83" s="76"/>
-      <c r="Y83" s="78"/>
-      <c r="Z83" s="77"/>
-      <c r="AA83" s="76"/>
-      <c r="AB83" s="78"/>
-      <c r="AC83" s="78"/>
-      <c r="AD83" s="77"/>
+      <c r="T83" s="53"/>
+      <c r="U83" s="54"/>
+      <c r="V83" s="53"/>
+      <c r="W83" s="54"/>
+      <c r="X83" s="53"/>
+      <c r="Y83" s="55"/>
+      <c r="Z83" s="54"/>
+      <c r="AA83" s="53"/>
+      <c r="AB83" s="55"/>
+      <c r="AC83" s="55"/>
+      <c r="AD83" s="54"/>
       <c r="AE83" s="27"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.4">
@@ -16883,32 +16883,32 @@
       <c r="F84" s="35">
         <v>9</v>
       </c>
-      <c r="G84" s="76"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="76"/>
-      <c r="L84" s="78"/>
-      <c r="M84" s="77"/>
-      <c r="N84" s="76"/>
-      <c r="O84" s="78"/>
-      <c r="P84" s="78"/>
-      <c r="Q84" s="77"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="54"/>
+      <c r="N84" s="53"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="54"/>
       <c r="R84" s="27"/>
       <c r="S84" s="35">
         <v>9</v>
       </c>
-      <c r="T84" s="76"/>
-      <c r="U84" s="77"/>
-      <c r="V84" s="76"/>
-      <c r="W84" s="77"/>
-      <c r="X84" s="76"/>
-      <c r="Y84" s="78"/>
-      <c r="Z84" s="77"/>
-      <c r="AA84" s="76"/>
-      <c r="AB84" s="78"/>
-      <c r="AC84" s="78"/>
-      <c r="AD84" s="77"/>
+      <c r="T84" s="53"/>
+      <c r="U84" s="54"/>
+      <c r="V84" s="53"/>
+      <c r="W84" s="54"/>
+      <c r="X84" s="53"/>
+      <c r="Y84" s="55"/>
+      <c r="Z84" s="54"/>
+      <c r="AA84" s="53"/>
+      <c r="AB84" s="55"/>
+      <c r="AC84" s="55"/>
+      <c r="AD84" s="54"/>
       <c r="AE84" s="27"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.4">
@@ -16920,32 +16920,32 @@
       <c r="F85" s="35">
         <v>10</v>
       </c>
-      <c r="G85" s="76"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="78"/>
-      <c r="M85" s="77"/>
-      <c r="N85" s="76"/>
-      <c r="O85" s="78"/>
-      <c r="P85" s="78"/>
-      <c r="Q85" s="77"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="53"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="55"/>
+      <c r="Q85" s="54"/>
       <c r="R85" s="27"/>
       <c r="S85" s="35">
         <v>10</v>
       </c>
-      <c r="T85" s="76"/>
-      <c r="U85" s="77"/>
-      <c r="V85" s="76"/>
-      <c r="W85" s="77"/>
-      <c r="X85" s="76"/>
-      <c r="Y85" s="78"/>
-      <c r="Z85" s="77"/>
-      <c r="AA85" s="76"/>
-      <c r="AB85" s="78"/>
-      <c r="AC85" s="78"/>
-      <c r="AD85" s="77"/>
+      <c r="T85" s="53"/>
+      <c r="U85" s="54"/>
+      <c r="V85" s="53"/>
+      <c r="W85" s="54"/>
+      <c r="X85" s="53"/>
+      <c r="Y85" s="55"/>
+      <c r="Z85" s="54"/>
+      <c r="AA85" s="53"/>
+      <c r="AB85" s="55"/>
+      <c r="AC85" s="55"/>
+      <c r="AD85" s="54"/>
       <c r="AE85" s="27"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.4">
@@ -17023,32 +17023,32 @@
       <c r="F88" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="52" t="s">
+      <c r="G88" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-      <c r="P88" s="53"/>
-      <c r="Q88" s="54"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="63"/>
+      <c r="L88" s="63"/>
+      <c r="M88" s="63"/>
+      <c r="N88" s="63"/>
+      <c r="O88" s="63"/>
+      <c r="P88" s="63"/>
+      <c r="Q88" s="64"/>
       <c r="R88" s="27"/>
       <c r="S88" s="29"/>
-      <c r="T88" s="88"/>
-      <c r="U88" s="88"/>
-      <c r="V88" s="88"/>
-      <c r="W88" s="88"/>
-      <c r="X88" s="88"/>
-      <c r="Y88" s="88"/>
-      <c r="Z88" s="88"/>
-      <c r="AA88" s="88"/>
-      <c r="AB88" s="88"/>
-      <c r="AC88" s="88"/>
-      <c r="AD88" s="88"/>
+      <c r="T88" s="65"/>
+      <c r="U88" s="65"/>
+      <c r="V88" s="65"/>
+      <c r="W88" s="65"/>
+      <c r="X88" s="65"/>
+      <c r="Y88" s="65"/>
+      <c r="Z88" s="65"/>
+      <c r="AA88" s="65"/>
+      <c r="AB88" s="65"/>
+      <c r="AC88" s="65"/>
+      <c r="AD88" s="65"/>
       <c r="AE88" s="27"/>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.4">
@@ -17057,20 +17057,20 @@
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
-      <c r="F89" s="52" t="s">
+      <c r="F89" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="53"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="53"/>
-      <c r="P89" s="53"/>
-      <c r="Q89" s="54"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="63"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="63"/>
+      <c r="N89" s="63"/>
+      <c r="O89" s="63"/>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="64"/>
       <c r="R89" s="27"/>
       <c r="S89" s="37"/>
       <c r="T89" s="37"/>
@@ -17092,18 +17092,18 @@
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="56"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="57"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="67"/>
+      <c r="N90" s="67"/>
+      <c r="O90" s="67"/>
+      <c r="P90" s="67"/>
+      <c r="Q90" s="68"/>
       <c r="R90" s="27"/>
       <c r="S90" s="38"/>
       <c r="T90" s="38"/>
@@ -17125,18 +17125,18 @@
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="59"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="60"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="71"/>
       <c r="R91" s="27"/>
       <c r="S91" s="38"/>
       <c r="T91" s="38"/>
@@ -17158,18 +17158,18 @@
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="60"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
+      <c r="N92" s="70"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="70"/>
+      <c r="Q92" s="71"/>
       <c r="R92" s="27"/>
       <c r="S92" s="38"/>
       <c r="T92" s="38"/>
@@ -17191,18 +17191,18 @@
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="59"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="60"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="70"/>
+      <c r="J93" s="70"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="70"/>
+      <c r="M93" s="70"/>
+      <c r="N93" s="70"/>
+      <c r="O93" s="70"/>
+      <c r="P93" s="70"/>
+      <c r="Q93" s="71"/>
       <c r="R93" s="27"/>
       <c r="S93" s="38"/>
       <c r="T93" s="38"/>
@@ -17224,18 +17224,18 @@
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="59"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="59"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="60"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="70"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="70"/>
+      <c r="J94" s="70"/>
+      <c r="K94" s="70"/>
+      <c r="L94" s="70"/>
+      <c r="M94" s="70"/>
+      <c r="N94" s="70"/>
+      <c r="O94" s="70"/>
+      <c r="P94" s="70"/>
+      <c r="Q94" s="71"/>
       <c r="R94" s="27"/>
       <c r="S94" s="38"/>
       <c r="T94" s="38"/>
@@ -17257,18 +17257,18 @@
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="59"/>
-      <c r="N95" s="59"/>
-      <c r="O95" s="59"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="60"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
+      <c r="J95" s="70"/>
+      <c r="K95" s="70"/>
+      <c r="L95" s="70"/>
+      <c r="M95" s="70"/>
+      <c r="N95" s="70"/>
+      <c r="O95" s="70"/>
+      <c r="P95" s="70"/>
+      <c r="Q95" s="71"/>
       <c r="R95" s="27"/>
       <c r="S95" s="38"/>
       <c r="T95" s="38"/>
@@ -17290,18 +17290,18 @@
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="59"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="59"/>
-      <c r="N96" s="59"/>
-      <c r="O96" s="59"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="60"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="70"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="70"/>
+      <c r="K96" s="70"/>
+      <c r="L96" s="70"/>
+      <c r="M96" s="70"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="71"/>
       <c r="R96" s="27"/>
       <c r="S96" s="38"/>
       <c r="T96" s="38"/>
@@ -17323,18 +17323,18 @@
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="59"/>
-      <c r="N97" s="59"/>
-      <c r="O97" s="59"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="60"/>
+      <c r="F97" s="69"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="70"/>
+      <c r="J97" s="70"/>
+      <c r="K97" s="70"/>
+      <c r="L97" s="70"/>
+      <c r="M97" s="70"/>
+      <c r="N97" s="70"/>
+      <c r="O97" s="70"/>
+      <c r="P97" s="70"/>
+      <c r="Q97" s="71"/>
       <c r="R97" s="27"/>
       <c r="S97" s="38"/>
       <c r="T97" s="38"/>
@@ -17356,18 +17356,18 @@
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="59"/>
-      <c r="N98" s="59"/>
-      <c r="O98" s="59"/>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="60"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="70"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="70"/>
+      <c r="N98" s="70"/>
+      <c r="O98" s="70"/>
+      <c r="P98" s="70"/>
+      <c r="Q98" s="71"/>
       <c r="R98" s="27"/>
       <c r="S98" s="38"/>
       <c r="T98" s="38"/>
@@ -17389,18 +17389,18 @@
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="59"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="60"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="70"/>
+      <c r="N99" s="70"/>
+      <c r="O99" s="70"/>
+      <c r="P99" s="70"/>
+      <c r="Q99" s="71"/>
       <c r="R99" s="27"/>
       <c r="S99" s="38"/>
       <c r="T99" s="38"/>
@@ -17422,18 +17422,18 @@
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
       <c r="E100" s="27"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="59"/>
-      <c r="O100" s="59"/>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="60"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="70"/>
+      <c r="M100" s="70"/>
+      <c r="N100" s="70"/>
+      <c r="O100" s="70"/>
+      <c r="P100" s="70"/>
+      <c r="Q100" s="71"/>
       <c r="R100" s="27"/>
       <c r="S100" s="38"/>
       <c r="T100" s="38"/>
@@ -17455,18 +17455,18 @@
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="59"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="59"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="59"/>
-      <c r="N101" s="59"/>
-      <c r="O101" s="59"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="60"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="70"/>
+      <c r="L101" s="70"/>
+      <c r="M101" s="70"/>
+      <c r="N101" s="70"/>
+      <c r="O101" s="70"/>
+      <c r="P101" s="70"/>
+      <c r="Q101" s="71"/>
       <c r="R101" s="27"/>
       <c r="S101" s="38"/>
       <c r="T101" s="38"/>
@@ -17488,18 +17488,18 @@
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="59"/>
-      <c r="N102" s="59"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="60"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="70"/>
+      <c r="L102" s="70"/>
+      <c r="M102" s="70"/>
+      <c r="N102" s="70"/>
+      <c r="O102" s="70"/>
+      <c r="P102" s="70"/>
+      <c r="Q102" s="71"/>
       <c r="R102" s="27"/>
       <c r="S102" s="38"/>
       <c r="T102" s="38"/>
@@ -17521,18 +17521,18 @@
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="59"/>
-      <c r="N103" s="59"/>
-      <c r="O103" s="59"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="60"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="70"/>
+      <c r="L103" s="70"/>
+      <c r="M103" s="70"/>
+      <c r="N103" s="70"/>
+      <c r="O103" s="70"/>
+      <c r="P103" s="70"/>
+      <c r="Q103" s="71"/>
       <c r="R103" s="27"/>
       <c r="S103" s="38"/>
       <c r="T103" s="38"/>
@@ -17554,18 +17554,18 @@
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="59"/>
-      <c r="M104" s="59"/>
-      <c r="N104" s="59"/>
-      <c r="O104" s="59"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="60"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="70"/>
+      <c r="L104" s="70"/>
+      <c r="M104" s="70"/>
+      <c r="N104" s="70"/>
+      <c r="O104" s="70"/>
+      <c r="P104" s="70"/>
+      <c r="Q104" s="71"/>
       <c r="R104" s="27"/>
       <c r="S104" s="38"/>
       <c r="T104" s="38"/>
@@ -17587,18 +17587,18 @@
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="59"/>
-      <c r="L105" s="59"/>
-      <c r="M105" s="59"/>
-      <c r="N105" s="59"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="60"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="70"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="70"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="70"/>
+      <c r="N105" s="70"/>
+      <c r="O105" s="70"/>
+      <c r="P105" s="70"/>
+      <c r="Q105" s="71"/>
       <c r="R105" s="27"/>
       <c r="S105" s="38"/>
       <c r="T105" s="38"/>
@@ -17620,18 +17620,18 @@
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="59"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="60"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="70"/>
+      <c r="J106" s="70"/>
+      <c r="K106" s="70"/>
+      <c r="L106" s="70"/>
+      <c r="M106" s="70"/>
+      <c r="N106" s="70"/>
+      <c r="O106" s="70"/>
+      <c r="P106" s="70"/>
+      <c r="Q106" s="71"/>
       <c r="R106" s="27"/>
       <c r="S106" s="38"/>
       <c r="T106" s="38"/>
@@ -17653,18 +17653,18 @@
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="59"/>
-      <c r="O107" s="59"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="60"/>
+      <c r="F107" s="69"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="70"/>
+      <c r="J107" s="70"/>
+      <c r="K107" s="70"/>
+      <c r="L107" s="70"/>
+      <c r="M107" s="70"/>
+      <c r="N107" s="70"/>
+      <c r="O107" s="70"/>
+      <c r="P107" s="70"/>
+      <c r="Q107" s="71"/>
       <c r="R107" s="27"/>
       <c r="S107" s="38"/>
       <c r="T107" s="38"/>
@@ -17686,18 +17686,18 @@
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="59"/>
-      <c r="J108" s="59"/>
-      <c r="K108" s="59"/>
-      <c r="L108" s="59"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="59"/>
-      <c r="O108" s="59"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="60"/>
+      <c r="F108" s="69"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="70"/>
+      <c r="K108" s="70"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="70"/>
+      <c r="N108" s="70"/>
+      <c r="O108" s="70"/>
+      <c r="P108" s="70"/>
+      <c r="Q108" s="71"/>
       <c r="R108" s="27"/>
       <c r="S108" s="38"/>
       <c r="T108" s="38"/>
@@ -17719,18 +17719,18 @@
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="59"/>
-      <c r="K109" s="59"/>
-      <c r="L109" s="59"/>
-      <c r="M109" s="59"/>
-      <c r="N109" s="59"/>
-      <c r="O109" s="59"/>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="60"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="70"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="70"/>
+      <c r="L109" s="70"/>
+      <c r="M109" s="70"/>
+      <c r="N109" s="70"/>
+      <c r="O109" s="70"/>
+      <c r="P109" s="70"/>
+      <c r="Q109" s="71"/>
       <c r="R109" s="27"/>
       <c r="S109" s="38"/>
       <c r="T109" s="38"/>
@@ -17752,18 +17752,18 @@
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
-      <c r="I110" s="59"/>
-      <c r="J110" s="59"/>
-      <c r="K110" s="59"/>
-      <c r="L110" s="59"/>
-      <c r="M110" s="59"/>
-      <c r="N110" s="59"/>
-      <c r="O110" s="59"/>
-      <c r="P110" s="59"/>
-      <c r="Q110" s="60"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="70"/>
+      <c r="L110" s="70"/>
+      <c r="M110" s="70"/>
+      <c r="N110" s="70"/>
+      <c r="O110" s="70"/>
+      <c r="P110" s="70"/>
+      <c r="Q110" s="71"/>
       <c r="R110" s="27"/>
       <c r="S110" s="38"/>
       <c r="T110" s="38"/>
@@ -17785,18 +17785,18 @@
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
       <c r="E111" s="27"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
-      <c r="I111" s="59"/>
-      <c r="J111" s="59"/>
-      <c r="K111" s="59"/>
-      <c r="L111" s="59"/>
-      <c r="M111" s="59"/>
-      <c r="N111" s="59"/>
-      <c r="O111" s="59"/>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="60"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="70"/>
+      <c r="M111" s="70"/>
+      <c r="N111" s="70"/>
+      <c r="O111" s="70"/>
+      <c r="P111" s="70"/>
+      <c r="Q111" s="71"/>
       <c r="R111" s="27"/>
       <c r="S111" s="38"/>
       <c r="T111" s="38"/>
@@ -17818,18 +17818,18 @@
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
       <c r="E112" s="27"/>
-      <c r="F112" s="58"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
-      <c r="I112" s="59"/>
-      <c r="J112" s="59"/>
-      <c r="K112" s="59"/>
-      <c r="L112" s="59"/>
-      <c r="M112" s="59"/>
-      <c r="N112" s="59"/>
-      <c r="O112" s="59"/>
-      <c r="P112" s="59"/>
-      <c r="Q112" s="60"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="70"/>
+      <c r="N112" s="70"/>
+      <c r="O112" s="70"/>
+      <c r="P112" s="70"/>
+      <c r="Q112" s="71"/>
       <c r="R112" s="27"/>
       <c r="S112" s="38"/>
       <c r="T112" s="38"/>
@@ -17851,22 +17851,22 @@
       <c r="C113" s="27"/>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="62"/>
-      <c r="K113" s="62"/>
-      <c r="L113" s="62"/>
-      <c r="M113" s="62"/>
-      <c r="N113" s="62"/>
-      <c r="O113" s="62"/>
-      <c r="P113" s="62"/>
-      <c r="Q113" s="63"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="73"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="73"/>
+      <c r="K113" s="73"/>
+      <c r="L113" s="73"/>
+      <c r="M113" s="73"/>
+      <c r="N113" s="73"/>
+      <c r="O113" s="73"/>
+      <c r="P113" s="73"/>
+      <c r="Q113" s="74"/>
       <c r="R113" s="27"/>
       <c r="S113" s="38"/>
-      <c r="T113" s="89"/>
-      <c r="U113" s="89"/>
+      <c r="T113" s="52"/>
+      <c r="U113" s="52"/>
       <c r="V113" s="38"/>
       <c r="W113" s="38"/>
       <c r="X113" s="38"/>
@@ -17884,20 +17884,20 @@
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
-      <c r="F114" s="66" t="s">
+      <c r="F114" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67"/>
-      <c r="K114" s="67"/>
-      <c r="L114" s="67"/>
-      <c r="M114" s="67"/>
-      <c r="N114" s="67"/>
-      <c r="O114" s="67"/>
-      <c r="P114" s="67"/>
-      <c r="Q114" s="68"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="57"/>
+      <c r="O114" s="57"/>
+      <c r="P114" s="57"/>
+      <c r="Q114" s="58"/>
       <c r="R114" s="27"/>
       <c r="S114" s="39"/>
       <c r="T114" s="39"/>
@@ -17922,23 +17922,23 @@
       <c r="F115" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G115" s="71" t="s">
+      <c r="G115" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H115" s="72"/>
-      <c r="I115" s="71" t="s">
+      <c r="H115" s="60"/>
+      <c r="I115" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="J115" s="72"/>
-      <c r="K115" s="71"/>
-      <c r="L115" s="73"/>
-      <c r="M115" s="72"/>
-      <c r="N115" s="71" t="s">
+      <c r="J115" s="60"/>
+      <c r="K115" s="59"/>
+      <c r="L115" s="61"/>
+      <c r="M115" s="60"/>
+      <c r="N115" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="O115" s="73"/>
-      <c r="P115" s="73"/>
-      <c r="Q115" s="72"/>
+      <c r="O115" s="61"/>
+      <c r="P115" s="61"/>
+      <c r="Q115" s="60"/>
       <c r="R115" s="27"/>
       <c r="S115" s="40"/>
       <c r="T115" s="41"/>
@@ -17963,30 +17963,30 @@
       <c r="F116" s="35">
         <v>1</v>
       </c>
-      <c r="G116" s="76"/>
-      <c r="H116" s="77"/>
-      <c r="I116" s="76"/>
-      <c r="J116" s="77"/>
-      <c r="K116" s="76"/>
-      <c r="L116" s="78"/>
-      <c r="M116" s="77"/>
-      <c r="N116" s="76"/>
-      <c r="O116" s="78"/>
-      <c r="P116" s="78"/>
-      <c r="Q116" s="77"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="53"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="53"/>
+      <c r="L116" s="55"/>
+      <c r="M116" s="54"/>
+      <c r="N116" s="53"/>
+      <c r="O116" s="55"/>
+      <c r="P116" s="55"/>
+      <c r="Q116" s="54"/>
       <c r="R116" s="27"/>
       <c r="S116" s="36"/>
-      <c r="T116" s="89"/>
-      <c r="U116" s="89"/>
-      <c r="V116" s="89"/>
-      <c r="W116" s="89"/>
-      <c r="X116" s="89"/>
-      <c r="Y116" s="89"/>
-      <c r="Z116" s="89"/>
-      <c r="AA116" s="89"/>
-      <c r="AB116" s="89"/>
-      <c r="AC116" s="89"/>
-      <c r="AD116" s="89"/>
+      <c r="T116" s="52"/>
+      <c r="U116" s="52"/>
+      <c r="V116" s="52"/>
+      <c r="W116" s="52"/>
+      <c r="X116" s="52"/>
+      <c r="Y116" s="52"/>
+      <c r="Z116" s="52"/>
+      <c r="AA116" s="52"/>
+      <c r="AB116" s="52"/>
+      <c r="AC116" s="52"/>
+      <c r="AD116" s="52"/>
       <c r="AE116" s="27"/>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.4">
@@ -17998,30 +17998,30 @@
       <c r="F117" s="35">
         <v>2</v>
       </c>
-      <c r="G117" s="76"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="76"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="76"/>
-      <c r="L117" s="78"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="76"/>
-      <c r="O117" s="78"/>
-      <c r="P117" s="78"/>
-      <c r="Q117" s="77"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="53"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="53"/>
+      <c r="L117" s="55"/>
+      <c r="M117" s="54"/>
+      <c r="N117" s="53"/>
+      <c r="O117" s="55"/>
+      <c r="P117" s="55"/>
+      <c r="Q117" s="54"/>
       <c r="R117" s="27"/>
       <c r="S117" s="36"/>
-      <c r="T117" s="89"/>
-      <c r="U117" s="89"/>
-      <c r="V117" s="89"/>
-      <c r="W117" s="89"/>
-      <c r="X117" s="89"/>
-      <c r="Y117" s="89"/>
-      <c r="Z117" s="89"/>
-      <c r="AA117" s="89"/>
-      <c r="AB117" s="89"/>
-      <c r="AC117" s="89"/>
-      <c r="AD117" s="89"/>
+      <c r="T117" s="52"/>
+      <c r="U117" s="52"/>
+      <c r="V117" s="52"/>
+      <c r="W117" s="52"/>
+      <c r="X117" s="52"/>
+      <c r="Y117" s="52"/>
+      <c r="Z117" s="52"/>
+      <c r="AA117" s="52"/>
+      <c r="AB117" s="52"/>
+      <c r="AC117" s="52"/>
+      <c r="AD117" s="52"/>
       <c r="AE117" s="27"/>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.4">
@@ -18033,28 +18033,28 @@
       <c r="F118" s="35">
         <v>3</v>
       </c>
-      <c r="G118" s="76"/>
-      <c r="H118" s="77"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="76"/>
-      <c r="L118" s="78"/>
-      <c r="M118" s="77"/>
-      <c r="N118" s="76"/>
-      <c r="O118" s="78"/>
-      <c r="P118" s="78"/>
-      <c r="Q118" s="77"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="53"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="53"/>
+      <c r="L118" s="55"/>
+      <c r="M118" s="54"/>
+      <c r="N118" s="53"/>
+      <c r="O118" s="55"/>
+      <c r="P118" s="55"/>
+      <c r="Q118" s="54"/>
       <c r="R118" s="27"/>
       <c r="S118" s="36"/>
-      <c r="V118" s="89"/>
-      <c r="W118" s="89"/>
-      <c r="X118" s="89"/>
-      <c r="Y118" s="89"/>
-      <c r="Z118" s="89"/>
-      <c r="AA118" s="89"/>
-      <c r="AB118" s="89"/>
-      <c r="AC118" s="89"/>
-      <c r="AD118" s="89"/>
+      <c r="V118" s="52"/>
+      <c r="W118" s="52"/>
+      <c r="X118" s="52"/>
+      <c r="Y118" s="52"/>
+      <c r="Z118" s="52"/>
+      <c r="AA118" s="52"/>
+      <c r="AB118" s="52"/>
+      <c r="AC118" s="52"/>
+      <c r="AD118" s="52"/>
       <c r="AE118" s="27"/>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.4">
@@ -18066,30 +18066,30 @@
       <c r="F119" s="35">
         <v>4</v>
       </c>
-      <c r="G119" s="76"/>
-      <c r="H119" s="77"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="77"/>
-      <c r="K119" s="76"/>
-      <c r="L119" s="78"/>
-      <c r="M119" s="77"/>
-      <c r="N119" s="76"/>
-      <c r="O119" s="78"/>
-      <c r="P119" s="78"/>
-      <c r="Q119" s="77"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="53"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="53"/>
+      <c r="L119" s="55"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="53"/>
+      <c r="O119" s="55"/>
+      <c r="P119" s="55"/>
+      <c r="Q119" s="54"/>
       <c r="R119" s="27"/>
       <c r="S119" s="36"/>
-      <c r="T119" s="89"/>
-      <c r="U119" s="89"/>
-      <c r="V119" s="89"/>
-      <c r="W119" s="89"/>
-      <c r="X119" s="89"/>
-      <c r="Y119" s="89"/>
-      <c r="Z119" s="89"/>
-      <c r="AA119" s="89"/>
-      <c r="AB119" s="89"/>
-      <c r="AC119" s="89"/>
-      <c r="AD119" s="89"/>
+      <c r="T119" s="52"/>
+      <c r="U119" s="52"/>
+      <c r="V119" s="52"/>
+      <c r="W119" s="52"/>
+      <c r="X119" s="52"/>
+      <c r="Y119" s="52"/>
+      <c r="Z119" s="52"/>
+      <c r="AA119" s="52"/>
+      <c r="AB119" s="52"/>
+      <c r="AC119" s="52"/>
+      <c r="AD119" s="52"/>
       <c r="AE119" s="27"/>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.4">
@@ -18101,30 +18101,30 @@
       <c r="F120" s="35">
         <v>5</v>
       </c>
-      <c r="G120" s="76"/>
-      <c r="H120" s="77"/>
-      <c r="I120" s="76"/>
-      <c r="J120" s="77"/>
-      <c r="K120" s="76"/>
-      <c r="L120" s="78"/>
-      <c r="M120" s="77"/>
-      <c r="N120" s="76"/>
-      <c r="O120" s="78"/>
-      <c r="P120" s="78"/>
-      <c r="Q120" s="77"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="53"/>
+      <c r="L120" s="55"/>
+      <c r="M120" s="54"/>
+      <c r="N120" s="53"/>
+      <c r="O120" s="55"/>
+      <c r="P120" s="55"/>
+      <c r="Q120" s="54"/>
       <c r="R120" s="27"/>
       <c r="S120" s="36"/>
-      <c r="T120" s="89"/>
-      <c r="U120" s="89"/>
-      <c r="V120" s="89"/>
-      <c r="W120" s="89"/>
-      <c r="X120" s="89"/>
-      <c r="Y120" s="89"/>
-      <c r="Z120" s="89"/>
-      <c r="AA120" s="89"/>
-      <c r="AB120" s="89"/>
-      <c r="AC120" s="89"/>
-      <c r="AD120" s="89"/>
+      <c r="T120" s="52"/>
+      <c r="U120" s="52"/>
+      <c r="V120" s="52"/>
+      <c r="W120" s="52"/>
+      <c r="X120" s="52"/>
+      <c r="Y120" s="52"/>
+      <c r="Z120" s="52"/>
+      <c r="AA120" s="52"/>
+      <c r="AB120" s="52"/>
+      <c r="AC120" s="52"/>
+      <c r="AD120" s="52"/>
       <c r="AE120" s="27"/>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.4">
@@ -18136,30 +18136,30 @@
       <c r="F121" s="35">
         <v>6</v>
       </c>
-      <c r="G121" s="76"/>
-      <c r="H121" s="77"/>
-      <c r="I121" s="76"/>
-      <c r="J121" s="77"/>
-      <c r="K121" s="76"/>
-      <c r="L121" s="78"/>
-      <c r="M121" s="77"/>
-      <c r="N121" s="76"/>
-      <c r="O121" s="78"/>
-      <c r="P121" s="78"/>
-      <c r="Q121" s="77"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="53"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="53"/>
+      <c r="L121" s="55"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="53"/>
+      <c r="O121" s="55"/>
+      <c r="P121" s="55"/>
+      <c r="Q121" s="54"/>
       <c r="R121" s="27"/>
       <c r="S121" s="28"/>
-      <c r="T121" s="89"/>
-      <c r="U121" s="89"/>
-      <c r="V121" s="89"/>
-      <c r="W121" s="89"/>
-      <c r="X121" s="89"/>
-      <c r="Y121" s="89"/>
-      <c r="Z121" s="89"/>
-      <c r="AA121" s="89"/>
-      <c r="AB121" s="89"/>
-      <c r="AC121" s="89"/>
-      <c r="AD121" s="89"/>
+      <c r="T121" s="52"/>
+      <c r="U121" s="52"/>
+      <c r="V121" s="52"/>
+      <c r="W121" s="52"/>
+      <c r="X121" s="52"/>
+      <c r="Y121" s="52"/>
+      <c r="Z121" s="52"/>
+      <c r="AA121" s="52"/>
+      <c r="AB121" s="52"/>
+      <c r="AC121" s="52"/>
+      <c r="AD121" s="52"/>
       <c r="AE121" s="27"/>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.4">
@@ -18171,30 +18171,30 @@
       <c r="F122" s="35">
         <v>7</v>
       </c>
-      <c r="G122" s="76"/>
-      <c r="H122" s="77"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="77"/>
-      <c r="K122" s="76"/>
-      <c r="L122" s="78"/>
-      <c r="M122" s="77"/>
-      <c r="N122" s="76"/>
-      <c r="O122" s="78"/>
-      <c r="P122" s="78"/>
-      <c r="Q122" s="77"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="53"/>
+      <c r="L122" s="55"/>
+      <c r="M122" s="54"/>
+      <c r="N122" s="53"/>
+      <c r="O122" s="55"/>
+      <c r="P122" s="55"/>
+      <c r="Q122" s="54"/>
       <c r="R122" s="27"/>
       <c r="S122" s="36"/>
-      <c r="T122" s="89"/>
-      <c r="U122" s="89"/>
-      <c r="V122" s="89"/>
-      <c r="W122" s="89"/>
-      <c r="X122" s="89"/>
-      <c r="Y122" s="89"/>
-      <c r="Z122" s="89"/>
-      <c r="AA122" s="89"/>
-      <c r="AB122" s="89"/>
-      <c r="AC122" s="89"/>
-      <c r="AD122" s="89"/>
+      <c r="T122" s="52"/>
+      <c r="U122" s="52"/>
+      <c r="V122" s="52"/>
+      <c r="W122" s="52"/>
+      <c r="X122" s="52"/>
+      <c r="Y122" s="52"/>
+      <c r="Z122" s="52"/>
+      <c r="AA122" s="52"/>
+      <c r="AB122" s="52"/>
+      <c r="AC122" s="52"/>
+      <c r="AD122" s="52"/>
       <c r="AE122" s="27"/>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.4">
@@ -18206,30 +18206,30 @@
       <c r="F123" s="35">
         <v>8</v>
       </c>
-      <c r="G123" s="76"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="76"/>
-      <c r="J123" s="77"/>
-      <c r="K123" s="76"/>
-      <c r="L123" s="78"/>
-      <c r="M123" s="77"/>
-      <c r="N123" s="76"/>
-      <c r="O123" s="78"/>
-      <c r="P123" s="78"/>
-      <c r="Q123" s="77"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="53"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="53"/>
+      <c r="L123" s="55"/>
+      <c r="M123" s="54"/>
+      <c r="N123" s="53"/>
+      <c r="O123" s="55"/>
+      <c r="P123" s="55"/>
+      <c r="Q123" s="54"/>
       <c r="R123" s="27"/>
       <c r="S123" s="36"/>
-      <c r="T123" s="89"/>
-      <c r="U123" s="89"/>
-      <c r="V123" s="89"/>
-      <c r="W123" s="89"/>
-      <c r="X123" s="89"/>
-      <c r="Y123" s="89"/>
-      <c r="Z123" s="89"/>
-      <c r="AA123" s="89"/>
-      <c r="AB123" s="89"/>
-      <c r="AC123" s="89"/>
-      <c r="AD123" s="89"/>
+      <c r="T123" s="52"/>
+      <c r="U123" s="52"/>
+      <c r="V123" s="52"/>
+      <c r="W123" s="52"/>
+      <c r="X123" s="52"/>
+      <c r="Y123" s="52"/>
+      <c r="Z123" s="52"/>
+      <c r="AA123" s="52"/>
+      <c r="AB123" s="52"/>
+      <c r="AC123" s="52"/>
+      <c r="AD123" s="52"/>
       <c r="AE123" s="27"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.4">
@@ -18241,30 +18241,30 @@
       <c r="F124" s="35">
         <v>9</v>
       </c>
-      <c r="G124" s="76"/>
-      <c r="H124" s="77"/>
-      <c r="I124" s="76"/>
-      <c r="J124" s="77"/>
-      <c r="K124" s="76"/>
-      <c r="L124" s="78"/>
-      <c r="M124" s="77"/>
-      <c r="N124" s="76"/>
-      <c r="O124" s="78"/>
-      <c r="P124" s="78"/>
-      <c r="Q124" s="77"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="53"/>
+      <c r="L124" s="55"/>
+      <c r="M124" s="54"/>
+      <c r="N124" s="53"/>
+      <c r="O124" s="55"/>
+      <c r="P124" s="55"/>
+      <c r="Q124" s="54"/>
       <c r="R124" s="27"/>
       <c r="S124" s="36"/>
-      <c r="T124" s="89"/>
-      <c r="U124" s="89"/>
-      <c r="V124" s="89"/>
-      <c r="W124" s="89"/>
-      <c r="X124" s="89"/>
-      <c r="Y124" s="89"/>
-      <c r="Z124" s="89"/>
-      <c r="AA124" s="89"/>
-      <c r="AB124" s="89"/>
-      <c r="AC124" s="89"/>
-      <c r="AD124" s="89"/>
+      <c r="T124" s="52"/>
+      <c r="U124" s="52"/>
+      <c r="V124" s="52"/>
+      <c r="W124" s="52"/>
+      <c r="X124" s="52"/>
+      <c r="Y124" s="52"/>
+      <c r="Z124" s="52"/>
+      <c r="AA124" s="52"/>
+      <c r="AB124" s="52"/>
+      <c r="AC124" s="52"/>
+      <c r="AD124" s="52"/>
       <c r="AE124" s="27"/>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.4">
@@ -18276,213 +18276,114 @@
       <c r="F125" s="35">
         <v>10</v>
       </c>
-      <c r="G125" s="76"/>
-      <c r="H125" s="77"/>
-      <c r="I125" s="76"/>
-      <c r="J125" s="77"/>
-      <c r="K125" s="76"/>
-      <c r="L125" s="78"/>
-      <c r="M125" s="77"/>
-      <c r="N125" s="76"/>
-      <c r="O125" s="78"/>
-      <c r="P125" s="78"/>
-      <c r="Q125" s="77"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="53"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="53"/>
+      <c r="L125" s="55"/>
+      <c r="M125" s="54"/>
+      <c r="N125" s="53"/>
+      <c r="O125" s="55"/>
+      <c r="P125" s="55"/>
+      <c r="Q125" s="54"/>
       <c r="R125" s="27"/>
       <c r="S125" s="36"/>
-      <c r="T125" s="89"/>
-      <c r="U125" s="89"/>
-      <c r="V125" s="89"/>
-      <c r="W125" s="89"/>
-      <c r="X125" s="89"/>
-      <c r="Y125" s="89"/>
-      <c r="Z125" s="89"/>
-      <c r="AA125" s="89"/>
-      <c r="AB125" s="89"/>
-      <c r="AC125" s="89"/>
-      <c r="AD125" s="89"/>
+      <c r="T125" s="52"/>
+      <c r="U125" s="52"/>
+      <c r="V125" s="52"/>
+      <c r="W125" s="52"/>
+      <c r="X125" s="52"/>
+      <c r="Y125" s="52"/>
+      <c r="Z125" s="52"/>
+      <c r="AA125" s="52"/>
+      <c r="AB125" s="52"/>
+      <c r="AC125" s="52"/>
+      <c r="AD125" s="52"/>
       <c r="AE125" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="X124:Z124"/>
-    <mergeCell ref="AA124:AD124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="N125:Q125"/>
-    <mergeCell ref="T125:U125"/>
-    <mergeCell ref="V125:W125"/>
-    <mergeCell ref="X125:Z125"/>
-    <mergeCell ref="AA125:AD125"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="T124:U124"/>
-    <mergeCell ref="V124:W124"/>
-    <mergeCell ref="X122:Z122"/>
-    <mergeCell ref="AA122:AD122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="T123:U123"/>
-    <mergeCell ref="V123:W123"/>
-    <mergeCell ref="X123:Z123"/>
-    <mergeCell ref="AA123:AD123"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="T122:U122"/>
-    <mergeCell ref="V122:W122"/>
-    <mergeCell ref="X120:Z120"/>
-    <mergeCell ref="AA120:AD120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="N121:Q121"/>
-    <mergeCell ref="T121:U121"/>
-    <mergeCell ref="V121:W121"/>
-    <mergeCell ref="X121:Z121"/>
-    <mergeCell ref="AA121:AD121"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:Q120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X118:Z118"/>
-    <mergeCell ref="AA118:AD118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="N119:Q119"/>
-    <mergeCell ref="T119:U119"/>
-    <mergeCell ref="V119:W119"/>
-    <mergeCell ref="X119:Z119"/>
-    <mergeCell ref="AA119:AD119"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="V118:W118"/>
-    <mergeCell ref="F114:Q114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="N115:Q115"/>
-    <mergeCell ref="X116:Z116"/>
-    <mergeCell ref="AA116:AD116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="K117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="T117:U117"/>
-    <mergeCell ref="V117:W117"/>
-    <mergeCell ref="X117:Z117"/>
-    <mergeCell ref="AA117:AD117"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="N116:Q116"/>
-    <mergeCell ref="T116:U116"/>
-    <mergeCell ref="V116:W116"/>
-    <mergeCell ref="G88:Q88"/>
-    <mergeCell ref="T88:AD88"/>
-    <mergeCell ref="F89:Q89"/>
-    <mergeCell ref="F90:Q113"/>
-    <mergeCell ref="X84:Z84"/>
-    <mergeCell ref="AA84:AD84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="AA85:AD85"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="T113:U113"/>
-    <mergeCell ref="X82:Z82"/>
-    <mergeCell ref="AA82:AD82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="X83:Z83"/>
-    <mergeCell ref="AA83:AD83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="X80:Z80"/>
-    <mergeCell ref="AA80:AD80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Z81"/>
-    <mergeCell ref="AA81:AD81"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="X78:Z78"/>
-    <mergeCell ref="AA78:AD78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Z79"/>
-    <mergeCell ref="AA79:AD79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="AA76:AD76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Z77"/>
-    <mergeCell ref="AA77:AD77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="F74:Q74"/>
-    <mergeCell ref="S74:AD74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="X75:Z75"/>
-    <mergeCell ref="AA75:AD75"/>
+    <mergeCell ref="G8:Q8"/>
+    <mergeCell ref="T8:AD8"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="S9:AD9"/>
+    <mergeCell ref="F10:Q33"/>
+    <mergeCell ref="S10:AD33"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="S34:AD34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AD41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AD42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
     <mergeCell ref="G48:Q48"/>
     <mergeCell ref="T48:AD48"/>
     <mergeCell ref="F49:Q49"/>
@@ -18505,86 +18406,185 @@
     <mergeCell ref="N44:Q44"/>
     <mergeCell ref="T44:U44"/>
     <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="G8:Q8"/>
-    <mergeCell ref="T8:AD8"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="S9:AD9"/>
-    <mergeCell ref="F10:Q33"/>
-    <mergeCell ref="S10:AD33"/>
-    <mergeCell ref="F34:Q34"/>
-    <mergeCell ref="S34:AD34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="F74:Q74"/>
+    <mergeCell ref="S74:AD74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Z75"/>
+    <mergeCell ref="AA75:AD75"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AD76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Z77"/>
+    <mergeCell ref="AA77:AD77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="X78:Z78"/>
+    <mergeCell ref="AA78:AD78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Z79"/>
+    <mergeCell ref="AA79:AD79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X80:Z80"/>
+    <mergeCell ref="AA80:AD80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Z81"/>
+    <mergeCell ref="AA81:AD81"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X82:Z82"/>
+    <mergeCell ref="AA82:AD82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="X83:Z83"/>
+    <mergeCell ref="AA83:AD83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="G88:Q88"/>
+    <mergeCell ref="T88:AD88"/>
+    <mergeCell ref="F89:Q89"/>
+    <mergeCell ref="F90:Q113"/>
+    <mergeCell ref="X84:Z84"/>
+    <mergeCell ref="AA84:AD84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="AA85:AD85"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="T113:U113"/>
+    <mergeCell ref="F114:Q114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="N115:Q115"/>
+    <mergeCell ref="X116:Z116"/>
+    <mergeCell ref="AA116:AD116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="T117:U117"/>
+    <mergeCell ref="V117:W117"/>
+    <mergeCell ref="X117:Z117"/>
+    <mergeCell ref="AA117:AD117"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="N116:Q116"/>
+    <mergeCell ref="T116:U116"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="X118:Z118"/>
+    <mergeCell ref="AA118:AD118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="T119:U119"/>
+    <mergeCell ref="V119:W119"/>
+    <mergeCell ref="X119:Z119"/>
+    <mergeCell ref="AA119:AD119"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="V118:W118"/>
+    <mergeCell ref="X120:Z120"/>
+    <mergeCell ref="AA120:AD120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="N121:Q121"/>
+    <mergeCell ref="T121:U121"/>
+    <mergeCell ref="V121:W121"/>
+    <mergeCell ref="X121:Z121"/>
+    <mergeCell ref="AA121:AD121"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:Q120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X122:Z122"/>
+    <mergeCell ref="AA122:AD122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="T123:U123"/>
+    <mergeCell ref="V123:W123"/>
+    <mergeCell ref="X123:Z123"/>
+    <mergeCell ref="AA123:AD123"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="T122:U122"/>
+    <mergeCell ref="V122:W122"/>
+    <mergeCell ref="X124:Z124"/>
+    <mergeCell ref="AA124:AD124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="N125:Q125"/>
+    <mergeCell ref="T125:U125"/>
+    <mergeCell ref="V125:W125"/>
+    <mergeCell ref="X125:Z125"/>
+    <mergeCell ref="AA125:AD125"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="T124:U124"/>
+    <mergeCell ref="V124:W124"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>仕様書項目</t>
     <rPh sb="0" eb="3">
@@ -606,6 +606,20 @@
     <t>リザルトと回収率</t>
     <rPh sb="5" eb="8">
       <t>カイシュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1193,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,36 +1364,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1387,9 +1371,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1419,6 +1400,51 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1446,23 +1472,17 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4026,164 +4046,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>212911</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4370295" y="12012705"/>
-          <a:ext cx="8897470" cy="5658972"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4560794" y="12371294"/>
-          <a:ext cx="1322294" cy="437029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>体力ゲージ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>448236</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12348883" y="16797617"/>
-          <a:ext cx="571500" cy="515471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-            <a:t>UI</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -4203,7 +4065,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5045,7 +4907,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5089,7 +4951,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5133,7 +4995,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5177,7 +5039,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5221,7 +5083,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5265,7 +5127,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5352,6 +5214,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>25493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="12035118"/>
+          <a:ext cx="8875059" cy="5673257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13868,8 +13774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50:AD73"/>
+    <sheetView tabSelected="1" topLeftCell="D79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W97" sqref="W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14168,36 +14074,36 @@
       <c r="F8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="64"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
       <c r="R8" s="27"/>
       <c r="S8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="62" t="s">
+      <c r="T8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="64"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
       <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
@@ -14208,35 +14114,35 @@
         <v>84</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="64"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="62" t="s">
+      <c r="S9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="64"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="54"/>
       <c r="AE9" s="27"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
@@ -14247,35 +14153,35 @@
         <v>39</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57"/>
       <c r="R10" s="27"/>
-      <c r="S10" s="85" t="s">
+      <c r="S10" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
       <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
@@ -14286,31 +14192,31 @@
         <v>51</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="71"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
       <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
@@ -14319,31 +14225,31 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="71"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
       <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
@@ -14352,31 +14258,31 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="27"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
       <c r="AE13" s="27"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
@@ -14384,31 +14290,31 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
       <c r="AE14" s="27"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
@@ -14417,31 +14323,31 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="27"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
       <c r="AE15" s="27"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.4">
@@ -14450,31 +14356,31 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
       <c r="AE16" s="27"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.4">
@@ -14483,31 +14389,31 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="71"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
       <c r="AE17" s="27"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.4">
@@ -14516,31 +14422,31 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="71"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
       <c r="AE18" s="27"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.4">
@@ -14549,31 +14455,31 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="71"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.4">
@@ -14582,31 +14488,31 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="71"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.4">
@@ -14615,31 +14521,31 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="71"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.4">
@@ -14648,31 +14554,31 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="27"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
       <c r="AE22" s="27"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.4">
@@ -14681,31 +14587,31 @@
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="71"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="27"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
       <c r="AE23" s="27"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.4">
@@ -14714,31 +14620,31 @@
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="71"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="27"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="86"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
       <c r="AE24" s="27"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.4">
@@ -14747,31 +14653,31 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="27"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
       <c r="AE25" s="27"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.4">
@@ -14780,31 +14686,31 @@
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="71"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="60"/>
       <c r="R26" s="27"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
       <c r="AE26" s="27"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.4">
@@ -14813,31 +14719,31 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="71"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="60"/>
       <c r="R27" s="27"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="86"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
       <c r="AE27" s="27"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.4">
@@ -14846,31 +14752,31 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="60"/>
       <c r="R28" s="27"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
       <c r="AE28" s="27"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.4">
@@ -14879,31 +14785,31 @@
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="71"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="60"/>
       <c r="R29" s="27"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
       <c r="AE29" s="27"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.4">
@@ -14912,31 +14818,31 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="60"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="86"/>
-      <c r="AA30" s="86"/>
-      <c r="AB30" s="86"/>
-      <c r="AC30" s="86"/>
-      <c r="AD30" s="86"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
       <c r="AE30" s="27"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.4">
@@ -14945,31 +14851,31 @@
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="71"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="27"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86"/>
-      <c r="AC31" s="86"/>
-      <c r="AD31" s="86"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
       <c r="AE31" s="27"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.4">
@@ -14978,31 +14884,31 @@
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="71"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="27"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="86"/>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="86"/>
-      <c r="AC32" s="86"/>
-      <c r="AD32" s="86"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
       <c r="AE32" s="27"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.4">
@@ -15011,31 +14917,31 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="74"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="63"/>
       <c r="R33" s="27"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="86"/>
-      <c r="AC33" s="86"/>
-      <c r="AD33" s="86"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
       <c r="AE33" s="27"/>
     </row>
     <row r="34" spans="1:31" ht="58.5" x14ac:dyDescent="0.4">
@@ -15044,35 +14950,35 @@
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="58"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="68"/>
       <c r="R34" s="27"/>
-      <c r="S34" s="87" t="s">
+      <c r="S34" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="88"/>
-      <c r="AC34" s="88"/>
-      <c r="AD34" s="88"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
       <c r="AE34" s="27"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.4">
@@ -15084,44 +14990,44 @@
       <c r="F35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="59" t="s">
+      <c r="G35" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="59" t="s">
+      <c r="H35" s="72"/>
+      <c r="I35" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="60"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="59" t="s">
+      <c r="J35" s="72"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="60"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="72"/>
       <c r="R35" s="27"/>
       <c r="S35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="T35" s="89" t="s">
+      <c r="T35" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89" t="s">
+      <c r="U35" s="74"/>
+      <c r="V35" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="89" t="s">
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="AB35" s="89"/>
-      <c r="AC35" s="89"/>
-      <c r="AD35" s="89"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
       <c r="AE35" s="27"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.4">
@@ -15133,44 +15039,44 @@
       <c r="F36" s="35">
         <v>1</v>
       </c>
-      <c r="G36" s="53" t="s">
+      <c r="G36" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="53" t="s">
+      <c r="H36" s="77"/>
+      <c r="I36" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="53" t="s">
+      <c r="J36" s="77"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="54"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="77"/>
       <c r="R36" s="27"/>
       <c r="S36" s="35">
         <v>1</v>
       </c>
-      <c r="T36" s="84" t="s">
+      <c r="T36" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84" t="s">
+      <c r="U36" s="75"/>
+      <c r="V36" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84" t="s">
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="AB36" s="84"/>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="84"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
       <c r="AE36" s="27"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.4">
@@ -15182,40 +15088,40 @@
       <c r="F37" s="35">
         <v>2</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="53" t="s">
+      <c r="H37" s="77"/>
+      <c r="I37" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="53" t="s">
+      <c r="J37" s="77"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="54"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="77"/>
       <c r="R37" s="27"/>
       <c r="S37" s="35">
         <v>2</v>
       </c>
-      <c r="T37" s="84" t="s">
+      <c r="T37" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="84"/>
-      <c r="AD37" s="84"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="75"/>
+      <c r="AD37" s="75"/>
       <c r="AE37" s="27"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.4">
@@ -15227,40 +15133,40 @@
       <c r="F38" s="35">
         <v>3</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="53" t="s">
+      <c r="H38" s="77"/>
+      <c r="I38" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="54"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="53" t="s">
+      <c r="J38" s="77"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="54"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="77"/>
       <c r="R38" s="27"/>
       <c r="S38" s="35">
         <v>3</v>
       </c>
-      <c r="T38" s="84" t="s">
+      <c r="T38" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="U38" s="84"/>
-      <c r="V38" s="84"/>
-      <c r="W38" s="84"/>
-      <c r="X38" s="84"/>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="84"/>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
-      <c r="AC38" s="84"/>
-      <c r="AD38" s="84"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="75"/>
+      <c r="AD38" s="75"/>
       <c r="AE38" s="27"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.4">
@@ -15272,36 +15178,36 @@
       <c r="F39" s="35">
         <v>4</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="54"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="77"/>
       <c r="R39" s="27"/>
       <c r="S39" s="35">
         <v>4</v>
       </c>
-      <c r="T39" s="84" t="s">
+      <c r="T39" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="U39" s="84"/>
-      <c r="V39" s="84"/>
-      <c r="W39" s="84"/>
-      <c r="X39" s="84"/>
-      <c r="Y39" s="84"/>
-      <c r="Z39" s="84"/>
-      <c r="AA39" s="84"/>
-      <c r="AB39" s="84"/>
-      <c r="AC39" s="84"/>
-      <c r="AD39" s="84"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="75"/>
+      <c r="Y39" s="75"/>
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75"/>
+      <c r="AD39" s="75"/>
       <c r="AE39" s="27"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.4">
@@ -15313,36 +15219,36 @@
       <c r="F40" s="35">
         <v>5</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="54"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="77"/>
       <c r="R40" s="27"/>
       <c r="S40" s="35">
         <v>5</v>
       </c>
-      <c r="T40" s="84" t="s">
+      <c r="T40" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="U40" s="84"/>
-      <c r="V40" s="84"/>
-      <c r="W40" s="84"/>
-      <c r="X40" s="84"/>
-      <c r="Y40" s="84"/>
-      <c r="Z40" s="84"/>
-      <c r="AA40" s="84" t="s">
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="AB40" s="84"/>
-      <c r="AC40" s="84"/>
-      <c r="AD40" s="84"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="75"/>
+      <c r="AD40" s="75"/>
       <c r="AE40" s="27"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.4">
@@ -15354,32 +15260,32 @@
       <c r="F41" s="35">
         <v>6</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="54"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="77"/>
       <c r="R41" s="27"/>
       <c r="S41" s="35">
         <v>6</v>
       </c>
-      <c r="T41" s="84"/>
-      <c r="U41" s="84"/>
-      <c r="V41" s="84"/>
-      <c r="W41" s="84"/>
-      <c r="X41" s="84"/>
-      <c r="Y41" s="84"/>
-      <c r="Z41" s="84"/>
-      <c r="AA41" s="84"/>
-      <c r="AB41" s="84"/>
-      <c r="AC41" s="84"/>
-      <c r="AD41" s="84"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="75"/>
+      <c r="Z41" s="75"/>
+      <c r="AA41" s="75"/>
+      <c r="AB41" s="75"/>
+      <c r="AC41" s="75"/>
+      <c r="AD41" s="75"/>
       <c r="AE41" s="27"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.4">
@@ -15391,32 +15297,32 @@
       <c r="F42" s="35">
         <v>7</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="54"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="77"/>
       <c r="R42" s="27"/>
       <c r="S42" s="35">
         <v>7</v>
       </c>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="84"/>
-      <c r="W42" s="84"/>
-      <c r="X42" s="84"/>
-      <c r="Y42" s="84"/>
-      <c r="Z42" s="84"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="84"/>
-      <c r="AC42" s="84"/>
-      <c r="AD42" s="84"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="75"/>
+      <c r="X42" s="75"/>
+      <c r="Y42" s="75"/>
+      <c r="Z42" s="75"/>
+      <c r="AA42" s="75"/>
+      <c r="AB42" s="75"/>
+      <c r="AC42" s="75"/>
+      <c r="AD42" s="75"/>
       <c r="AE42" s="27"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.4">
@@ -15428,32 +15334,32 @@
       <c r="F43" s="35">
         <v>8</v>
       </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="54"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="77"/>
       <c r="R43" s="27"/>
       <c r="S43" s="35">
         <v>8</v>
       </c>
-      <c r="T43" s="84"/>
-      <c r="U43" s="84"/>
-      <c r="V43" s="84"/>
-      <c r="W43" s="84"/>
-      <c r="X43" s="84"/>
-      <c r="Y43" s="84"/>
-      <c r="Z43" s="84"/>
-      <c r="AA43" s="84"/>
-      <c r="AB43" s="84"/>
-      <c r="AC43" s="84"/>
-      <c r="AD43" s="84"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="75"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="75"/>
+      <c r="Y43" s="75"/>
+      <c r="Z43" s="75"/>
+      <c r="AA43" s="75"/>
+      <c r="AB43" s="75"/>
+      <c r="AC43" s="75"/>
+      <c r="AD43" s="75"/>
       <c r="AE43" s="27"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.4">
@@ -15465,32 +15371,32 @@
       <c r="F44" s="35">
         <v>9</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="54"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="77"/>
       <c r="R44" s="27"/>
       <c r="S44" s="35">
         <v>9</v>
       </c>
-      <c r="T44" s="84"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="84"/>
-      <c r="W44" s="84"/>
-      <c r="X44" s="84"/>
-      <c r="Y44" s="84"/>
-      <c r="Z44" s="84"/>
-      <c r="AA44" s="84"/>
-      <c r="AB44" s="84"/>
-      <c r="AC44" s="84"/>
-      <c r="AD44" s="84"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="75"/>
+      <c r="AA44" s="75"/>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="75"/>
+      <c r="AD44" s="75"/>
       <c r="AE44" s="27"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.4">
@@ -15502,32 +15408,32 @@
       <c r="F45" s="35">
         <v>10</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="54"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="77"/>
       <c r="R45" s="27"/>
       <c r="S45" s="35">
         <v>10</v>
       </c>
-      <c r="T45" s="84"/>
-      <c r="U45" s="84"/>
-      <c r="V45" s="84"/>
-      <c r="W45" s="84"/>
-      <c r="X45" s="84"/>
-      <c r="Y45" s="84"/>
-      <c r="Z45" s="84"/>
-      <c r="AA45" s="84"/>
-      <c r="AB45" s="84"/>
-      <c r="AC45" s="84"/>
-      <c r="AD45" s="84"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
+      <c r="AA45" s="75"/>
+      <c r="AB45" s="75"/>
+      <c r="AC45" s="75"/>
+      <c r="AD45" s="75"/>
       <c r="AE45" s="27"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.4">
@@ -15605,36 +15511,36 @@
       <c r="F48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="62" t="s">
+      <c r="G48" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="64"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="54"/>
       <c r="R48" s="27"/>
       <c r="S48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="T48" s="62" t="s">
+      <c r="T48" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="U48" s="63"/>
-      <c r="V48" s="63"/>
-      <c r="W48" s="63"/>
-      <c r="X48" s="63"/>
-      <c r="Y48" s="63"/>
-      <c r="Z48" s="63"/>
-      <c r="AA48" s="63"/>
-      <c r="AB48" s="63"/>
-      <c r="AC48" s="63"/>
-      <c r="AD48" s="64"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="54"/>
       <c r="AE48" s="27"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.4">
@@ -15643,35 +15549,35 @@
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
-      <c r="F49" s="62" t="s">
+      <c r="F49" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="64"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="54"/>
       <c r="R49" s="27"/>
-      <c r="S49" s="62" t="s">
+      <c r="S49" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="T49" s="63"/>
-      <c r="U49" s="63"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="63"/>
-      <c r="Y49" s="63"/>
-      <c r="Z49" s="63"/>
-      <c r="AA49" s="63"/>
-      <c r="AB49" s="63"/>
-      <c r="AC49" s="63"/>
-      <c r="AD49" s="64"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="54"/>
       <c r="AE49" s="27"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.4">
@@ -15680,31 +15586,31 @@
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="77"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="81"/>
       <c r="R50" s="27"/>
-      <c r="S50" s="66"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="67"/>
-      <c r="Z50" s="67"/>
-      <c r="AA50" s="67"/>
-      <c r="AB50" s="67"/>
-      <c r="AC50" s="67"/>
-      <c r="AD50" s="68"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="57"/>
       <c r="AE50" s="27"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.4">
@@ -15713,31 +15619,31 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="80"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="84"/>
       <c r="R51" s="27"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="70"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="70"/>
-      <c r="Y51" s="70"/>
-      <c r="Z51" s="70"/>
-      <c r="AA51" s="70"/>
-      <c r="AB51" s="70"/>
-      <c r="AC51" s="70"/>
-      <c r="AD51" s="71"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="59"/>
+      <c r="AC51" s="59"/>
+      <c r="AD51" s="60"/>
       <c r="AE51" s="27"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.4">
@@ -15746,31 +15652,31 @@
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="80"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="84"/>
       <c r="R52" s="27"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
-      <c r="Y52" s="70"/>
-      <c r="Z52" s="70"/>
-      <c r="AA52" s="70"/>
-      <c r="AB52" s="70"/>
-      <c r="AC52" s="70"/>
-      <c r="AD52" s="71"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="59"/>
+      <c r="AD52" s="60"/>
       <c r="AE52" s="27"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.4">
@@ -15779,31 +15685,31 @@
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="80"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="84"/>
       <c r="R53" s="27"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="70"/>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="71"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="59"/>
+      <c r="AC53" s="59"/>
+      <c r="AD53" s="60"/>
       <c r="AE53" s="27"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.4">
@@ -15812,31 +15718,31 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="80"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="84"/>
       <c r="R54" s="27"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="71"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59"/>
+      <c r="AC54" s="59"/>
+      <c r="AD54" s="60"/>
       <c r="AE54" s="27"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.4">
@@ -15845,31 +15751,31 @@
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="80"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="84"/>
       <c r="R55" s="27"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="70"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="70"/>
-      <c r="AB55" s="70"/>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="71"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="59"/>
+      <c r="AD55" s="60"/>
       <c r="AE55" s="27"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.4">
@@ -15878,31 +15784,31 @@
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="80"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="84"/>
       <c r="R56" s="27"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="70"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
-      <c r="Y56" s="70"/>
-      <c r="Z56" s="70"/>
-      <c r="AA56" s="70"/>
-      <c r="AB56" s="70"/>
-      <c r="AC56" s="70"/>
-      <c r="AD56" s="71"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="60"/>
       <c r="AE56" s="27"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.4">
@@ -15911,31 +15817,31 @@
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="80"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="84"/>
       <c r="R57" s="27"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="70"/>
-      <c r="U57" s="70"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="70"/>
-      <c r="AB57" s="70"/>
-      <c r="AC57" s="70"/>
-      <c r="AD57" s="71"/>
+      <c r="S57" s="58"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="59"/>
+      <c r="AC57" s="59"/>
+      <c r="AD57" s="60"/>
       <c r="AE57" s="27"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.4">
@@ -15944,31 +15850,31 @@
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="80"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="84"/>
       <c r="R58" s="27"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="71"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="59"/>
+      <c r="AA58" s="59"/>
+      <c r="AB58" s="59"/>
+      <c r="AC58" s="59"/>
+      <c r="AD58" s="60"/>
       <c r="AE58" s="27"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.4">
@@ -15977,31 +15883,31 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="80"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="84"/>
       <c r="R59" s="27"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="70"/>
-      <c r="U59" s="70"/>
-      <c r="V59" s="70"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="70"/>
-      <c r="Y59" s="70"/>
-      <c r="Z59" s="70"/>
-      <c r="AA59" s="70"/>
-      <c r="AB59" s="70"/>
-      <c r="AC59" s="70"/>
-      <c r="AD59" s="71"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="60"/>
       <c r="AE59" s="27"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.4">
@@ -16010,31 +15916,31 @@
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
-      <c r="Q60" s="80"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="83"/>
+      <c r="Q60" s="84"/>
       <c r="R60" s="27"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="70"/>
-      <c r="U60" s="70"/>
-      <c r="V60" s="70"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
-      <c r="Y60" s="70"/>
-      <c r="Z60" s="70"/>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="71"/>
+      <c r="S60" s="58"/>
+      <c r="T60" s="59"/>
+      <c r="U60" s="59"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
+      <c r="X60" s="59"/>
+      <c r="Y60" s="59"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="59"/>
+      <c r="AB60" s="59"/>
+      <c r="AC60" s="59"/>
+      <c r="AD60" s="60"/>
       <c r="AE60" s="27"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.4">
@@ -16043,31 +15949,31 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="80"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="84"/>
       <c r="R61" s="27"/>
-      <c r="S61" s="69"/>
-      <c r="T61" s="70"/>
-      <c r="U61" s="70"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="70"/>
-      <c r="Z61" s="70"/>
-      <c r="AA61" s="70"/>
-      <c r="AB61" s="70"/>
-      <c r="AC61" s="70"/>
-      <c r="AD61" s="71"/>
+      <c r="S61" s="58"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="59"/>
+      <c r="AD61" s="60"/>
       <c r="AE61" s="27"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.4">
@@ -16076,31 +15982,31 @@
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="79"/>
-      <c r="Q62" s="80"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="84"/>
       <c r="R62" s="27"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="70"/>
-      <c r="U62" s="70"/>
-      <c r="V62" s="70"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="70"/>
-      <c r="Y62" s="70"/>
-      <c r="Z62" s="70"/>
-      <c r="AA62" s="70"/>
-      <c r="AB62" s="70"/>
-      <c r="AC62" s="70"/>
-      <c r="AD62" s="71"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="59"/>
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
+      <c r="Z62" s="59"/>
+      <c r="AA62" s="59"/>
+      <c r="AB62" s="59"/>
+      <c r="AC62" s="59"/>
+      <c r="AD62" s="60"/>
       <c r="AE62" s="27"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.4">
@@ -16109,31 +16015,31 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="80"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="84"/>
       <c r="R63" s="27"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="70"/>
-      <c r="U63" s="70"/>
-      <c r="V63" s="70"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="70"/>
-      <c r="Y63" s="70"/>
-      <c r="Z63" s="70"/>
-      <c r="AA63" s="70"/>
-      <c r="AB63" s="70"/>
-      <c r="AC63" s="70"/>
-      <c r="AD63" s="71"/>
+      <c r="S63" s="58"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="59"/>
+      <c r="AC63" s="59"/>
+      <c r="AD63" s="60"/>
       <c r="AE63" s="27"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.4">
@@ -16142,31 +16048,31 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
-      <c r="O64" s="79"/>
-      <c r="P64" s="79"/>
-      <c r="Q64" s="80"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="83"/>
+      <c r="Q64" s="84"/>
       <c r="R64" s="27"/>
-      <c r="S64" s="69"/>
-      <c r="T64" s="70"/>
-      <c r="U64" s="70"/>
-      <c r="V64" s="70"/>
-      <c r="W64" s="70"/>
-      <c r="X64" s="70"/>
-      <c r="Y64" s="70"/>
-      <c r="Z64" s="70"/>
-      <c r="AA64" s="70"/>
-      <c r="AB64" s="70"/>
-      <c r="AC64" s="70"/>
-      <c r="AD64" s="71"/>
+      <c r="S64" s="58"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59"/>
+      <c r="AA64" s="59"/>
+      <c r="AB64" s="59"/>
+      <c r="AC64" s="59"/>
+      <c r="AD64" s="60"/>
       <c r="AE64" s="27"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
@@ -16175,31 +16081,31 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79"/>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="80"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="83"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="83"/>
+      <c r="P65" s="83"/>
+      <c r="Q65" s="84"/>
       <c r="R65" s="27"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="70"/>
-      <c r="U65" s="70"/>
-      <c r="V65" s="70"/>
-      <c r="W65" s="70"/>
-      <c r="X65" s="70"/>
-      <c r="Y65" s="70"/>
-      <c r="Z65" s="70"/>
-      <c r="AA65" s="70"/>
-      <c r="AB65" s="70"/>
-      <c r="AC65" s="70"/>
-      <c r="AD65" s="71"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="59"/>
+      <c r="AB65" s="59"/>
+      <c r="AC65" s="59"/>
+      <c r="AD65" s="60"/>
       <c r="AE65" s="27"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
@@ -16208,31 +16114,31 @@
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="79"/>
-      <c r="P66" s="79"/>
-      <c r="Q66" s="80"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="84"/>
       <c r="R66" s="27"/>
-      <c r="S66" s="69"/>
-      <c r="T66" s="70"/>
-      <c r="U66" s="70"/>
-      <c r="V66" s="70"/>
-      <c r="W66" s="70"/>
-      <c r="X66" s="70"/>
-      <c r="Y66" s="70"/>
-      <c r="Z66" s="70"/>
-      <c r="AA66" s="70"/>
-      <c r="AB66" s="70"/>
-      <c r="AC66" s="70"/>
-      <c r="AD66" s="71"/>
+      <c r="S66" s="58"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="59"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="59"/>
+      <c r="AB66" s="59"/>
+      <c r="AC66" s="59"/>
+      <c r="AD66" s="60"/>
       <c r="AE66" s="27"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.4">
@@ -16241,31 +16147,31 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="80"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="84"/>
       <c r="R67" s="27"/>
-      <c r="S67" s="69"/>
-      <c r="T67" s="70"/>
-      <c r="U67" s="70"/>
-      <c r="V67" s="70"/>
-      <c r="W67" s="70"/>
-      <c r="X67" s="70"/>
-      <c r="Y67" s="70"/>
-      <c r="Z67" s="70"/>
-      <c r="AA67" s="70"/>
-      <c r="AB67" s="70"/>
-      <c r="AC67" s="70"/>
-      <c r="AD67" s="71"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="59"/>
+      <c r="W67" s="59"/>
+      <c r="X67" s="59"/>
+      <c r="Y67" s="59"/>
+      <c r="Z67" s="59"/>
+      <c r="AA67" s="59"/>
+      <c r="AB67" s="59"/>
+      <c r="AC67" s="59"/>
+      <c r="AD67" s="60"/>
       <c r="AE67" s="27"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.4">
@@ -16274,31 +16180,31 @@
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="79"/>
-      <c r="P68" s="79"/>
-      <c r="Q68" s="80"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="84"/>
       <c r="R68" s="27"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="70"/>
-      <c r="U68" s="70"/>
-      <c r="V68" s="70"/>
-      <c r="W68" s="70"/>
-      <c r="X68" s="70"/>
-      <c r="Y68" s="70"/>
-      <c r="Z68" s="70"/>
-      <c r="AA68" s="70"/>
-      <c r="AB68" s="70"/>
-      <c r="AC68" s="70"/>
-      <c r="AD68" s="71"/>
+      <c r="S68" s="58"/>
+      <c r="T68" s="59"/>
+      <c r="U68" s="59"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="59"/>
+      <c r="X68" s="59"/>
+      <c r="Y68" s="59"/>
+      <c r="Z68" s="59"/>
+      <c r="AA68" s="59"/>
+      <c r="AB68" s="59"/>
+      <c r="AC68" s="59"/>
+      <c r="AD68" s="60"/>
       <c r="AE68" s="27"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.4">
@@ -16307,31 +16213,31 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="80"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="84"/>
       <c r="R69" s="27"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="70"/>
-      <c r="V69" s="70"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="70"/>
-      <c r="Y69" s="70"/>
-      <c r="Z69" s="70"/>
-      <c r="AA69" s="70"/>
-      <c r="AB69" s="70"/>
-      <c r="AC69" s="70"/>
-      <c r="AD69" s="71"/>
+      <c r="S69" s="58"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="59"/>
+      <c r="AB69" s="59"/>
+      <c r="AC69" s="59"/>
+      <c r="AD69" s="60"/>
       <c r="AE69" s="27"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
@@ -16340,31 +16246,31 @@
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="80"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
+      <c r="K70" s="83"/>
+      <c r="L70" s="83"/>
+      <c r="M70" s="83"/>
+      <c r="N70" s="83"/>
+      <c r="O70" s="83"/>
+      <c r="P70" s="83"/>
+      <c r="Q70" s="84"/>
       <c r="R70" s="27"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="70"/>
-      <c r="U70" s="70"/>
-      <c r="V70" s="70"/>
-      <c r="W70" s="70"/>
-      <c r="X70" s="70"/>
-      <c r="Y70" s="70"/>
-      <c r="Z70" s="70"/>
-      <c r="AA70" s="70"/>
-      <c r="AB70" s="70"/>
-      <c r="AC70" s="70"/>
-      <c r="AD70" s="71"/>
+      <c r="S70" s="58"/>
+      <c r="T70" s="59"/>
+      <c r="U70" s="59"/>
+      <c r="V70" s="59"/>
+      <c r="W70" s="59"/>
+      <c r="X70" s="59"/>
+      <c r="Y70" s="59"/>
+      <c r="Z70" s="59"/>
+      <c r="AA70" s="59"/>
+      <c r="AB70" s="59"/>
+      <c r="AC70" s="59"/>
+      <c r="AD70" s="60"/>
       <c r="AE70" s="27"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
@@ -16373,31 +16279,31 @@
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="80"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="84"/>
       <c r="R71" s="27"/>
-      <c r="S71" s="69"/>
-      <c r="T71" s="70"/>
-      <c r="U71" s="70"/>
-      <c r="V71" s="70"/>
-      <c r="W71" s="70"/>
-      <c r="X71" s="70"/>
-      <c r="Y71" s="70"/>
-      <c r="Z71" s="70"/>
-      <c r="AA71" s="70"/>
-      <c r="AB71" s="70"/>
-      <c r="AC71" s="70"/>
-      <c r="AD71" s="71"/>
+      <c r="S71" s="58"/>
+      <c r="T71" s="59"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="59"/>
+      <c r="X71" s="59"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="59"/>
+      <c r="AA71" s="59"/>
+      <c r="AB71" s="59"/>
+      <c r="AC71" s="59"/>
+      <c r="AD71" s="60"/>
       <c r="AE71" s="27"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
@@ -16406,31 +16312,31 @@
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="80"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
+      <c r="K72" s="83"/>
+      <c r="L72" s="83"/>
+      <c r="M72" s="83"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="83"/>
+      <c r="P72" s="83"/>
+      <c r="Q72" s="84"/>
       <c r="R72" s="27"/>
-      <c r="S72" s="69"/>
-      <c r="T72" s="70"/>
-      <c r="U72" s="70"/>
-      <c r="V72" s="70"/>
-      <c r="W72" s="70"/>
-      <c r="X72" s="70"/>
-      <c r="Y72" s="70"/>
-      <c r="Z72" s="70"/>
-      <c r="AA72" s="70"/>
-      <c r="AB72" s="70"/>
-      <c r="AC72" s="70"/>
-      <c r="AD72" s="71"/>
+      <c r="S72" s="58"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="60"/>
       <c r="AE72" s="27"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
@@ -16439,31 +16345,31 @@
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="82"/>
-      <c r="N73" s="82"/>
-      <c r="O73" s="82"/>
-      <c r="P73" s="82"/>
-      <c r="Q73" s="83"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="86"/>
+      <c r="K73" s="86"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="86"/>
+      <c r="N73" s="86"/>
+      <c r="O73" s="86"/>
+      <c r="P73" s="86"/>
+      <c r="Q73" s="87"/>
       <c r="R73" s="27"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="73"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="73"/>
-      <c r="W73" s="73"/>
-      <c r="X73" s="73"/>
-      <c r="Y73" s="73"/>
-      <c r="Z73" s="73"/>
-      <c r="AA73" s="73"/>
-      <c r="AB73" s="73"/>
-      <c r="AC73" s="73"/>
-      <c r="AD73" s="74"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="62"/>
+      <c r="U73" s="62"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
+      <c r="AD73" s="63"/>
       <c r="AE73" s="27"/>
     </row>
     <row r="74" spans="1:31" ht="58.5" x14ac:dyDescent="0.4">
@@ -16472,35 +16378,35 @@
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
-      <c r="F74" s="56" t="s">
+      <c r="F74" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="57"/>
-      <c r="P74" s="57"/>
-      <c r="Q74" s="58"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="67"/>
+      <c r="P74" s="67"/>
+      <c r="Q74" s="68"/>
       <c r="R74" s="27"/>
-      <c r="S74" s="56" t="s">
+      <c r="S74" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="57"/>
-      <c r="U74" s="57"/>
-      <c r="V74" s="57"/>
-      <c r="W74" s="57"/>
-      <c r="X74" s="57"/>
-      <c r="Y74" s="57"/>
-      <c r="Z74" s="57"/>
-      <c r="AA74" s="57"/>
-      <c r="AB74" s="57"/>
-      <c r="AC74" s="57"/>
-      <c r="AD74" s="58"/>
+      <c r="T74" s="67"/>
+      <c r="U74" s="67"/>
+      <c r="V74" s="67"/>
+      <c r="W74" s="67"/>
+      <c r="X74" s="67"/>
+      <c r="Y74" s="67"/>
+      <c r="Z74" s="67"/>
+      <c r="AA74" s="67"/>
+      <c r="AB74" s="67"/>
+      <c r="AC74" s="67"/>
+      <c r="AD74" s="68"/>
       <c r="AE74" s="27"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.4">
@@ -16512,44 +16418,44 @@
       <c r="F75" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G75" s="59" t="s">
+      <c r="G75" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H75" s="60"/>
-      <c r="I75" s="59" t="s">
+      <c r="H75" s="72"/>
+      <c r="I75" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J75" s="60"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="59" t="s">
+      <c r="J75" s="72"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="60"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="72"/>
       <c r="R75" s="27"/>
       <c r="S75" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="T75" s="59" t="s">
+      <c r="T75" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="U75" s="60"/>
-      <c r="V75" s="59" t="s">
+      <c r="U75" s="72"/>
+      <c r="V75" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="W75" s="60"/>
-      <c r="X75" s="59"/>
-      <c r="Y75" s="61"/>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="59" t="s">
+      <c r="W75" s="72"/>
+      <c r="X75" s="71"/>
+      <c r="Y75" s="73"/>
+      <c r="Z75" s="72"/>
+      <c r="AA75" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB75" s="61"/>
-      <c r="AC75" s="61"/>
-      <c r="AD75" s="60"/>
+      <c r="AB75" s="73"/>
+      <c r="AC75" s="73"/>
+      <c r="AD75" s="72"/>
       <c r="AE75" s="27"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.4">
@@ -16561,38 +16467,38 @@
       <c r="F76" s="35">
         <v>1</v>
       </c>
-      <c r="G76" s="53" t="s">
+      <c r="G76" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="H76" s="54"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="54"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="77"/>
+      <c r="N76" s="76"/>
+      <c r="O76" s="78"/>
+      <c r="P76" s="78"/>
+      <c r="Q76" s="77"/>
       <c r="R76" s="27"/>
       <c r="S76" s="35">
         <v>1</v>
       </c>
-      <c r="T76" s="53" t="s">
+      <c r="T76" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="U76" s="54"/>
-      <c r="V76" s="53" t="s">
+      <c r="U76" s="77"/>
+      <c r="V76" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="W76" s="54"/>
-      <c r="X76" s="53"/>
-      <c r="Y76" s="55"/>
-      <c r="Z76" s="54"/>
-      <c r="AA76" s="53"/>
-      <c r="AB76" s="55"/>
-      <c r="AC76" s="55"/>
-      <c r="AD76" s="54"/>
+      <c r="W76" s="77"/>
+      <c r="X76" s="76"/>
+      <c r="Y76" s="78"/>
+      <c r="Z76" s="77"/>
+      <c r="AA76" s="76"/>
+      <c r="AB76" s="78"/>
+      <c r="AC76" s="78"/>
+      <c r="AD76" s="77"/>
       <c r="AE76" s="27"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.4">
@@ -16604,38 +16510,36 @@
       <c r="F77" s="35">
         <v>2</v>
       </c>
-      <c r="G77" s="53" t="s">
+      <c r="G77" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="H77" s="54"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="54"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="76"/>
+      <c r="O77" s="78"/>
+      <c r="P77" s="78"/>
+      <c r="Q77" s="77"/>
       <c r="R77" s="27"/>
       <c r="S77" s="35">
         <v>2</v>
       </c>
-      <c r="T77" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="U77" s="54"/>
-      <c r="V77" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="W77" s="54"/>
-      <c r="X77" s="53"/>
-      <c r="Y77" s="55"/>
-      <c r="Z77" s="54"/>
-      <c r="AA77" s="53"/>
-      <c r="AB77" s="55"/>
-      <c r="AC77" s="55"/>
-      <c r="AD77" s="54"/>
+      <c r="T77" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="U77" s="77"/>
+      <c r="V77" s="76"/>
+      <c r="W77" s="77"/>
+      <c r="X77" s="76"/>
+      <c r="Y77" s="78"/>
+      <c r="Z77" s="77"/>
+      <c r="AA77" s="76"/>
+      <c r="AB77" s="78"/>
+      <c r="AC77" s="78"/>
+      <c r="AD77" s="77"/>
       <c r="AE77" s="27"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.4">
@@ -16647,38 +16551,34 @@
       <c r="F78" s="35">
         <v>3</v>
       </c>
-      <c r="G78" s="53" t="s">
+      <c r="G78" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="H78" s="54"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="54"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="78"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="76"/>
+      <c r="O78" s="78"/>
+      <c r="P78" s="78"/>
+      <c r="Q78" s="77"/>
       <c r="R78" s="27"/>
       <c r="S78" s="35">
         <v>3</v>
       </c>
-      <c r="T78" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="U78" s="54"/>
-      <c r="V78" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="W78" s="54"/>
-      <c r="X78" s="53"/>
-      <c r="Y78" s="55"/>
-      <c r="Z78" s="54"/>
-      <c r="AA78" s="53"/>
-      <c r="AB78" s="55"/>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="54"/>
+      <c r="T78" s="76"/>
+      <c r="U78" s="77"/>
+      <c r="V78" s="76"/>
+      <c r="W78" s="77"/>
+      <c r="X78" s="76"/>
+      <c r="Y78" s="78"/>
+      <c r="Z78" s="77"/>
+      <c r="AA78" s="76"/>
+      <c r="AB78" s="78"/>
+      <c r="AC78" s="78"/>
+      <c r="AD78" s="77"/>
       <c r="AE78" s="27"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.4">
@@ -16690,38 +16590,34 @@
       <c r="F79" s="35">
         <v>4</v>
       </c>
-      <c r="G79" s="53" t="s">
+      <c r="G79" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="H79" s="54"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="54"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="77"/>
+      <c r="N79" s="76"/>
+      <c r="O79" s="78"/>
+      <c r="P79" s="78"/>
+      <c r="Q79" s="77"/>
       <c r="R79" s="27"/>
       <c r="S79" s="35">
         <v>4</v>
       </c>
-      <c r="T79" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="U79" s="54"/>
-      <c r="V79" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="W79" s="54"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="55"/>
-      <c r="Z79" s="54"/>
-      <c r="AA79" s="53"/>
-      <c r="AB79" s="55"/>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="54"/>
+      <c r="T79" s="76"/>
+      <c r="U79" s="77"/>
+      <c r="V79" s="76"/>
+      <c r="W79" s="77"/>
+      <c r="X79" s="76"/>
+      <c r="Y79" s="78"/>
+      <c r="Z79" s="77"/>
+      <c r="AA79" s="76"/>
+      <c r="AB79" s="78"/>
+      <c r="AC79" s="78"/>
+      <c r="AD79" s="77"/>
       <c r="AE79" s="27"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.4">
@@ -16733,34 +16629,30 @@
       <c r="F80" s="35">
         <v>5</v>
       </c>
-      <c r="G80" s="53"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="54"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="76"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="76"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="77"/>
       <c r="R80" s="27"/>
       <c r="S80" s="35">
         <v>5</v>
       </c>
-      <c r="T80" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="U80" s="54"/>
-      <c r="V80" s="53"/>
-      <c r="W80" s="54"/>
-      <c r="X80" s="53"/>
-      <c r="Y80" s="55"/>
-      <c r="Z80" s="54"/>
-      <c r="AA80" s="53"/>
-      <c r="AB80" s="55"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="54"/>
+      <c r="V80" s="76"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="76"/>
+      <c r="Y80" s="78"/>
+      <c r="Z80" s="77"/>
+      <c r="AA80" s="76"/>
+      <c r="AB80" s="78"/>
+      <c r="AC80" s="78"/>
+      <c r="AD80" s="77"/>
       <c r="AE80" s="27"/>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.4">
@@ -16772,32 +16664,32 @@
       <c r="F81" s="35">
         <v>6</v>
       </c>
-      <c r="G81" s="53"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="54"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="76"/>
+      <c r="O81" s="78"/>
+      <c r="P81" s="78"/>
+      <c r="Q81" s="77"/>
       <c r="R81" s="27"/>
       <c r="S81" s="35">
         <v>6</v>
       </c>
-      <c r="T81" s="53"/>
-      <c r="U81" s="54"/>
-      <c r="V81" s="53"/>
-      <c r="W81" s="54"/>
-      <c r="X81" s="53"/>
-      <c r="Y81" s="55"/>
-      <c r="Z81" s="54"/>
-      <c r="AA81" s="53"/>
-      <c r="AB81" s="55"/>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="54"/>
+      <c r="T81" s="76"/>
+      <c r="U81" s="77"/>
+      <c r="V81" s="76"/>
+      <c r="W81" s="77"/>
+      <c r="X81" s="76"/>
+      <c r="Y81" s="78"/>
+      <c r="Z81" s="77"/>
+      <c r="AA81" s="76"/>
+      <c r="AB81" s="78"/>
+      <c r="AC81" s="78"/>
+      <c r="AD81" s="77"/>
       <c r="AE81" s="27"/>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.4">
@@ -16809,32 +16701,32 @@
       <c r="F82" s="35">
         <v>7</v>
       </c>
-      <c r="G82" s="53"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="53"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="54"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="76"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="76"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="77"/>
       <c r="R82" s="27"/>
       <c r="S82" s="35">
         <v>7</v>
       </c>
-      <c r="T82" s="53"/>
-      <c r="U82" s="54"/>
-      <c r="V82" s="53"/>
-      <c r="W82" s="54"/>
-      <c r="X82" s="53"/>
-      <c r="Y82" s="55"/>
-      <c r="Z82" s="54"/>
-      <c r="AA82" s="53"/>
-      <c r="AB82" s="55"/>
-      <c r="AC82" s="55"/>
-      <c r="AD82" s="54"/>
+      <c r="T82" s="76"/>
+      <c r="U82" s="77"/>
+      <c r="V82" s="76"/>
+      <c r="W82" s="77"/>
+      <c r="X82" s="76"/>
+      <c r="Y82" s="78"/>
+      <c r="Z82" s="77"/>
+      <c r="AA82" s="76"/>
+      <c r="AB82" s="78"/>
+      <c r="AC82" s="78"/>
+      <c r="AD82" s="77"/>
       <c r="AE82" s="27"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.4">
@@ -16846,32 +16738,32 @@
       <c r="F83" s="35">
         <v>8</v>
       </c>
-      <c r="G83" s="53"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="53"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="54"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="76"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="76"/>
+      <c r="O83" s="78"/>
+      <c r="P83" s="78"/>
+      <c r="Q83" s="77"/>
       <c r="R83" s="27"/>
       <c r="S83" s="35">
         <v>8</v>
       </c>
-      <c r="T83" s="53"/>
-      <c r="U83" s="54"/>
-      <c r="V83" s="53"/>
-      <c r="W83" s="54"/>
-      <c r="X83" s="53"/>
-      <c r="Y83" s="55"/>
-      <c r="Z83" s="54"/>
-      <c r="AA83" s="53"/>
-      <c r="AB83" s="55"/>
-      <c r="AC83" s="55"/>
-      <c r="AD83" s="54"/>
+      <c r="T83" s="76"/>
+      <c r="U83" s="77"/>
+      <c r="V83" s="76"/>
+      <c r="W83" s="77"/>
+      <c r="X83" s="76"/>
+      <c r="Y83" s="78"/>
+      <c r="Z83" s="77"/>
+      <c r="AA83" s="76"/>
+      <c r="AB83" s="78"/>
+      <c r="AC83" s="78"/>
+      <c r="AD83" s="77"/>
       <c r="AE83" s="27"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.4">
@@ -16883,32 +16775,32 @@
       <c r="F84" s="35">
         <v>9</v>
       </c>
-      <c r="G84" s="53"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="54"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="76"/>
+      <c r="O84" s="78"/>
+      <c r="P84" s="78"/>
+      <c r="Q84" s="77"/>
       <c r="R84" s="27"/>
       <c r="S84" s="35">
         <v>9</v>
       </c>
-      <c r="T84" s="53"/>
-      <c r="U84" s="54"/>
-      <c r="V84" s="53"/>
-      <c r="W84" s="54"/>
-      <c r="X84" s="53"/>
-      <c r="Y84" s="55"/>
-      <c r="Z84" s="54"/>
-      <c r="AA84" s="53"/>
-      <c r="AB84" s="55"/>
-      <c r="AC84" s="55"/>
-      <c r="AD84" s="54"/>
+      <c r="T84" s="76"/>
+      <c r="U84" s="77"/>
+      <c r="V84" s="76"/>
+      <c r="W84" s="77"/>
+      <c r="X84" s="76"/>
+      <c r="Y84" s="78"/>
+      <c r="Z84" s="77"/>
+      <c r="AA84" s="76"/>
+      <c r="AB84" s="78"/>
+      <c r="AC84" s="78"/>
+      <c r="AD84" s="77"/>
       <c r="AE84" s="27"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.4">
@@ -16920,32 +16812,32 @@
       <c r="F85" s="35">
         <v>10</v>
       </c>
-      <c r="G85" s="53"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="54"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="77"/>
       <c r="R85" s="27"/>
       <c r="S85" s="35">
         <v>10</v>
       </c>
-      <c r="T85" s="53"/>
-      <c r="U85" s="54"/>
-      <c r="V85" s="53"/>
-      <c r="W85" s="54"/>
-      <c r="X85" s="53"/>
-      <c r="Y85" s="55"/>
-      <c r="Z85" s="54"/>
-      <c r="AA85" s="53"/>
-      <c r="AB85" s="55"/>
-      <c r="AC85" s="55"/>
-      <c r="AD85" s="54"/>
+      <c r="T85" s="76"/>
+      <c r="U85" s="77"/>
+      <c r="V85" s="76"/>
+      <c r="W85" s="77"/>
+      <c r="X85" s="76"/>
+      <c r="Y85" s="78"/>
+      <c r="Z85" s="77"/>
+      <c r="AA85" s="76"/>
+      <c r="AB85" s="78"/>
+      <c r="AC85" s="78"/>
+      <c r="AD85" s="77"/>
       <c r="AE85" s="27"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.4">
@@ -17023,32 +16915,32 @@
       <c r="F88" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="62" t="s">
+      <c r="G88" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
-      <c r="Q88" s="64"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="53"/>
+      <c r="P88" s="53"/>
+      <c r="Q88" s="54"/>
       <c r="R88" s="27"/>
       <c r="S88" s="29"/>
-      <c r="T88" s="65"/>
-      <c r="U88" s="65"/>
-      <c r="V88" s="65"/>
-      <c r="W88" s="65"/>
-      <c r="X88" s="65"/>
-      <c r="Y88" s="65"/>
-      <c r="Z88" s="65"/>
-      <c r="AA88" s="65"/>
-      <c r="AB88" s="65"/>
-      <c r="AC88" s="65"/>
-      <c r="AD88" s="65"/>
+      <c r="T88" s="88"/>
+      <c r="U88" s="88"/>
+      <c r="V88" s="88"/>
+      <c r="W88" s="88"/>
+      <c r="X88" s="88"/>
+      <c r="Y88" s="88"/>
+      <c r="Z88" s="88"/>
+      <c r="AA88" s="88"/>
+      <c r="AB88" s="88"/>
+      <c r="AC88" s="88"/>
+      <c r="AD88" s="88"/>
       <c r="AE88" s="27"/>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.4">
@@ -17057,20 +16949,20 @@
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
-      <c r="F89" s="62" t="s">
+      <c r="F89" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="63"/>
-      <c r="L89" s="63"/>
-      <c r="M89" s="63"/>
-      <c r="N89" s="63"/>
-      <c r="O89" s="63"/>
-      <c r="P89" s="63"/>
-      <c r="Q89" s="64"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="53"/>
+      <c r="N89" s="53"/>
+      <c r="O89" s="53"/>
+      <c r="P89" s="53"/>
+      <c r="Q89" s="54"/>
       <c r="R89" s="27"/>
       <c r="S89" s="37"/>
       <c r="T89" s="37"/>
@@ -17092,18 +16984,18 @@
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="67"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="67"/>
-      <c r="O90" s="67"/>
-      <c r="P90" s="67"/>
-      <c r="Q90" s="68"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="57"/>
       <c r="R90" s="27"/>
       <c r="S90" s="38"/>
       <c r="T90" s="38"/>
@@ -17125,18 +17017,18 @@
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="70"/>
-      <c r="O91" s="70"/>
-      <c r="P91" s="70"/>
-      <c r="Q91" s="71"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="59"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="60"/>
       <c r="R91" s="27"/>
       <c r="S91" s="38"/>
       <c r="T91" s="38"/>
@@ -17158,18 +17050,18 @@
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="70"/>
-      <c r="N92" s="70"/>
-      <c r="O92" s="70"/>
-      <c r="P92" s="70"/>
-      <c r="Q92" s="71"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="60"/>
       <c r="R92" s="27"/>
       <c r="S92" s="38"/>
       <c r="T92" s="38"/>
@@ -17191,18 +17083,18 @@
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="70"/>
-      <c r="J93" s="70"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="70"/>
-      <c r="M93" s="70"/>
-      <c r="N93" s="70"/>
-      <c r="O93" s="70"/>
-      <c r="P93" s="70"/>
-      <c r="Q93" s="71"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="59"/>
+      <c r="O93" s="59"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="60"/>
       <c r="R93" s="27"/>
       <c r="S93" s="38"/>
       <c r="T93" s="38"/>
@@ -17224,18 +17116,18 @@
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="70"/>
-      <c r="K94" s="70"/>
-      <c r="L94" s="70"/>
-      <c r="M94" s="70"/>
-      <c r="N94" s="70"/>
-      <c r="O94" s="70"/>
-      <c r="P94" s="70"/>
-      <c r="Q94" s="71"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="60"/>
       <c r="R94" s="27"/>
       <c r="S94" s="38"/>
       <c r="T94" s="38"/>
@@ -17257,18 +17149,18 @@
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
-      <c r="K95" s="70"/>
-      <c r="L95" s="70"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="70"/>
-      <c r="O95" s="70"/>
-      <c r="P95" s="70"/>
-      <c r="Q95" s="71"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="59"/>
+      <c r="N95" s="59"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="59"/>
+      <c r="Q95" s="60"/>
       <c r="R95" s="27"/>
       <c r="S95" s="38"/>
       <c r="T95" s="38"/>
@@ -17290,18 +17182,18 @@
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
-      <c r="K96" s="70"/>
-      <c r="L96" s="70"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="70"/>
-      <c r="O96" s="70"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="71"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59"/>
+      <c r="M96" s="59"/>
+      <c r="N96" s="59"/>
+      <c r="O96" s="59"/>
+      <c r="P96" s="59"/>
+      <c r="Q96" s="60"/>
       <c r="R96" s="27"/>
       <c r="S96" s="38"/>
       <c r="T96" s="38"/>
@@ -17323,18 +17215,18 @@
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
-      <c r="K97" s="70"/>
-      <c r="L97" s="70"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="70"/>
-      <c r="O97" s="70"/>
-      <c r="P97" s="70"/>
-      <c r="Q97" s="71"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="59"/>
+      <c r="N97" s="59"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="60"/>
       <c r="R97" s="27"/>
       <c r="S97" s="38"/>
       <c r="T97" s="38"/>
@@ -17356,18 +17248,18 @@
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="70"/>
-      <c r="O98" s="70"/>
-      <c r="P98" s="70"/>
-      <c r="Q98" s="71"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
+      <c r="N98" s="59"/>
+      <c r="O98" s="59"/>
+      <c r="P98" s="59"/>
+      <c r="Q98" s="60"/>
       <c r="R98" s="27"/>
       <c r="S98" s="38"/>
       <c r="T98" s="38"/>
@@ -17389,18 +17281,18 @@
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="70"/>
-      <c r="L99" s="70"/>
-      <c r="M99" s="70"/>
-      <c r="N99" s="70"/>
-      <c r="O99" s="70"/>
-      <c r="P99" s="70"/>
-      <c r="Q99" s="71"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
+      <c r="M99" s="59"/>
+      <c r="N99" s="59"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="60"/>
       <c r="R99" s="27"/>
       <c r="S99" s="38"/>
       <c r="T99" s="38"/>
@@ -17422,18 +17314,18 @@
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
       <c r="E100" s="27"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="70"/>
-      <c r="M100" s="70"/>
-      <c r="N100" s="70"/>
-      <c r="O100" s="70"/>
-      <c r="P100" s="70"/>
-      <c r="Q100" s="71"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
+      <c r="N100" s="59"/>
+      <c r="O100" s="59"/>
+      <c r="P100" s="59"/>
+      <c r="Q100" s="60"/>
       <c r="R100" s="27"/>
       <c r="S100" s="38"/>
       <c r="T100" s="38"/>
@@ -17455,18 +17347,18 @@
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="70"/>
-      <c r="L101" s="70"/>
-      <c r="M101" s="70"/>
-      <c r="N101" s="70"/>
-      <c r="O101" s="70"/>
-      <c r="P101" s="70"/>
-      <c r="Q101" s="71"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="59"/>
+      <c r="L101" s="59"/>
+      <c r="M101" s="59"/>
+      <c r="N101" s="59"/>
+      <c r="O101" s="59"/>
+      <c r="P101" s="59"/>
+      <c r="Q101" s="60"/>
       <c r="R101" s="27"/>
       <c r="S101" s="38"/>
       <c r="T101" s="38"/>
@@ -17488,18 +17380,18 @@
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="70"/>
-      <c r="K102" s="70"/>
-      <c r="L102" s="70"/>
-      <c r="M102" s="70"/>
-      <c r="N102" s="70"/>
-      <c r="O102" s="70"/>
-      <c r="P102" s="70"/>
-      <c r="Q102" s="71"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
+      <c r="L102" s="59"/>
+      <c r="M102" s="59"/>
+      <c r="N102" s="59"/>
+      <c r="O102" s="59"/>
+      <c r="P102" s="59"/>
+      <c r="Q102" s="60"/>
       <c r="R102" s="27"/>
       <c r="S102" s="38"/>
       <c r="T102" s="38"/>
@@ -17521,18 +17413,18 @@
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="70"/>
-      <c r="K103" s="70"/>
-      <c r="L103" s="70"/>
-      <c r="M103" s="70"/>
-      <c r="N103" s="70"/>
-      <c r="O103" s="70"/>
-      <c r="P103" s="70"/>
-      <c r="Q103" s="71"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="59"/>
+      <c r="M103" s="59"/>
+      <c r="N103" s="59"/>
+      <c r="O103" s="59"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="60"/>
       <c r="R103" s="27"/>
       <c r="S103" s="38"/>
       <c r="T103" s="38"/>
@@ -17554,18 +17446,18 @@
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="70"/>
-      <c r="K104" s="70"/>
-      <c r="L104" s="70"/>
-      <c r="M104" s="70"/>
-      <c r="N104" s="70"/>
-      <c r="O104" s="70"/>
-      <c r="P104" s="70"/>
-      <c r="Q104" s="71"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="59"/>
+      <c r="N104" s="59"/>
+      <c r="O104" s="59"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="60"/>
       <c r="R104" s="27"/>
       <c r="S104" s="38"/>
       <c r="T104" s="38"/>
@@ -17587,18 +17479,18 @@
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="70"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="70"/>
-      <c r="O105" s="70"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="71"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="59"/>
+      <c r="M105" s="59"/>
+      <c r="N105" s="59"/>
+      <c r="O105" s="59"/>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="60"/>
       <c r="R105" s="27"/>
       <c r="S105" s="38"/>
       <c r="T105" s="38"/>
@@ -17620,18 +17512,18 @@
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
-      <c r="J106" s="70"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="70"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="70"/>
-      <c r="O106" s="70"/>
-      <c r="P106" s="70"/>
-      <c r="Q106" s="71"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="59"/>
+      <c r="N106" s="59"/>
+      <c r="O106" s="59"/>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="60"/>
       <c r="R106" s="27"/>
       <c r="S106" s="38"/>
       <c r="T106" s="38"/>
@@ -17653,18 +17545,18 @@
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="70"/>
-      <c r="J107" s="70"/>
-      <c r="K107" s="70"/>
-      <c r="L107" s="70"/>
-      <c r="M107" s="70"/>
-      <c r="N107" s="70"/>
-      <c r="O107" s="70"/>
-      <c r="P107" s="70"/>
-      <c r="Q107" s="71"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="59"/>
+      <c r="N107" s="59"/>
+      <c r="O107" s="59"/>
+      <c r="P107" s="59"/>
+      <c r="Q107" s="60"/>
       <c r="R107" s="27"/>
       <c r="S107" s="38"/>
       <c r="T107" s="38"/>
@@ -17686,18 +17578,18 @@
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
-      <c r="I108" s="70"/>
-      <c r="J108" s="70"/>
-      <c r="K108" s="70"/>
-      <c r="L108" s="70"/>
-      <c r="M108" s="70"/>
-      <c r="N108" s="70"/>
-      <c r="O108" s="70"/>
-      <c r="P108" s="70"/>
-      <c r="Q108" s="71"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="59"/>
+      <c r="L108" s="59"/>
+      <c r="M108" s="59"/>
+      <c r="N108" s="59"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="60"/>
       <c r="R108" s="27"/>
       <c r="S108" s="38"/>
       <c r="T108" s="38"/>
@@ -17719,18 +17611,18 @@
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
-      <c r="L109" s="70"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="70"/>
-      <c r="O109" s="70"/>
-      <c r="P109" s="70"/>
-      <c r="Q109" s="71"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="59"/>
+      <c r="K109" s="59"/>
+      <c r="L109" s="59"/>
+      <c r="M109" s="59"/>
+      <c r="N109" s="59"/>
+      <c r="O109" s="59"/>
+      <c r="P109" s="59"/>
+      <c r="Q109" s="60"/>
       <c r="R109" s="27"/>
       <c r="S109" s="38"/>
       <c r="T109" s="38"/>
@@ -17752,18 +17644,18 @@
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
-      <c r="I110" s="70"/>
-      <c r="J110" s="70"/>
-      <c r="K110" s="70"/>
-      <c r="L110" s="70"/>
-      <c r="M110" s="70"/>
-      <c r="N110" s="70"/>
-      <c r="O110" s="70"/>
-      <c r="P110" s="70"/>
-      <c r="Q110" s="71"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="59"/>
+      <c r="K110" s="59"/>
+      <c r="L110" s="59"/>
+      <c r="M110" s="59"/>
+      <c r="N110" s="59"/>
+      <c r="O110" s="59"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="60"/>
       <c r="R110" s="27"/>
       <c r="S110" s="38"/>
       <c r="T110" s="38"/>
@@ -17785,18 +17677,18 @@
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
       <c r="E111" s="27"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="70"/>
-      <c r="J111" s="70"/>
-      <c r="K111" s="70"/>
-      <c r="L111" s="70"/>
-      <c r="M111" s="70"/>
-      <c r="N111" s="70"/>
-      <c r="O111" s="70"/>
-      <c r="P111" s="70"/>
-      <c r="Q111" s="71"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="59"/>
+      <c r="L111" s="59"/>
+      <c r="M111" s="59"/>
+      <c r="N111" s="59"/>
+      <c r="O111" s="59"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="60"/>
       <c r="R111" s="27"/>
       <c r="S111" s="38"/>
       <c r="T111" s="38"/>
@@ -17818,18 +17710,18 @@
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
       <c r="E112" s="27"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="70"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="70"/>
-      <c r="J112" s="70"/>
-      <c r="K112" s="70"/>
-      <c r="L112" s="70"/>
-      <c r="M112" s="70"/>
-      <c r="N112" s="70"/>
-      <c r="O112" s="70"/>
-      <c r="P112" s="70"/>
-      <c r="Q112" s="71"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="59"/>
+      <c r="L112" s="59"/>
+      <c r="M112" s="59"/>
+      <c r="N112" s="59"/>
+      <c r="O112" s="59"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="60"/>
       <c r="R112" s="27"/>
       <c r="S112" s="38"/>
       <c r="T112" s="38"/>
@@ -17851,22 +17743,22 @@
       <c r="C113" s="27"/>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="73"/>
-      <c r="H113" s="73"/>
-      <c r="I113" s="73"/>
-      <c r="J113" s="73"/>
-      <c r="K113" s="73"/>
-      <c r="L113" s="73"/>
-      <c r="M113" s="73"/>
-      <c r="N113" s="73"/>
-      <c r="O113" s="73"/>
-      <c r="P113" s="73"/>
-      <c r="Q113" s="74"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="62"/>
+      <c r="J113" s="62"/>
+      <c r="K113" s="62"/>
+      <c r="L113" s="62"/>
+      <c r="M113" s="62"/>
+      <c r="N113" s="62"/>
+      <c r="O113" s="62"/>
+      <c r="P113" s="62"/>
+      <c r="Q113" s="63"/>
       <c r="R113" s="27"/>
       <c r="S113" s="38"/>
-      <c r="T113" s="52"/>
-      <c r="U113" s="52"/>
+      <c r="T113" s="89"/>
+      <c r="U113" s="89"/>
       <c r="V113" s="38"/>
       <c r="W113" s="38"/>
       <c r="X113" s="38"/>
@@ -17884,25 +17776,25 @@
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
-      <c r="F114" s="56" t="s">
+      <c r="F114" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="57"/>
-      <c r="K114" s="57"/>
-      <c r="L114" s="57"/>
-      <c r="M114" s="57"/>
-      <c r="N114" s="57"/>
-      <c r="O114" s="57"/>
-      <c r="P114" s="57"/>
-      <c r="Q114" s="58"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
+      <c r="N114" s="67"/>
+      <c r="O114" s="67"/>
+      <c r="P114" s="67"/>
+      <c r="Q114" s="68"/>
       <c r="R114" s="27"/>
       <c r="S114" s="39"/>
       <c r="T114" s="39"/>
       <c r="U114" s="39"/>
-      <c r="V114" s="39"/>
+      <c r="V114" s="91"/>
       <c r="W114" s="39"/>
       <c r="X114" s="39"/>
       <c r="Y114" s="39"/>
@@ -17922,26 +17814,26 @@
       <c r="F115" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G115" s="59" t="s">
+      <c r="G115" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H115" s="60"/>
-      <c r="I115" s="59" t="s">
+      <c r="H115" s="72"/>
+      <c r="I115" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J115" s="60"/>
-      <c r="K115" s="59"/>
-      <c r="L115" s="61"/>
-      <c r="M115" s="60"/>
-      <c r="N115" s="59" t="s">
+      <c r="J115" s="72"/>
+      <c r="K115" s="71"/>
+      <c r="L115" s="73"/>
+      <c r="M115" s="72"/>
+      <c r="N115" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="O115" s="61"/>
-      <c r="P115" s="61"/>
-      <c r="Q115" s="60"/>
+      <c r="O115" s="73"/>
+      <c r="P115" s="73"/>
+      <c r="Q115" s="72"/>
       <c r="R115" s="27"/>
       <c r="S115" s="40"/>
-      <c r="T115" s="41"/>
+      <c r="T115" s="90"/>
       <c r="U115" s="41"/>
       <c r="V115" s="41"/>
       <c r="W115" s="41"/>
@@ -17963,30 +17855,34 @@
       <c r="F116" s="35">
         <v>1</v>
       </c>
-      <c r="G116" s="53"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="55"/>
-      <c r="M116" s="54"/>
-      <c r="N116" s="53"/>
-      <c r="O116" s="55"/>
-      <c r="P116" s="55"/>
-      <c r="Q116" s="54"/>
+      <c r="G116" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="H116" s="77"/>
+      <c r="I116" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="J116" s="77"/>
+      <c r="K116" s="76"/>
+      <c r="L116" s="78"/>
+      <c r="M116" s="77"/>
+      <c r="N116" s="76"/>
+      <c r="O116" s="78"/>
+      <c r="P116" s="78"/>
+      <c r="Q116" s="77"/>
       <c r="R116" s="27"/>
       <c r="S116" s="36"/>
-      <c r="T116" s="52"/>
-      <c r="U116" s="52"/>
-      <c r="V116" s="52"/>
-      <c r="W116" s="52"/>
-      <c r="X116" s="52"/>
-      <c r="Y116" s="52"/>
-      <c r="Z116" s="52"/>
-      <c r="AA116" s="52"/>
-      <c r="AB116" s="52"/>
-      <c r="AC116" s="52"/>
-      <c r="AD116" s="52"/>
+      <c r="T116" s="89"/>
+      <c r="U116" s="89"/>
+      <c r="V116" s="89"/>
+      <c r="W116" s="89"/>
+      <c r="X116" s="89"/>
+      <c r="Y116" s="89"/>
+      <c r="Z116" s="89"/>
+      <c r="AA116" s="89"/>
+      <c r="AB116" s="89"/>
+      <c r="AC116" s="89"/>
+      <c r="AD116" s="89"/>
       <c r="AE116" s="27"/>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.4">
@@ -17998,30 +17894,34 @@
       <c r="F117" s="35">
         <v>2</v>
       </c>
-      <c r="G117" s="53"/>
-      <c r="H117" s="54"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="55"/>
-      <c r="M117" s="54"/>
-      <c r="N117" s="53"/>
-      <c r="O117" s="55"/>
-      <c r="P117" s="55"/>
-      <c r="Q117" s="54"/>
+      <c r="G117" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H117" s="77"/>
+      <c r="I117" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="J117" s="77"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="78"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="76"/>
+      <c r="O117" s="78"/>
+      <c r="P117" s="78"/>
+      <c r="Q117" s="77"/>
       <c r="R117" s="27"/>
       <c r="S117" s="36"/>
-      <c r="T117" s="52"/>
-      <c r="U117" s="52"/>
-      <c r="V117" s="52"/>
-      <c r="W117" s="52"/>
-      <c r="X117" s="52"/>
-      <c r="Y117" s="52"/>
-      <c r="Z117" s="52"/>
-      <c r="AA117" s="52"/>
-      <c r="AB117" s="52"/>
-      <c r="AC117" s="52"/>
-      <c r="AD117" s="52"/>
+      <c r="T117" s="37"/>
+      <c r="U117" s="37"/>
+      <c r="V117" s="89"/>
+      <c r="W117" s="89"/>
+      <c r="X117" s="89"/>
+      <c r="Y117" s="89"/>
+      <c r="Z117" s="89"/>
+      <c r="AA117" s="89"/>
+      <c r="AB117" s="89"/>
+      <c r="AC117" s="89"/>
+      <c r="AD117" s="89"/>
       <c r="AE117" s="27"/>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.4">
@@ -18033,28 +17933,32 @@
       <c r="F118" s="35">
         <v>3</v>
       </c>
-      <c r="G118" s="53"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="55"/>
-      <c r="M118" s="54"/>
-      <c r="N118" s="53"/>
-      <c r="O118" s="55"/>
-      <c r="P118" s="55"/>
-      <c r="Q118" s="54"/>
+      <c r="G118" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" s="77"/>
+      <c r="I118" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="J118" s="77"/>
+      <c r="K118" s="76"/>
+      <c r="L118" s="78"/>
+      <c r="M118" s="77"/>
+      <c r="N118" s="76"/>
+      <c r="O118" s="78"/>
+      <c r="P118" s="78"/>
+      <c r="Q118" s="77"/>
       <c r="R118" s="27"/>
       <c r="S118" s="36"/>
-      <c r="V118" s="52"/>
-      <c r="W118" s="52"/>
-      <c r="X118" s="52"/>
-      <c r="Y118" s="52"/>
-      <c r="Z118" s="52"/>
-      <c r="AA118" s="52"/>
-      <c r="AB118" s="52"/>
-      <c r="AC118" s="52"/>
-      <c r="AD118" s="52"/>
+      <c r="V118" s="89"/>
+      <c r="W118" s="89"/>
+      <c r="X118" s="89"/>
+      <c r="Y118" s="89"/>
+      <c r="Z118" s="89"/>
+      <c r="AA118" s="89"/>
+      <c r="AB118" s="89"/>
+      <c r="AC118" s="89"/>
+      <c r="AD118" s="89"/>
       <c r="AE118" s="27"/>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.4">
@@ -18066,30 +17970,34 @@
       <c r="F119" s="35">
         <v>4</v>
       </c>
-      <c r="G119" s="53"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="55"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="53"/>
-      <c r="O119" s="55"/>
-      <c r="P119" s="55"/>
-      <c r="Q119" s="54"/>
+      <c r="G119" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" s="77"/>
+      <c r="I119" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="J119" s="77"/>
+      <c r="K119" s="76"/>
+      <c r="L119" s="78"/>
+      <c r="M119" s="77"/>
+      <c r="N119" s="76"/>
+      <c r="O119" s="78"/>
+      <c r="P119" s="78"/>
+      <c r="Q119" s="77"/>
       <c r="R119" s="27"/>
       <c r="S119" s="36"/>
-      <c r="T119" s="52"/>
-      <c r="U119" s="52"/>
-      <c r="V119" s="52"/>
-      <c r="W119" s="52"/>
-      <c r="X119" s="52"/>
-      <c r="Y119" s="52"/>
-      <c r="Z119" s="52"/>
-      <c r="AA119" s="52"/>
-      <c r="AB119" s="52"/>
-      <c r="AC119" s="52"/>
-      <c r="AD119" s="52"/>
+      <c r="T119" s="89"/>
+      <c r="U119" s="89"/>
+      <c r="V119" s="89"/>
+      <c r="W119" s="89"/>
+      <c r="X119" s="89"/>
+      <c r="Y119" s="89"/>
+      <c r="Z119" s="89"/>
+      <c r="AA119" s="89"/>
+      <c r="AB119" s="89"/>
+      <c r="AC119" s="89"/>
+      <c r="AD119" s="89"/>
       <c r="AE119" s="27"/>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.4">
@@ -18101,30 +18009,30 @@
       <c r="F120" s="35">
         <v>5</v>
       </c>
-      <c r="G120" s="53"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="55"/>
-      <c r="M120" s="54"/>
-      <c r="N120" s="53"/>
-      <c r="O120" s="55"/>
-      <c r="P120" s="55"/>
-      <c r="Q120" s="54"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="76"/>
+      <c r="J120" s="77"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="78"/>
+      <c r="M120" s="77"/>
+      <c r="N120" s="76"/>
+      <c r="O120" s="78"/>
+      <c r="P120" s="78"/>
+      <c r="Q120" s="77"/>
       <c r="R120" s="27"/>
       <c r="S120" s="36"/>
-      <c r="T120" s="52"/>
-      <c r="U120" s="52"/>
-      <c r="V120" s="52"/>
-      <c r="W120" s="52"/>
-      <c r="X120" s="52"/>
-      <c r="Y120" s="52"/>
-      <c r="Z120" s="52"/>
-      <c r="AA120" s="52"/>
-      <c r="AB120" s="52"/>
-      <c r="AC120" s="52"/>
-      <c r="AD120" s="52"/>
+      <c r="T120" s="89"/>
+      <c r="U120" s="89"/>
+      <c r="V120" s="89"/>
+      <c r="W120" s="89"/>
+      <c r="X120" s="89"/>
+      <c r="Y120" s="89"/>
+      <c r="Z120" s="89"/>
+      <c r="AA120" s="89"/>
+      <c r="AB120" s="89"/>
+      <c r="AC120" s="89"/>
+      <c r="AD120" s="89"/>
       <c r="AE120" s="27"/>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.4">
@@ -18136,30 +18044,30 @@
       <c r="F121" s="35">
         <v>6</v>
       </c>
-      <c r="G121" s="53"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="55"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="53"/>
-      <c r="O121" s="55"/>
-      <c r="P121" s="55"/>
-      <c r="Q121" s="54"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="76"/>
+      <c r="L121" s="78"/>
+      <c r="M121" s="77"/>
+      <c r="N121" s="76"/>
+      <c r="O121" s="78"/>
+      <c r="P121" s="78"/>
+      <c r="Q121" s="77"/>
       <c r="R121" s="27"/>
       <c r="S121" s="28"/>
-      <c r="T121" s="52"/>
-      <c r="U121" s="52"/>
-      <c r="V121" s="52"/>
-      <c r="W121" s="52"/>
-      <c r="X121" s="52"/>
-      <c r="Y121" s="52"/>
-      <c r="Z121" s="52"/>
-      <c r="AA121" s="52"/>
-      <c r="AB121" s="52"/>
-      <c r="AC121" s="52"/>
-      <c r="AD121" s="52"/>
+      <c r="T121" s="89"/>
+      <c r="U121" s="89"/>
+      <c r="V121" s="89"/>
+      <c r="W121" s="89"/>
+      <c r="X121" s="89"/>
+      <c r="Y121" s="89"/>
+      <c r="Z121" s="89"/>
+      <c r="AA121" s="89"/>
+      <c r="AB121" s="89"/>
+      <c r="AC121" s="89"/>
+      <c r="AD121" s="89"/>
       <c r="AE121" s="27"/>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.4">
@@ -18171,30 +18079,30 @@
       <c r="F122" s="35">
         <v>7</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="55"/>
-      <c r="M122" s="54"/>
-      <c r="N122" s="53"/>
-      <c r="O122" s="55"/>
-      <c r="P122" s="55"/>
-      <c r="Q122" s="54"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="77"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="78"/>
+      <c r="M122" s="77"/>
+      <c r="N122" s="76"/>
+      <c r="O122" s="78"/>
+      <c r="P122" s="78"/>
+      <c r="Q122" s="77"/>
       <c r="R122" s="27"/>
       <c r="S122" s="36"/>
-      <c r="T122" s="52"/>
-      <c r="U122" s="52"/>
-      <c r="V122" s="52"/>
-      <c r="W122" s="52"/>
-      <c r="X122" s="52"/>
-      <c r="Y122" s="52"/>
-      <c r="Z122" s="52"/>
-      <c r="AA122" s="52"/>
-      <c r="AB122" s="52"/>
-      <c r="AC122" s="52"/>
-      <c r="AD122" s="52"/>
+      <c r="T122" s="89"/>
+      <c r="U122" s="89"/>
+      <c r="V122" s="89"/>
+      <c r="W122" s="89"/>
+      <c r="X122" s="89"/>
+      <c r="Y122" s="89"/>
+      <c r="Z122" s="89"/>
+      <c r="AA122" s="89"/>
+      <c r="AB122" s="89"/>
+      <c r="AC122" s="89"/>
+      <c r="AD122" s="89"/>
       <c r="AE122" s="27"/>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.4">
@@ -18206,30 +18114,30 @@
       <c r="F123" s="35">
         <v>8</v>
       </c>
-      <c r="G123" s="53"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="55"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="53"/>
-      <c r="O123" s="55"/>
-      <c r="P123" s="55"/>
-      <c r="Q123" s="54"/>
+      <c r="G123" s="76"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="76"/>
+      <c r="J123" s="77"/>
+      <c r="K123" s="76"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="77"/>
+      <c r="N123" s="76"/>
+      <c r="O123" s="78"/>
+      <c r="P123" s="78"/>
+      <c r="Q123" s="77"/>
       <c r="R123" s="27"/>
       <c r="S123" s="36"/>
-      <c r="T123" s="52"/>
-      <c r="U123" s="52"/>
-      <c r="V123" s="52"/>
-      <c r="W123" s="52"/>
-      <c r="X123" s="52"/>
-      <c r="Y123" s="52"/>
-      <c r="Z123" s="52"/>
-      <c r="AA123" s="52"/>
-      <c r="AB123" s="52"/>
-      <c r="AC123" s="52"/>
-      <c r="AD123" s="52"/>
+      <c r="T123" s="89"/>
+      <c r="U123" s="89"/>
+      <c r="V123" s="89"/>
+      <c r="W123" s="89"/>
+      <c r="X123" s="89"/>
+      <c r="Y123" s="89"/>
+      <c r="Z123" s="89"/>
+      <c r="AA123" s="89"/>
+      <c r="AB123" s="89"/>
+      <c r="AC123" s="89"/>
+      <c r="AD123" s="89"/>
       <c r="AE123" s="27"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.4">
@@ -18241,30 +18149,30 @@
       <c r="F124" s="35">
         <v>9</v>
       </c>
-      <c r="G124" s="53"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="55"/>
-      <c r="M124" s="54"/>
-      <c r="N124" s="53"/>
-      <c r="O124" s="55"/>
-      <c r="P124" s="55"/>
-      <c r="Q124" s="54"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="76"/>
+      <c r="J124" s="77"/>
+      <c r="K124" s="76"/>
+      <c r="L124" s="78"/>
+      <c r="M124" s="77"/>
+      <c r="N124" s="76"/>
+      <c r="O124" s="78"/>
+      <c r="P124" s="78"/>
+      <c r="Q124" s="77"/>
       <c r="R124" s="27"/>
       <c r="S124" s="36"/>
-      <c r="T124" s="52"/>
-      <c r="U124" s="52"/>
-      <c r="V124" s="52"/>
-      <c r="W124" s="52"/>
-      <c r="X124" s="52"/>
-      <c r="Y124" s="52"/>
-      <c r="Z124" s="52"/>
-      <c r="AA124" s="52"/>
-      <c r="AB124" s="52"/>
-      <c r="AC124" s="52"/>
-      <c r="AD124" s="52"/>
+      <c r="T124" s="89"/>
+      <c r="U124" s="89"/>
+      <c r="V124" s="89"/>
+      <c r="W124" s="89"/>
+      <c r="X124" s="89"/>
+      <c r="Y124" s="89"/>
+      <c r="Z124" s="89"/>
+      <c r="AA124" s="89"/>
+      <c r="AB124" s="89"/>
+      <c r="AC124" s="89"/>
+      <c r="AD124" s="89"/>
       <c r="AE124" s="27"/>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.4">
@@ -18276,114 +18184,211 @@
       <c r="F125" s="35">
         <v>10</v>
       </c>
-      <c r="G125" s="53"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="55"/>
-      <c r="M125" s="54"/>
-      <c r="N125" s="53"/>
-      <c r="O125" s="55"/>
-      <c r="P125" s="55"/>
-      <c r="Q125" s="54"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="77"/>
+      <c r="I125" s="76"/>
+      <c r="J125" s="77"/>
+      <c r="K125" s="76"/>
+      <c r="L125" s="78"/>
+      <c r="M125" s="77"/>
+      <c r="N125" s="76"/>
+      <c r="O125" s="78"/>
+      <c r="P125" s="78"/>
+      <c r="Q125" s="77"/>
       <c r="R125" s="27"/>
       <c r="S125" s="36"/>
-      <c r="T125" s="52"/>
-      <c r="U125" s="52"/>
-      <c r="V125" s="52"/>
-      <c r="W125" s="52"/>
-      <c r="X125" s="52"/>
-      <c r="Y125" s="52"/>
-      <c r="Z125" s="52"/>
-      <c r="AA125" s="52"/>
-      <c r="AB125" s="52"/>
-      <c r="AC125" s="52"/>
-      <c r="AD125" s="52"/>
+      <c r="T125" s="89"/>
+      <c r="U125" s="89"/>
+      <c r="V125" s="89"/>
+      <c r="W125" s="89"/>
+      <c r="X125" s="89"/>
+      <c r="Y125" s="89"/>
+      <c r="Z125" s="89"/>
+      <c r="AA125" s="89"/>
+      <c r="AB125" s="89"/>
+      <c r="AC125" s="89"/>
+      <c r="AD125" s="89"/>
       <c r="AE125" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="281">
-    <mergeCell ref="G8:Q8"/>
-    <mergeCell ref="T8:AD8"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="S9:AD9"/>
-    <mergeCell ref="F10:Q33"/>
-    <mergeCell ref="S10:AD33"/>
-    <mergeCell ref="F34:Q34"/>
-    <mergeCell ref="S34:AD34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
+  <mergeCells count="279">
+    <mergeCell ref="X124:Z124"/>
+    <mergeCell ref="AA124:AD124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="N125:Q125"/>
+    <mergeCell ref="T125:U125"/>
+    <mergeCell ref="V125:W125"/>
+    <mergeCell ref="X125:Z125"/>
+    <mergeCell ref="AA125:AD125"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="T124:U124"/>
+    <mergeCell ref="V124:W124"/>
+    <mergeCell ref="X122:Z122"/>
+    <mergeCell ref="AA122:AD122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="T123:U123"/>
+    <mergeCell ref="V123:W123"/>
+    <mergeCell ref="X123:Z123"/>
+    <mergeCell ref="AA123:AD123"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="T122:U122"/>
+    <mergeCell ref="V122:W122"/>
+    <mergeCell ref="X120:Z120"/>
+    <mergeCell ref="AA120:AD120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="N121:Q121"/>
+    <mergeCell ref="T121:U121"/>
+    <mergeCell ref="V121:W121"/>
+    <mergeCell ref="X121:Z121"/>
+    <mergeCell ref="AA121:AD121"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:Q120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X118:Z118"/>
+    <mergeCell ref="AA118:AD118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="T119:U119"/>
+    <mergeCell ref="V119:W119"/>
+    <mergeCell ref="X119:Z119"/>
+    <mergeCell ref="AA119:AD119"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="V118:W118"/>
+    <mergeCell ref="F114:Q114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="N115:Q115"/>
+    <mergeCell ref="X116:Z116"/>
+    <mergeCell ref="AA116:AD116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="V117:W117"/>
+    <mergeCell ref="X117:Z117"/>
+    <mergeCell ref="AA117:AD117"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="N116:Q116"/>
+    <mergeCell ref="T116:U116"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="G88:Q88"/>
+    <mergeCell ref="T88:AD88"/>
+    <mergeCell ref="F89:Q89"/>
+    <mergeCell ref="F90:Q113"/>
+    <mergeCell ref="X84:Z84"/>
+    <mergeCell ref="AA84:AD84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="AA85:AD85"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="T113:U113"/>
+    <mergeCell ref="X82:Z82"/>
+    <mergeCell ref="AA82:AD82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="X83:Z83"/>
+    <mergeCell ref="AA83:AD83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="X80:Z80"/>
+    <mergeCell ref="AA80:AD80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Z81"/>
+    <mergeCell ref="AA81:AD81"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X78:Z78"/>
+    <mergeCell ref="AA78:AD78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Z79"/>
+    <mergeCell ref="AA79:AD79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AD76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Z77"/>
+    <mergeCell ref="AA77:AD77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="F74:Q74"/>
+    <mergeCell ref="S74:AD74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Z75"/>
+    <mergeCell ref="AA75:AD75"/>
     <mergeCell ref="G48:Q48"/>
     <mergeCell ref="T48:AD48"/>
     <mergeCell ref="F49:Q49"/>
@@ -18406,185 +18411,86 @@
     <mergeCell ref="N44:Q44"/>
     <mergeCell ref="T44:U44"/>
     <mergeCell ref="V44:W44"/>
-    <mergeCell ref="F74:Q74"/>
-    <mergeCell ref="S74:AD74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="X75:Z75"/>
-    <mergeCell ref="AA75:AD75"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="AA76:AD76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Z77"/>
-    <mergeCell ref="AA77:AD77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="X78:Z78"/>
-    <mergeCell ref="AA78:AD78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Z79"/>
-    <mergeCell ref="AA79:AD79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X80:Z80"/>
-    <mergeCell ref="AA80:AD80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Z81"/>
-    <mergeCell ref="AA81:AD81"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="X82:Z82"/>
-    <mergeCell ref="AA82:AD82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="X83:Z83"/>
-    <mergeCell ref="AA83:AD83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="G88:Q88"/>
-    <mergeCell ref="T88:AD88"/>
-    <mergeCell ref="F89:Q89"/>
-    <mergeCell ref="F90:Q113"/>
-    <mergeCell ref="X84:Z84"/>
-    <mergeCell ref="AA84:AD84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="AA85:AD85"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="T113:U113"/>
-    <mergeCell ref="F114:Q114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="N115:Q115"/>
-    <mergeCell ref="X116:Z116"/>
-    <mergeCell ref="AA116:AD116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="K117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="T117:U117"/>
-    <mergeCell ref="V117:W117"/>
-    <mergeCell ref="X117:Z117"/>
-    <mergeCell ref="AA117:AD117"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="N116:Q116"/>
-    <mergeCell ref="T116:U116"/>
-    <mergeCell ref="V116:W116"/>
-    <mergeCell ref="X118:Z118"/>
-    <mergeCell ref="AA118:AD118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="N119:Q119"/>
-    <mergeCell ref="T119:U119"/>
-    <mergeCell ref="V119:W119"/>
-    <mergeCell ref="X119:Z119"/>
-    <mergeCell ref="AA119:AD119"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="V118:W118"/>
-    <mergeCell ref="X120:Z120"/>
-    <mergeCell ref="AA120:AD120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="N121:Q121"/>
-    <mergeCell ref="T121:U121"/>
-    <mergeCell ref="V121:W121"/>
-    <mergeCell ref="X121:Z121"/>
-    <mergeCell ref="AA121:AD121"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:Q120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X122:Z122"/>
-    <mergeCell ref="AA122:AD122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="T123:U123"/>
-    <mergeCell ref="V123:W123"/>
-    <mergeCell ref="X123:Z123"/>
-    <mergeCell ref="AA123:AD123"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="T122:U122"/>
-    <mergeCell ref="V122:W122"/>
-    <mergeCell ref="X124:Z124"/>
-    <mergeCell ref="AA124:AD124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="N125:Q125"/>
-    <mergeCell ref="T125:U125"/>
-    <mergeCell ref="V125:W125"/>
-    <mergeCell ref="X125:Z125"/>
-    <mergeCell ref="AA125:AD125"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="T124:U124"/>
-    <mergeCell ref="V124:W124"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AD42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AD41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="G8:Q8"/>
+    <mergeCell ref="T8:AD8"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="S9:AD9"/>
+    <mergeCell ref="F10:Q33"/>
+    <mergeCell ref="S10:AD33"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="S34:AD34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AD35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/仕様書xlsx.xlsx
+++ b/schedule/仕様書xlsx.xlsx
@@ -1366,36 +1366,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1403,9 +1373,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1435,6 +1402,51 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,23 +1474,11 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -12715,6 +12715,512 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>753717</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977349" y="9848022"/>
+          <a:ext cx="463825" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1002196</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>240195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689653" y="9127434"/>
+          <a:ext cx="1076739" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ひっかく時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177248</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>210377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400879</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4244009" y="9097616"/>
+          <a:ext cx="911087" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なき声時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49697</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>455544</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2054088" y="9707218"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回で倒せる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376031</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>36445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>94422</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442792" y="9644271"/>
+          <a:ext cx="1093304" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>40</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回で倒せる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44726</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525117</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>235226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3424030" y="9785074"/>
+          <a:ext cx="480391" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ネコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>753717</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49697</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1441174" y="9988826"/>
+          <a:ext cx="612914" cy="8283"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525117</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>77857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376031</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3904421" y="9925879"/>
+          <a:ext cx="538371" cy="8282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13068,8 +13574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14086,36 +14592,36 @@
       <c r="F8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="66"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
       <c r="R8" s="27"/>
       <c r="S8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="64" t="s">
+      <c r="T8" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="66"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="56"/>
       <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
@@ -14126,35 +14632,35 @@
         <v>83</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="66"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="64" t="s">
+      <c r="S9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="66"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
       <c r="AE9" s="27"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
@@ -14165,35 +14671,35 @@
         <v>38</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="70"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="59"/>
       <c r="R10" s="27"/>
-      <c r="S10" s="87" t="s">
+      <c r="S10" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
       <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
@@ -14204,31 +14710,31 @@
         <v>50</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="73"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
       <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
@@ -14237,31 +14743,31 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="73"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
       <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
@@ -14270,31 +14776,31 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="73"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="62"/>
       <c r="R13" s="27"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="88"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <